--- a/data/hotels_by_city/Houston/Houston_shard_347.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_347.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -63,6 +63,15 @@
     <t>https://www.tripadvisor.com/Hotel_Review-g56723-d223181-Reviews-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
+    <t>101</t>
+  </si>
+  <si>
+    <t>8</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
     <t>https://www.orbitz.com/Houston-Hotels-Holiday-Inn-Express-Houston-Southwest-Sugar-Land.h17879.Hotel-Information</t>
   </si>
   <si>
@@ -139,6 +148,1339 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>08/10/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r590014637-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>56723</t>
+  </si>
+  <si>
+    <t>223181</t>
+  </si>
+  <si>
+    <t>590014637</t>
+  </si>
+  <si>
+    <t>06/23/2018</t>
+  </si>
+  <si>
+    <t>Extremely disappointing stay</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express in Sugar Land for three days. This is a very subpar hotel. Our first room had a problem with the shower and the drain in the sink. Also, the iron was not working in the room. They changed our rooms, which meant we had to move all of our stuff which we had already unpacked. When we got to the next room we noticed the same problems. Very poor shower with no pressure and only lukewarm water. The air conditioning is very loud and we requested four irons before we found one that was acceptable. The breakfast was very sparse with selection and quality. We chose this hotel primarily because of cost as we had many people coming to a wedding with varying budgets. In retrospect, we should’ve read the reviews more carefully and chosen a better hotel which only would’ve cost a few dollars per night more. If traveling to Sugar Land, Texas, definitely avoid this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>We stayed at the Holiday Inn Express in Sugar Land for three days. This is a very subpar hotel. Our first room had a problem with the shower and the drain in the sink. Also, the iron was not working in the room. They changed our rooms, which meant we had to move all of our stuff which we had already unpacked. When we got to the next room we noticed the same problems. Very poor shower with no pressure and only lukewarm water. The air conditioning is very loud and we requested four irons before we found one that was acceptable. The breakfast was very sparse with selection and quality. We chose this hotel primarily because of cost as we had many people coming to a wedding with varying budgets. In retrospect, we should’ve read the reviews more carefully and chosen a better hotel which only would’ve cost a few dollars per night more. If traveling to Sugar Land, Texas, definitely avoid this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r588459797-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>588459797</t>
+  </si>
+  <si>
+    <t>06/18/2018</t>
+  </si>
+  <si>
+    <t>Small and in need of updating</t>
+  </si>
+  <si>
+    <t>The room was very small.  It was old and dingy.  The bed was hard.  It was disappointing.  I exclusively stay at Holiday Inn Express Hotels and this was such a letdown.  The staff was friendly and the location was close to where I needed to be.  But I could quickly see why the price was lower due to the need for updating.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r584723456-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>584723456</t>
+  </si>
+  <si>
+    <t>06/03/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Average hotel </t>
+  </si>
+  <si>
+    <t>Stayed here during 2 family events. The hotel decor is fine, looks a little worn. The front desk was always attentive and helpful. We had one issue when one of the elevators got stuck between floors and no one answered the phone, had to ring the alarm button. The workers quickly started working on resetting and getting it moving, but no air conditioning in the elevator made it quite hot. Rooms were quite, but air conditioning is loud when it kicks on and had to turn tv volume up to be able to hear. Also no sleep option on the tv. Only ate the breakfast once as there was a softball tournament in the area and the breakfast area was crowded with the players and families. MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here during 2 family events. The hotel decor is fine, looks a little worn. The front desk was always attentive and helpful. We had one issue when one of the elevators got stuck between floors and no one answered the phone, had to ring the alarm button. The workers quickly started working on resetting and getting it moving, but no air conditioning in the elevator made it quite hot. Rooms were quite, but air conditioning is loud when it kicks on and had to turn tv volume up to be able to hear. Also no sleep option on the tv. Only ate the breakfast once as there was a softball tournament in the area and the breakfast area was crowded with the players and families. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r564562336-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>564562336</t>
+  </si>
+  <si>
+    <t>03/05/2018</t>
+  </si>
+  <si>
+    <t>In need of Remodel</t>
+  </si>
+  <si>
+    <t>the rooms had very strange dirty smell and rooms are pretty small.. They use to spray some freshners but it was of no use. Maintenance team was trying hard to get the things done. Breakfast was the saddest on this US tour. Overall experience was bad. The location is very far from all the happening places.. the service was also not great .Will avoid in future.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded March 20, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 20, 2018</t>
+  </si>
+  <si>
+    <t>the rooms had very strange dirty smell and rooms are pretty small.. They use to spray some freshners but it was of no use. Maintenance team was trying hard to get the things done. Breakfast was the saddest on this US tour. Overall experience was bad. The location is very far from all the happening places.. the service was also not great .Will avoid in future.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r561537470-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>561537470</t>
+  </si>
+  <si>
+    <t>02/19/2018</t>
+  </si>
+  <si>
+    <t>You can probably find somewhere better for the price</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting a family member at a nearby hospital. As IHG members we choose this hotel thinking it would be a typical Holiday Inn Express. The hotel was ok but definitely in need of a remodel. The front desk staff was friendly and accommodating. We got a suite which was clean but had a musty smell like it hadn’t been used in a while. Breakfast was your typical Holiday Inn Express breakfast. I would recommend staying somewhere else in the area. You can definitely get a better hotel for the same price.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded March 5, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 5, 2018</t>
+  </si>
+  <si>
+    <t>We stayed here while visiting a family member at a nearby hospital. As IHG members we choose this hotel thinking it would be a typical Holiday Inn Express. The hotel was ok but definitely in need of a remodel. The front desk staff was friendly and accommodating. We got a suite which was clean but had a musty smell like it hadn’t been used in a while. Breakfast was your typical Holiday Inn Express breakfast. I would recommend staying somewhere else in the area. You can definitely get a better hotel for the same price.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r560348383-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>560348383</t>
+  </si>
+  <si>
+    <t>02/13/2018</t>
+  </si>
+  <si>
+    <t>Cold Showers</t>
+  </si>
+  <si>
+    <t>No hot water three mornings in a row.  Three complaints - zero results.  Promised points at end, but never delivered.  Promised something again after review posted internally, only to call back and find no one by that name.  Weak wifi - this place is not good - avoid.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded February 28, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 28, 2018</t>
+  </si>
+  <si>
+    <t>No hot water three mornings in a row.  Three complaints - zero results.  Promised points at end, but never delivered.  Promised something again after review posted internally, only to call back and find no one by that name.  Weak wifi - this place is not good - avoid.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r512874407-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>512874407</t>
+  </si>
+  <si>
+    <t>08/14/2017</t>
+  </si>
+  <si>
+    <t>Average stay</t>
+  </si>
+  <si>
+    <t>The room had a strange smell, it needed a thorough cleaning. We brought Lysol and sprayed the entire room but it still smelled musty. The handicap accessible room was right next to the hotel equipment room which was very noisy and could be heard from the bathroom. Coffee in room and at breakfast buffet had an odd flavor. I expected more from a Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded August 29, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 29, 2017</t>
+  </si>
+  <si>
+    <t>The room had a strange smell, it needed a thorough cleaning. We brought Lysol and sprayed the entire room but it still smelled musty. The handicap accessible room was right next to the hotel equipment room which was very noisy and could be heard from the bathroom. Coffee in room and at breakfast buffet had an odd flavor. I expected more from a Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r503511966-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>503511966</t>
+  </si>
+  <si>
+    <t>07/19/2017</t>
+  </si>
+  <si>
+    <t>Not the best Holiday Inn experiance</t>
+  </si>
+  <si>
+    <t>Good:Clean roomClean bathroomClean bed sheets and coverTv was good size and worked.Felt I was in a clean room in a safe area and safe hotel.Bad:Non attentive front desk workerWhile drifting off to sleep, I was awoken by a lovely couple entering the room, because they were given the same room as me. I NO longer feel safe. Try to get back to sleep.Shower was cold for 10 solid minutes, when I forced myself into the cold shower, it slowly got warm, then hot, then scolding hot. Phones in room do not work, can't call the front desk.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2017</t>
+  </si>
+  <si>
+    <t>Good:Clean roomClean bathroomClean bed sheets and coverTv was good size and worked.Felt I was in a clean room in a safe area and safe hotel.Bad:Non attentive front desk workerWhile drifting off to sleep, I was awoken by a lovely couple entering the room, because they were given the same room as me. I NO longer feel safe. Try to get back to sleep.Shower was cold for 10 solid minutes, when I forced myself into the cold shower, it slowly got warm, then hot, then scolding hot. Phones in room do not work, can't call the front desk.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r499646896-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>499646896</t>
+  </si>
+  <si>
+    <t>07/08/2017</t>
+  </si>
+  <si>
+    <t>Good stay, great service</t>
+  </si>
+  <si>
+    <t>After a long drive, this was a very convenient stop directly off freeway. The rooms are clean, comfortable and have what you need for a short stay.  The breakfast is complimentary and more than adequate.  The thing that impressed us most was the wonderful customer service of the front desk staff. We had specific room requests (I'm a bit particular about room location) which were handled politely and eagerly. Joseph, the person on duty when we called and arrived, was so helpful and showed wonderful hospitality. I would return because of the customer care.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r479113063-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>479113063</t>
+  </si>
+  <si>
+    <t>04/26/2017</t>
+  </si>
+  <si>
+    <t>Great Value</t>
+  </si>
+  <si>
+    <t>Great Location off HWY 59 easy off and on freeway! Bed was very comfortable with several comfort level pillows to choose from on the bed. The only problem I could see was that the water in the morning was too hot for a shower. Could not get the water to adjust to less than a dangerously hot level so I had to settle for a bath which I was able to add ice from ice machine which was just outside my room to get comfortable water temp.  Just no cold water coming from the faucet in my room. Breakfast had a good selection and tasted very good.</t>
+  </si>
+  <si>
+    <t>April 2017</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r468277913-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>468277913</t>
+  </si>
+  <si>
+    <t>03/18/2017</t>
+  </si>
+  <si>
+    <t>Good price, excellent hotel.</t>
+  </si>
+  <si>
+    <t>We stayed for one night after 9 hour travel. We came tired. What we find here: first of all a very clean room and bathroom.  It's not a luxury room but with all essentials.  Confortable beds and pillows. It has the typical kind of hotel breakfast.  A little bit better  than a regular one with a pancake machine.  I recommend this hotel to stay if its on your way. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2017</t>
+  </si>
+  <si>
+    <t>MJP101569, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded April 2, 2017</t>
+  </si>
+  <si>
+    <t>Responded April 2, 2017</t>
+  </si>
+  <si>
+    <t>We stayed for one night after 9 hour travel. We came tired. What we find here: first of all a very clean room and bathroom.  It's not a luxury room but with all essentials.  Confortable beds and pillows. It has the typical kind of hotel breakfast.  A little bit better  than a regular one with a pancake machine.  I recommend this hotel to stay if its on your way. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r466400068-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>466400068</t>
+  </si>
+  <si>
+    <t>03/11/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Oasis </t>
+  </si>
+  <si>
+    <t>We had red eye flight in, we're exhausted and check in wasn't for hours.  We went to see if we could stay and the wonderful lady said yes.  I think name of Alexandria  but w not I....i don't know we were tired!She was awesome.   Room nice, not fancy.  Handicap room.  After nap offered to move since we didn't need special room.  She said we were good.  Breakfast nice, low key.  It seemed pretty full.  A previous entry complained about fitness room.  It is one of better stocked that I have seen. Weights, balls, stretch things, two treadmills.   It was goid temp.Another review said hot tub only seats 2. There is no hot tubMoreShow less</t>
+  </si>
+  <si>
+    <t>We had red eye flight in, we're exhausted and check in wasn't for hours.  We went to see if we could stay and the wonderful lady said yes.  I think name of Alexandria  but w not I....i don't know we were tired!She was awesome.   Room nice, not fancy.  Handicap room.  After nap offered to move since we didn't need special room.  She said we were good.  Breakfast nice, low key.  It seemed pretty full.  A previous entry complained about fitness room.  It is one of better stocked that I have seen. Weights, balls, stretch things, two treadmills.   It was goid temp.Another review said hot tub only seats 2. There is no hot tubMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r433673595-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>433673595</t>
+  </si>
+  <si>
+    <t>11/01/2016</t>
+  </si>
+  <si>
+    <t>Poorly maintained - great front desk staff</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel 5 weeks in a row.  In every week I had to report a maintenance problem - including a missing clock radio, bad iron, no hot water in the sink. The housekeeping staff (or at least one of them) throws away partially consumed water bottles.  There are very few outlets in the room, and each room is different for where outlets are placed.However the front desk staff are fantastic!  They handle every complaint professionally and have even given me extra IHG points in recompense.</t>
+  </si>
+  <si>
+    <t>October 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r432381544-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>432381544</t>
+  </si>
+  <si>
+    <t>10/28/2016</t>
+  </si>
+  <si>
+    <t>Great Location • Polite Staff</t>
+  </si>
+  <si>
+    <t>I recently stayed here one night because of its proximity to a particular attraction. I didn't spend much time on-site, but I found the staff very polite and helpful and the room clean. The bed was too firm for me, but that's not unusual. I would stay here again.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r427365546-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>427365546</t>
+  </si>
+  <si>
+    <t>10/12/2016</t>
+  </si>
+  <si>
+    <t>Wedding Weekend</t>
+  </si>
+  <si>
+    <t>Several members of my family stayed here for a wedding that was close by. The rooms were nice and clean, though a few did smell a bit musty. When housekeeping noticed the smell, they notified the front desk and those family members were immediately moved to new rooms. The staff was very friendly and welcoming. Breakfast was the standard fare at this type of hotel.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r403036206-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>403036206</t>
+  </si>
+  <si>
+    <t>08/08/2016</t>
+  </si>
+  <si>
+    <t>Should have stayed at the Hilton!</t>
+  </si>
+  <si>
+    <t>Upon arrival at the hotel, we were greeted by a young lady for Check-in.  I informed her that the reservation she pulled up on her screen was different than the one I booked online (I booked a king bed and the reservation was for two doubles).  She did not confirm that she was going to change the accommodations, so I asked her what type room it would be, as she handed me the room keys.  She rudely answered “king.”  The room seemed pretty dated.  As we were getting ready for bed, I pulled off all of the sheets/comforter and exposed a fitted sheet that was tremendously stained with Lord know what.  There were four massive, crusty stains on the fitted sheet.  I immediately called the Front Desk and asked for a new fitted sheet.  The next morning, I was looking forward to the “Fresh, Hot Pancakes” that were advertised in the elevator.  When we enter the breakfast area, I see a big sign that says, “OUT OF ORDER.”  The breakfast was sub-par.  Later that day, Housekeeping came around and I asked for some big towels.  Much to my dismay, the lady informed me that they did not have any and I would have to go down to the Front Desk to obtain some.  I blew it off and went to the “gym.”  Again, disappointed!  It was hotter in there than it was outside – August in Texas, c’mon.  I examined...Upon arrival at the hotel, we were greeted by a young lady for Check-in.  I informed her that the reservation she pulled up on her screen was different than the one I booked online (I booked a king bed and the reservation was for two doubles).  She did not confirm that she was going to change the accommodations, so I asked her what type room it would be, as she handed me the room keys.  She rudely answered “king.”  The room seemed pretty dated.  As we were getting ready for bed, I pulled off all of the sheets/comforter and exposed a fitted sheet that was tremendously stained with Lord know what.  There were four massive, crusty stains on the fitted sheet.  I immediately called the Front Desk and asked for a new fitted sheet.  The next morning, I was looking forward to the “Fresh, Hot Pancakes” that were advertised in the elevator.  When we enter the breakfast area, I see a big sign that says, “OUT OF ORDER.”  The breakfast was sub-par.  Later that day, Housekeeping came around and I asked for some big towels.  Much to my dismay, the lady informed me that they did not have any and I would have to go down to the Front Desk to obtain some.  I blew it off and went to the “gym.”  Again, disappointed!  It was hotter in there than it was outside – August in Texas, c’mon.  I examined the a/c and discovered that the plug did not fit any receptacle that was near the unit.  I shrugged it off and got on the treadmill – it made the most horrible screeching I have ever heard.  I got off and went over to another treadmill.  This one was a bit better.  I finished my workout and decided to go to the Front Desk to obtain those big towels for a shower.  A gentleman came out of the back room, on the phone, and nodded his head, as to say, “What do you want?”  I told him that Housekeeping said I had to get a towel from the Front Desk.  Without a reply, he went out from behind the Front Desk and over to a Supply Room.  Five or so minutes later, a housekeeper came out of the elevator, lugging a bag of laundry way too heavy for her, and asked if I was waiting for something.  I told her that I was waiting for big towels.  Soon after, the gentleman, still on the phone, came out and handed me the towels.  He did not acknowledge me or say “sorry for the wait.”  Getting into bed later that night, I discovered another stain.  This time, it was on the comforter.  It looked like make-up or coffee.  I did not even bother to call the front desk.  I had enough of this place.  The next morning we did not bother with the breakfast.  We went to Egg &amp; I, which was amazing.  I was glad to leave this horrible place and will likely never stay at a Holiday Inn Express ever again.  I have had good experiences with Holiday Inn &amp; Suites.  I guess there is a great disparity between these two branches of Holiday Inn.  I should have booked the Hilton on University and Hwy 6!MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
+    <t>Upon arrival at the hotel, we were greeted by a young lady for Check-in.  I informed her that the reservation she pulled up on her screen was different than the one I booked online (I booked a king bed and the reservation was for two doubles).  She did not confirm that she was going to change the accommodations, so I asked her what type room it would be, as she handed me the room keys.  She rudely answered “king.”  The room seemed pretty dated.  As we were getting ready for bed, I pulled off all of the sheets/comforter and exposed a fitted sheet that was tremendously stained with Lord know what.  There were four massive, crusty stains on the fitted sheet.  I immediately called the Front Desk and asked for a new fitted sheet.  The next morning, I was looking forward to the “Fresh, Hot Pancakes” that were advertised in the elevator.  When we enter the breakfast area, I see a big sign that says, “OUT OF ORDER.”  The breakfast was sub-par.  Later that day, Housekeeping came around and I asked for some big towels.  Much to my dismay, the lady informed me that they did not have any and I would have to go down to the Front Desk to obtain some.  I blew it off and went to the “gym.”  Again, disappointed!  It was hotter in there than it was outside – August in Texas, c’mon.  I examined...Upon arrival at the hotel, we were greeted by a young lady for Check-in.  I informed her that the reservation she pulled up on her screen was different than the one I booked online (I booked a king bed and the reservation was for two doubles).  She did not confirm that she was going to change the accommodations, so I asked her what type room it would be, as she handed me the room keys.  She rudely answered “king.”  The room seemed pretty dated.  As we were getting ready for bed, I pulled off all of the sheets/comforter and exposed a fitted sheet that was tremendously stained with Lord know what.  There were four massive, crusty stains on the fitted sheet.  I immediately called the Front Desk and asked for a new fitted sheet.  The next morning, I was looking forward to the “Fresh, Hot Pancakes” that were advertised in the elevator.  When we enter the breakfast area, I see a big sign that says, “OUT OF ORDER.”  The breakfast was sub-par.  Later that day, Housekeeping came around and I asked for some big towels.  Much to my dismay, the lady informed me that they did not have any and I would have to go down to the Front Desk to obtain some.  I blew it off and went to the “gym.”  Again, disappointed!  It was hotter in there than it was outside – August in Texas, c’mon.  I examined the a/c and discovered that the plug did not fit any receptacle that was near the unit.  I shrugged it off and got on the treadmill – it made the most horrible screeching I have ever heard.  I got off and went over to another treadmill.  This one was a bit better.  I finished my workout and decided to go to the Front Desk to obtain those big towels for a shower.  A gentleman came out of the back room, on the phone, and nodded his head, as to say, “What do you want?”  I told him that Housekeeping said I had to get a towel from the Front Desk.  Without a reply, he went out from behind the Front Desk and over to a Supply Room.  Five or so minutes later, a housekeeper came out of the elevator, lugging a bag of laundry way too heavy for her, and asked if I was waiting for something.  I told her that I was waiting for big towels.  Soon after, the gentleman, still on the phone, came out and handed me the towels.  He did not acknowledge me or say “sorry for the wait.”  Getting into bed later that night, I discovered another stain.  This time, it was on the comforter.  It looked like make-up or coffee.  I did not even bother to call the front desk.  I had enough of this place.  The next morning we did not bother with the breakfast.  We went to Egg &amp; I, which was amazing.  I was glad to leave this horrible place and will likely never stay at a Holiday Inn Express ever again.  I have had good experiences with Holiday Inn &amp; Suites.  I guess there is a great disparity between these two branches of Holiday Inn.  I should have booked the Hilton on University and Hwy 6!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r402943600-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>402943600</t>
+  </si>
+  <si>
+    <t>Relaxing</t>
+  </si>
+  <si>
+    <t>The hotel and staff were amazing. Everything we need was available at the hotel or within driving distance some even walking distance. The area around the hotel is quite you could walk the parking lot just for the workout, it's safe. I will return here in the future.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r385241888-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>385241888</t>
+  </si>
+  <si>
+    <t>06/23/2016</t>
+  </si>
+  <si>
+    <t>Solid HI Express experience</t>
+  </si>
+  <si>
+    <t>We stayed a single night here June 3, 2016.  The bed was very comfortable, (as HI Express always are), the room was nice and clean, the breakfast tasty and the coffee strong.  The only downside was very little hot water in the shower.  You could get either hot water with no pressure, or warm water with okay pressure.  The front desk was aware of the problem (not new); a shame they haven't remedied this yet.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r372585686-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>372585686</t>
+  </si>
+  <si>
+    <t>05/13/2016</t>
+  </si>
+  <si>
+    <t>Average hotel</t>
+  </si>
+  <si>
+    <t>We stood overnight at this hotel overall was ok, check in was friendly and seem very clean, elevator is hot and smelly once in the room bed was ok, squeaky as well as desk chair.Not recommend for longer stay than a nightMoreShow less</t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded May 29, 2016</t>
+  </si>
+  <si>
+    <t>Responded May 29, 2016</t>
+  </si>
+  <si>
+    <t>We stood overnight at this hotel overall was ok, check in was friendly and seem very clean, elevator is hot and smelly once in the room bed was ok, squeaky as well as desk chair.Not recommend for longer stay than a nightMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r366075800-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>366075800</t>
+  </si>
+  <si>
+    <t>04/21/2016</t>
+  </si>
+  <si>
+    <t>Nice boutique hotel</t>
+  </si>
+  <si>
+    <t>This is nice and compact property with all basic facilities. The lobby is small and the staff is very helpful. Rooms are adequate and comfortable. Location is ok. I was there the day Houston had flood but the water didnot came here as the property was in slightly elevated location.Rooms - nice and cleanBathroom - compact and okToiletries- limited and can be improvedFood - okBreakfast - limited but one can managePool- small and cleanGymn- small and has important equipmentsOverall - no complaints express hotel</t>
+  </si>
+  <si>
+    <t>April 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r363383765-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>363383765</t>
+  </si>
+  <si>
+    <t>04/11/2016</t>
+  </si>
+  <si>
+    <t>Very clean, friendly hotel</t>
+  </si>
+  <si>
+    <t>Stayed one night on business in this hotel, and it was very nice and clean.  The staff is friendly.  However, I did not like the parking situation as the spots are few and very small.  It's also kind of easy to miss the entrance on the service road if you're not looking closely.  I had to park around the side of the building which backed up to some businesses and did not have a very "safe" feel as it is not adequately lit.  Breakfast was good.  Did a late checkout and had an upgraded room, so I definitely appreciated their customer service.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r346600334-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>346600334</t>
+  </si>
+  <si>
+    <t>02/10/2016</t>
+  </si>
+  <si>
+    <t>An good alternative to Hyatt Place Sugarland</t>
+  </si>
+  <si>
+    <t>I used to stay in Hyatt Place while I was visiting Sugarland, TX. This time I tried HI Exp because they have vacancy and the nightly rate is very reasonable. This hotel in an office complex behind FedEx store. The room is apartment style with kitchen and living area etc. The included breakfast is okay. Lots of restaurants around. The staffs are very nice. Ray helped printing my boarding passes because the self server printer was broken. People like to smoke in front of the hotel and I used the back door to walk around the hotel to my car.</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r337885314-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>337885314</t>
+  </si>
+  <si>
+    <t>01/06/2016</t>
+  </si>
+  <si>
+    <t>Doctors visit</t>
+  </si>
+  <si>
+    <t>The rooms we got were good and my mom was happy with her room.  She had a doctors appt. the next day and this place was right down the doctors office.  Front office was helpful.  The a/c were working good.  Rooms were clean and stocked withall towels and soaps and other goodies that should be there.  The breakfast is just good to get you going for the morning. Would stay here again in the future.  GM</t>
+  </si>
+  <si>
+    <t>December 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r332778611-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>332778611</t>
+  </si>
+  <si>
+    <t>12/14/2015</t>
+  </si>
+  <si>
+    <t>Frustrated business traveler...</t>
+  </si>
+  <si>
+    <t>I booked this hotel for an overnight business trip in the area (close to a client) and because I am an IHG Rewards program participant (and have been for MANY years). I am writing this review from the lobby -- because the internet connection is virtually non-existent in my room! So much for working in the room. There are only 3 access points in the entire hotel (according to the front desk staff) which is severely lacking for this day and age.I have not yet experienced sleeping in the bed or the breakfast, so I can not offer more details on those amenities. More to come once I complete my travel...MoreShow less</t>
+  </si>
+  <si>
+    <t>I booked this hotel for an overnight business trip in the area (close to a client) and because I am an IHG Rewards program participant (and have been for MANY years). I am writing this review from the lobby -- because the internet connection is virtually non-existent in my room! So much for working in the room. There are only 3 access points in the entire hotel (according to the front desk staff) which is severely lacking for this day and age.I have not yet experienced sleeping in the bed or the breakfast, so I can not offer more details on those amenities. More to come once I complete my travel...More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r321270912-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>321270912</t>
+  </si>
+  <si>
+    <t>10/23/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dirty </t>
+  </si>
+  <si>
+    <t xml:space="preserve">They need to clean up!  I've stayed at a lot of Holiday Inn Express's in Houston and this one is definitely not one of my favorites. Not that is was messy  it just wasn't clean. At breakfast my feet stuck to the floor and the counters were just dirty/ sticky.  Room was also dirty. They need to get serious on cleaning up. </t>
+  </si>
+  <si>
+    <t>October 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r318400462-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>318400462</t>
+  </si>
+  <si>
+    <t>10/13/2015</t>
+  </si>
+  <si>
+    <t>Nice and clean</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nice clean hotel. Service with a smile. I was there for work,and enjoyed my stay at the hotel. Nice spread for breakfast,comfortable beds, polite staff, hot shower,clean rooms, no smoke smell...... I would say here again if the need arose. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r304733842-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>304733842</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>This may be the wrong hotel, the address for the one I was in was 11160 southwest fwy Sugar land</t>
+  </si>
+  <si>
+    <t>This hotel charged me the highest rate of the 3 Holiday Inns I stayed in on my trip. The room was the smallest room I have ever seen. When trying to get out of bed, my legs hit the wall, it was so small. To add insult to injury, the room had no microwave or refrigerator. A microwave was available at $15.00 per day and a mini fridge was available for $25.00 dollars EXTRA a day. The air conditioner was rigged to turn completely off between cycles. When it was running it was great, When it wasn't the room was hot and stuffy. The "spa" was only 4 feet long and 2 feet wide. Yep, my sofa is bigger than the spa that was offered. Being the highest priced hotel we stayed in, it did not offer any kind of breakfast with the room. The staff was polite, but came off as snooty to me. I will not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded September 14, 2015</t>
+  </si>
+  <si>
+    <t>Responded September 14, 2015</t>
+  </si>
+  <si>
+    <t>This hotel charged me the highest rate of the 3 Holiday Inns I stayed in on my trip. The room was the smallest room I have ever seen. When trying to get out of bed, my legs hit the wall, it was so small. To add insult to injury, the room had no microwave or refrigerator. A microwave was available at $15.00 per day and a mini fridge was available for $25.00 dollars EXTRA a day. The air conditioner was rigged to turn completely off between cycles. When it was running it was great, When it wasn't the room was hot and stuffy. The "spa" was only 4 feet long and 2 feet wide. Yep, my sofa is bigger than the spa that was offered. Being the highest priced hotel we stayed in, it did not offer any kind of breakfast with the room. The staff was polite, but came off as snooty to me. I will not stay there again.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r291293200-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>291293200</t>
+  </si>
+  <si>
+    <t>07/21/2015</t>
+  </si>
+  <si>
+    <t>The shower from Satan's chambers...</t>
+  </si>
+  <si>
+    <t>I'm a Platinum level member of the IHG so I stay at a lot of HI Expresses and this one was definitely a big disappointment.  The deadbolt on my card lock was bent and could not be thrown to secure my door and the peephole was so badly scratched that it was useless, rendering my primary room security measures worthless.  And the A/C worked very poorly and never did cool the room off even though it was set to 66 the entire time.  And then the shower nightmare.  The shower head offered 2 spray types; a narrow hard thumping stream in the middle, or the normal shower spray that sprayed water in every crazy direction possible, leaving the bathroom floor soaked.  So before I experience anything else below HIE standards, I am going to submit this and state that I will not be returning to this property, despite having a major client nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>hiexsugarland, Front Office Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 23, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 23, 2015</t>
+  </si>
+  <si>
+    <t>I'm a Platinum level member of the IHG so I stay at a lot of HI Expresses and this one was definitely a big disappointment.  The deadbolt on my card lock was bent and could not be thrown to secure my door and the peephole was so badly scratched that it was useless, rendering my primary room security measures worthless.  And the A/C worked very poorly and never did cool the room off even though it was set to 66 the entire time.  And then the shower nightmare.  The shower head offered 2 spray types; a narrow hard thumping stream in the middle, or the normal shower spray that sprayed water in every crazy direction possible, leaving the bathroom floor soaked.  So before I experience anything else below HIE standards, I am going to submit this and state that I will not be returning to this property, despite having a major client nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r286745014-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>286745014</t>
+  </si>
+  <si>
+    <t>07/08/2015</t>
+  </si>
+  <si>
+    <t>Great Place to Stay!</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here to visit family over the Independence Day weekend.  The location was convenient - right off the Southwest Freeway.  The lobby was clean and pleasant.  The pool was very inviting, but we did not get a chance to enjoy it since we were mostly away from the hotel.  The staff was very friendly and professional at check in.
+Our room was a good size.  The king size bed was very comfortable, and the TV was a good size.  The hotel has DirecTV, which we have at home, so it was easy to find the channels.  All the premium channels were included.
+Breakfast was included in the price of the hotel, and there was a good selection each morning.  The staff does a good job of keeping the breakfast selection stocked.
+There were a few minor drawbacks:
+(1) The A/C in the room seemed to have trouble keeping up.  At 72°, it seemed warm and humid in the room.  The extreme temperature outside probably had something to do with this, but the temperatures were not unusual for Texas in the summertime.
+(2) The Wifi was extremely slow, and I was unable to get my laptop to connect to the Internet.  It was not a big deal for us since we were mostly using it to check email and play and limited browsing, but if you were looking to stream music or video, it would definitely be...My wife and I stayed here to visit family over the Independence Day weekend.  The location was convenient - right off the Southwest Freeway.  The lobby was clean and pleasant.  The pool was very inviting, but we did not get a chance to enjoy it since we were mostly away from the hotel.  The staff was very friendly and professional at check in.Our room was a good size.  The king size bed was very comfortable, and the TV was a good size.  The hotel has DirecTV, which we have at home, so it was easy to find the channels.  All the premium channels were included.Breakfast was included in the price of the hotel, and there was a good selection each morning.  The staff does a good job of keeping the breakfast selection stocked.There were a few minor drawbacks:(1) The A/C in the room seemed to have trouble keeping up.  At 72°, it seemed warm and humid in the room.  The extreme temperature outside probably had something to do with this, but the temperatures were not unusual for Texas in the summertime.(2) The Wifi was extremely slow, and I was unable to get my laptop to connect to the Internet.  It was not a big deal for us since we were mostly using it to check email and play and limited browsing, but if you were looking to stream music or video, it would definitely be annoying.(3) The hot water in the bathroom seemed to take a long time to warm up, and I could not seem to adjust the shower curtain to prevent flooding the floor during a shower.All in all, the pluses outweighed the minuses, and we will definitely consider this hotel on our next visit to Sugar Land.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexsugarland, Front Office Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 13, 2015</t>
+  </si>
+  <si>
+    <t>Responded July 13, 2015</t>
+  </si>
+  <si>
+    <t>My wife and I stayed here to visit family over the Independence Day weekend.  The location was convenient - right off the Southwest Freeway.  The lobby was clean and pleasant.  The pool was very inviting, but we did not get a chance to enjoy it since we were mostly away from the hotel.  The staff was very friendly and professional at check in.
+Our room was a good size.  The king size bed was very comfortable, and the TV was a good size.  The hotel has DirecTV, which we have at home, so it was easy to find the channels.  All the premium channels were included.
+Breakfast was included in the price of the hotel, and there was a good selection each morning.  The staff does a good job of keeping the breakfast selection stocked.
+There were a few minor drawbacks:
+(1) The A/C in the room seemed to have trouble keeping up.  At 72°, it seemed warm and humid in the room.  The extreme temperature outside probably had something to do with this, but the temperatures were not unusual for Texas in the summertime.
+(2) The Wifi was extremely slow, and I was unable to get my laptop to connect to the Internet.  It was not a big deal for us since we were mostly using it to check email and play and limited browsing, but if you were looking to stream music or video, it would definitely be...My wife and I stayed here to visit family over the Independence Day weekend.  The location was convenient - right off the Southwest Freeway.  The lobby was clean and pleasant.  The pool was very inviting, but we did not get a chance to enjoy it since we were mostly away from the hotel.  The staff was very friendly and professional at check in.Our room was a good size.  The king size bed was very comfortable, and the TV was a good size.  The hotel has DirecTV, which we have at home, so it was easy to find the channels.  All the premium channels were included.Breakfast was included in the price of the hotel, and there was a good selection each morning.  The staff does a good job of keeping the breakfast selection stocked.There were a few minor drawbacks:(1) The A/C in the room seemed to have trouble keeping up.  At 72°, it seemed warm and humid in the room.  The extreme temperature outside probably had something to do with this, but the temperatures were not unusual for Texas in the summertime.(2) The Wifi was extremely slow, and I was unable to get my laptop to connect to the Internet.  It was not a big deal for us since we were mostly using it to check email and play and limited browsing, but if you were looking to stream music or video, it would definitely be annoying.(3) The hot water in the bathroom seemed to take a long time to warm up, and I could not seem to adjust the shower curtain to prevent flooding the floor during a shower.All in all, the pluses outweighed the minuses, and we will definitely consider this hotel on our next visit to Sugar Land.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r282973688-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>282973688</t>
+  </si>
+  <si>
+    <t>06/25/2015</t>
+  </si>
+  <si>
+    <t>Nice</t>
+  </si>
+  <si>
+    <t>This hotel is lovely, clean, and safe. The rooms offer a microwave, small refrigerator, and coffeemaker. The flat screen TV is good size and comes with Directv. The bath and bed linens are very comfortable.The continental breakfast is good, and the fitness room offers several treadmills and ellipticals with television.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2015</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded June 30, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 30, 2015</t>
+  </si>
+  <si>
+    <t>This hotel is lovely, clean, and safe. The rooms offer a microwave, small refrigerator, and coffeemaker. The flat screen TV is good size and comes with Directv. The bath and bed linens are very comfortable.The continental breakfast is good, and the fitness room offers several treadmills and ellipticals with television.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r274249369-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>274249369</t>
+  </si>
+  <si>
+    <t>05/24/2015</t>
+  </si>
+  <si>
+    <t>Old ... enough said.</t>
+  </si>
+  <si>
+    <t>The outside of this property fooled me.  I thought it was a newer style, or at least renovated.  Sadly, I was wrong.This is an old property that was renovated on the cheap.  The bathrooms are tiny. The carpet is old and tired.  I could go on, but I think you probably get the picture.  As a very frequent HIE traveler (Gold Priority), this property does not meet the new standard set by HIE properties.On the plus side - the location is great.  The area is safe,clean and close to everything (in Sugar Land).  Other than that, you will be disappointed if you're used to the newer HIE's.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded June 10, 2015</t>
+  </si>
+  <si>
+    <t>Responded June 10, 2015</t>
+  </si>
+  <si>
+    <t>The outside of this property fooled me.  I thought it was a newer style, or at least renovated.  Sadly, I was wrong.This is an old property that was renovated on the cheap.  The bathrooms are tiny. The carpet is old and tired.  I could go on, but I think you probably get the picture.  As a very frequent HIE traveler (Gold Priority), this property does not meet the new standard set by HIE properties.On the plus side - the location is great.  The area is safe,clean and close to everything (in Sugar Land).  Other than that, you will be disappointed if you're used to the newer HIE's.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r256382095-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>256382095</t>
+  </si>
+  <si>
+    <t>02/25/2015</t>
+  </si>
+  <si>
+    <t>Clean &amp; comfortable in a quiet area</t>
+  </si>
+  <si>
+    <t>Standard Holiday Inn Express service. Good clean and comfortable with a good breakfast variety. Easy access to the Sugar Land area with convent access to the freeways. We would use this hotel again when in the area.</t>
+  </si>
+  <si>
+    <t>February 2015</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r245360622-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>245360622</t>
+  </si>
+  <si>
+    <t>12/21/2014</t>
+  </si>
+  <si>
+    <t>Great management!</t>
+  </si>
+  <si>
+    <t>We stayed at this hotel for a soccer tournament, and the hotel management was very accommodating to our team.  They gave us a late checkout since we had a late morning game, and even opened up a conference room for our boys to play to help burn some extra energy.  We usually don't stay at HEX's but I can't recommend this hotel enough.  THANKS!</t>
+  </si>
+  <si>
+    <t>December 2014</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r215186230-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>215186230</t>
+  </si>
+  <si>
+    <t>07/13/2014</t>
+  </si>
+  <si>
+    <t>Nothing fancy</t>
+  </si>
+  <si>
+    <t>This isn't a fancy hotel by any means. Rooms are a little small and televisions are outdated. Bathrooms also on the smaller side. On a positive note, the free breakfast is large and substantial. It was a little harder to find the access road to get there for the main road,  but we may have gone a back way. Better signage would be a positive. MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 28, 2014</t>
+  </si>
+  <si>
+    <t>Responded July 28, 2014</t>
+  </si>
+  <si>
+    <t>This isn't a fancy hotel by any means. Rooms are a little small and televisions are outdated. Bathrooms also on the smaller side. On a positive note, the free breakfast is large and substantial. It was a little harder to find the access road to get there for the main road,  but we may have gone a back way. Better signage would be a positive. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r210086367-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>210086367</t>
+  </si>
+  <si>
+    <t>06/12/2014</t>
+  </si>
+  <si>
+    <t>Well, if it's the only place available</t>
+  </si>
+  <si>
+    <t>Okay, I really want to give it a 2.5 stars, but since that isn't an option, I'll downgrade a bit.  I can say the bathroom was the cleanest, shiniest hotel bathroom ever, so that gets a 5!   The rooms were small and left very little room for moving around or storing things, plus they were very poorly lit.  And our one window was small and let in very little light. We had two full size beds in the room, and they were onlt moderately confortable.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded June 29, 2014</t>
+  </si>
+  <si>
+    <t>Responded June 29, 2014</t>
+  </si>
+  <si>
+    <t>Okay, I really want to give it a 2.5 stars, but since that isn't an option, I'll downgrade a bit.  I can say the bathroom was the cleanest, shiniest hotel bathroom ever, so that gets a 5!   The rooms were small and left very little room for moving around or storing things, plus they were very poorly lit.  And our one window was small and let in very little light. We had two full size beds in the room, and they were onlt moderately confortable.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r205286329-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>205286329</t>
+  </si>
+  <si>
+    <t>05/12/2014</t>
+  </si>
+  <si>
+    <t>Not Up to Par</t>
+  </si>
+  <si>
+    <t>I have now stayed at this property several times and do not understand the many recent good reviews. True the hotel is in a great location, but it is an older HIE, the AC is very loud and the thermostats never seem to operate properly (regardless of the room I am in), and the rooms are small. The bathroom vanity is short on space as well. On the upside, the hotel is near some very good nightlife p, it is clean with a friendly staff, and with the AC noise you could not possibly hear anything outside.You can do better for the money spent.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded May 31, 2014</t>
+  </si>
+  <si>
+    <t>Responded May 31, 2014</t>
+  </si>
+  <si>
+    <t>I have now stayed at this property several times and do not understand the many recent good reviews. True the hotel is in a great location, but it is an older HIE, the AC is very loud and the thermostats never seem to operate properly (regardless of the room I am in), and the rooms are small. The bathroom vanity is short on space as well. On the upside, the hotel is near some very good nightlife p, it is clean with a friendly staff, and with the AC noise you could not possibly hear anything outside.You can do better for the money spent.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r168331763-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>168331763</t>
+  </si>
+  <si>
+    <t>07/20/2013</t>
+  </si>
+  <si>
+    <t>Surprisingly good</t>
+  </si>
+  <si>
+    <t>This was my first stay at a HIE.  I have avoided them in the past due to their seemingly routine location right up against the busiest highway in the area.  This one is different.  It's well off the road, and shockingly quiet.  The rooms are modest but clean and well-maintained.  The staff is nice and makes every attempt to be accommodating.  The breakfast is sparse, somewhat high in carbohydrates, but I've had a whole lot worse in a lot more expensive places.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 25, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2013</t>
+  </si>
+  <si>
+    <t>This was my first stay at a HIE.  I have avoided them in the past due to their seemingly routine location right up against the busiest highway in the area.  This one is different.  It's well off the road, and shockingly quiet.  The rooms are modest but clean and well-maintained.  The staff is nice and makes every attempt to be accommodating.  The breakfast is sparse, somewhat high in carbohydrates, but I've had a whole lot worse in a lot more expensive places.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r164671747-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>164671747</t>
+  </si>
+  <si>
+    <t>06/21/2013</t>
+  </si>
+  <si>
+    <t>Clean and  Safe</t>
+  </si>
+  <si>
+    <t>Clean hotel is a safe location.  We stated here several weeks on business trips. It's overall nice. The rooms are a little small and the full breakfast is a plus. Well the breakfast has plenty of choices, but some things are not very flavorful. The only problem is reserving a certain room and being placed in a different room. Otherwise I would say worth the price. Oh, safe location but not within walking of any restaurants or shopping which is one downside to me. MoreShow less</t>
+  </si>
+  <si>
+    <t>Clean hotel is a safe location.  We stated here several weeks on business trips. It's overall nice. The rooms are a little small and the full breakfast is a plus. Well the breakfast has plenty of choices, but some things are not very flavorful. The only problem is reserving a certain room and being placed in a different room. Otherwise I would say worth the price. Oh, safe location but not within walking of any restaurants or shopping which is one downside to me. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r160510383-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>160510383</t>
+  </si>
+  <si>
+    <t>05/12/2013</t>
+  </si>
+  <si>
+    <t>Not the best, but pretty clean</t>
+  </si>
+  <si>
+    <t>Breakfast was a nice bonus and pretty good selection, front desk staff was not very accessable most of the time they were on their cell phones, but the housekeeping staff always did a phenomenal job and the room was always clean and tidy.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded June 1, 2013</t>
+  </si>
+  <si>
+    <t>Responded June 1, 2013</t>
+  </si>
+  <si>
+    <t>Breakfast was a nice bonus and pretty good selection, front desk staff was not very accessable most of the time they were on their cell phones, but the housekeeping staff always did a phenomenal job and the room was always clean and tidy.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r152391156-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>152391156</t>
+  </si>
+  <si>
+    <t>02/17/2013</t>
+  </si>
+  <si>
+    <t>Excellent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The staff were so nice, hotel was clean, breakfast was delicious. Would certainly recommend this hotel to everyone! Stayed there while visiting my dad at the VA hospital in Houston. Was extremely impressed! </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r151680709-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>151680709</t>
+  </si>
+  <si>
+    <t>02/08/2013</t>
+  </si>
+  <si>
+    <t>What you would expect</t>
+  </si>
+  <si>
+    <t>Property is relatively new. Clean. Checkin staff was friendly. A little walk to localrestaurants - auto recommended. Room AC unit noisy, bathroom counter space very limited. Did not experience the breakfast. Good wireless connection. Generally - OK for price in the area.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Responded July 17, 2013</t>
+  </si>
+  <si>
+    <t>Property is relatively new. Clean. Checkin staff was friendly. A little walk to localrestaurants - auto recommended. Room AC unit noisy, bathroom counter space very limited. Did not experience the breakfast. Good wireless connection. Generally - OK for price in the area.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r147208871-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>147208871</t>
+  </si>
+  <si>
+    <t>12/11/2012</t>
+  </si>
+  <si>
+    <t>Good Location, Clean, Safe and Average</t>
+  </si>
+  <si>
+    <t>Didn't exceed expectations or disappoint. Breakfast was average. Staff was pleasant. Near many good restaurants and shopping mall. Getting the water temp correct in the shower was a challenge. It took some time to get the warm water regulated.</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r141369746-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>141369746</t>
+  </si>
+  <si>
+    <t>09/26/2012</t>
+  </si>
+  <si>
+    <t>Extremely Friendly</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times and the hotel staff have always been extremely friendly and accommodating.  Due to the business I travel with, my hotel reservations are not always the easiest, but the staff is quick and attentive to getting my reservation made and make the check-in process quick.  As I come into the hotel after work, the staff always greets me with a smile and it makes me feel welcomed.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded October 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2012</t>
+  </si>
+  <si>
+    <t>I have stayed at this hotel many times and the hotel staff have always been extremely friendly and accommodating.  Due to the business I travel with, my hotel reservations are not always the easiest, but the staff is quick and attentive to getting my reservation made and make the check-in process quick.  As I come into the hotel after work, the staff always greets me with a smile and it makes me feel welcomed.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r135876558-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>135876558</t>
+  </si>
+  <si>
+    <t>07/31/2012</t>
+  </si>
+  <si>
+    <t>Relocation Stay</t>
+  </si>
+  <si>
+    <t>I was a guest of the hotel from 7 May through 27, July 2012.  I found the staff to be very friendly and accommodating during the stay.  The hotel was always clean and in good working order.  The only issue I had during the stay was the bathroom cold water supply being scalding hot early in the mornings (prior to 6 am) and you could not shower without letting the water run for at least 10 minutes.  Also, I had to renew my instructions to housekeeping about towels/linen changes at least once a week as they would follow them for a day or two and then go back to their standard pratices.Overall, this was a very good experience and I would stay there again without hesitation.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2012</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded September 18, 2012</t>
+  </si>
+  <si>
+    <t>Responded September 18, 2012</t>
+  </si>
+  <si>
+    <t>I was a guest of the hotel from 7 May through 27, July 2012.  I found the staff to be very friendly and accommodating during the stay.  The hotel was always clean and in good working order.  The only issue I had during the stay was the bathroom cold water supply being scalding hot early in the mornings (prior to 6 am) and you could not shower without letting the water run for at least 10 minutes.  Also, I had to renew my instructions to housekeeping about towels/linen changes at least once a week as they would follow them for a day or two and then go back to their standard pratices.Overall, this was a very good experience and I would stay there again without hesitation.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r135649932-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>135649932</t>
+  </si>
+  <si>
+    <t>07/28/2012</t>
+  </si>
+  <si>
+    <t>Cockroach problem and no refund</t>
+  </si>
+  <si>
+    <t>I was in town for an interview and had a reservation for 3 nights. While in bed, I saw a large cockroach run under the furniture. I spent the night because I was too tired to move. Next day, I asked to checkout because of the problem and asked for a refund of my next two nights. The manager refused since I had prepaid and offered to change rooms. At this point, I did not want to spend another night worried about bugs so I declined. So, I ended up paying for 2 nights that I was not in the room. I even called guest relations who said that prepaid rates will not be refunded. I stay at a lot of HIE's and this was NOT a nice one. Grungy and cheap were my impression.MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2012</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 30, 2012</t>
+  </si>
+  <si>
+    <t>Responded July 30, 2012</t>
+  </si>
+  <si>
+    <t>I was in town for an interview and had a reservation for 3 nights. While in bed, I saw a large cockroach run under the furniture. I spent the night because I was too tired to move. Next day, I asked to checkout because of the problem and asked for a refund of my next two nights. The manager refused since I had prepaid and offered to change rooms. At this point, I did not want to spend another night worried about bugs so I declined. So, I ended up paying for 2 nights that I was not in the room. I even called guest relations who said that prepaid rates will not be refunded. I stay at a lot of HIE's and this was NOT a nice one. Grungy and cheap were my impression.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r126701622-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>126701622</t>
+  </si>
+  <si>
+    <t>03/26/2012</t>
+  </si>
+  <si>
+    <t>Warm and Friendly Service!</t>
+  </si>
+  <si>
+    <t>Thank you Holiday Inn Express, Sugar Land for your warm welcome and exceptional service. The pancakes were great too!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded April 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded April 6, 2012</t>
+  </si>
+  <si>
+    <t>Thank you Holiday Inn Express, Sugar Land for your warm welcome and exceptional service. The pancakes were great too!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r126041172-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>126041172</t>
+  </si>
+  <si>
+    <t>03/13/2012</t>
+  </si>
+  <si>
+    <t>Holiday Inn Express Sugar Land - great stay!</t>
+  </si>
+  <si>
+    <t>This location was awesome for our event. We have a softball team, so had some special needs, and Cheryl Williams did an awesome job accomodating us. In fact, we have decided as a team to stay at Holiday Inn Express for the rest of the summer at various locations around Texas!!! We especially like the free breakfast in the mornings!Thanks again!Mike BlackwellMoreShow less</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded March 19, 2012</t>
+  </si>
+  <si>
+    <t>Responded March 19, 2012</t>
+  </si>
+  <si>
+    <t>This location was awesome for our event. We have a softball team, so had some special needs, and Cheryl Williams did an awesome job accomodating us. In fact, we have decided as a team to stay at Holiday Inn Express for the rest of the summer at various locations around Texas!!! We especially like the free breakfast in the mornings!Thanks again!Mike BlackwellMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r125866320-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>125866320</t>
+  </si>
+  <si>
+    <t>03/09/2012</t>
+  </si>
+  <si>
+    <t>GREAT staff, but dank, humid guest rooms</t>
+  </si>
+  <si>
+    <t>My guests, colleagues &amp; I stayed recently two nights (02/29-03/02). We all agreed that we found the staff quite helpful, kind and competent. However, for as wonderful as each one of the staff is, the rooms themselves are equally old, dank, smelly (mine was apparently a smoking room for a number of years before its conversion to a non-smoking room). This is an OLD, OLD building w/ very loud air conditioners, older linens and old finishes.The location is very helpful, though. Quite close to many eateries and to an Enterprise-Rent-a-Car location.While the price is lower, I've come to expect A LOT more from Holiday Inn Express. If you choose to stay here, bring a dehumidifier and an ozone machine w/ you.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2012</t>
+  </si>
+  <si>
+    <t>My guests, colleagues &amp; I stayed recently two nights (02/29-03/02). We all agreed that we found the staff quite helpful, kind and competent. However, for as wonderful as each one of the staff is, the rooms themselves are equally old, dank, smelly (mine was apparently a smoking room for a number of years before its conversion to a non-smoking room). This is an OLD, OLD building w/ very loud air conditioners, older linens and old finishes.The location is very helpful, though. Quite close to many eateries and to an Enterprise-Rent-a-Car location.While the price is lower, I've come to expect A LOT more from Holiday Inn Express. If you choose to stay here, bring a dehumidifier and an ozone machine w/ you.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r121140520-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>121140520</t>
+  </si>
+  <si>
+    <t>11/28/2011</t>
+  </si>
+  <si>
+    <t>Nice Room for a nice price.</t>
+  </si>
+  <si>
+    <t>This is convenient to everything on the HWY 59 corridor as well as the First Colony area.  It is clean, quiet and comfortable. Enterprise Rent a car is near if you need a car.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2011</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded November 30, 2011</t>
+  </si>
+  <si>
+    <t>Responded November 30, 2011</t>
+  </si>
+  <si>
+    <t>This is convenient to everything on the HWY 59 corridor as well as the First Colony area.  It is clean, quiet and comfortable. Enterprise Rent a car is near if you need a car.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r120919654-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>120919654</t>
+  </si>
+  <si>
+    <t>11/22/2011</t>
+  </si>
+  <si>
+    <t>Great customer service!</t>
+  </si>
+  <si>
+    <t>Josephine at the front desk delivered remarkable customer service!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2011</t>
+  </si>
+  <si>
+    <t>Josephine at the front desk delivered remarkable customer service!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r120253339-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>120253339</t>
+  </si>
+  <si>
+    <t>11/06/2011</t>
+  </si>
+  <si>
+    <t>Good Value</t>
+  </si>
+  <si>
+    <t>Nice hotel with clean rooms.  The breakfast was okay.  The only "hot" food item worth eating were the cinnamon rolls.  They have coffee available all day but take the creamer away after breakfast.The hotel is about 35 minutes from Houston Hobby airport.  We didn't rent a car and unfortunately, the hotel is not within walking distance to any restaurants or shopping.MoreShow less</t>
+  </si>
+  <si>
+    <t>November 2011</t>
+  </si>
+  <si>
+    <t>Nice hotel with clean rooms.  The breakfast was okay.  The only "hot" food item worth eating were the cinnamon rolls.  They have coffee available all day but take the creamer away after breakfast.The hotel is about 35 minutes from Houston Hobby airport.  We didn't rent a car and unfortunately, the hotel is not within walking distance to any restaurants or shopping.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r115737532-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>115737532</t>
+  </si>
+  <si>
+    <t>07/24/2011</t>
+  </si>
+  <si>
+    <t>A job well done!</t>
+  </si>
+  <si>
+    <t>My stay was quiet, the  hotel was very clean and very well organized. The room was crisp and clean. I had all amenities needed for my stay, GREAT JOB AND BEAUTIFUL LOCATION! Front desk personal,(Josephine &amp; Andy)  polite and cheerful, all the time during my stay. Always willing to make my stay comfortable, A JOB WELL DONE!  I will stae the experience; ON JULY 23, 2011, I was preparing for a banquet, family and friends. The toliet backed up while I was putting on my suit. I called the front desk, (Andy) and within two minutes the maintenence man was on the spot. Santiago Cecile, came and took care of the situation with such skill and professionalism that I'm compel to tell anyone who will listen,  A JOB WELL DONE! This man said nothing but what's wrong, handled the situation and never looked back. Keep in mind, I'm preparing for a banquet and needed that bathroom to shave and etc.. Mr.Santiago showed a true committment to his job and craft.  Most maintenance personal would have dragged the problem on and wasted precious time, being that this occurrence happend after normal working hours, but not in this case.  I've never stayed in a hotel were promptness was so sure and precise.  Know this also, I'M A PRIORITY CLUB MEMBER,  I'm always staying at Holiday's Inn.  Let me state," THAT WAS A JOB WELL DONE"!  Mr. Santiago deserves to know, he was...My stay was quiet, the  hotel was very clean and very well organized. The room was crisp and clean. I had all amenities needed for my stay, GREAT JOB AND BEAUTIFUL LOCATION! Front desk personal,(Josephine &amp; Andy)  polite and cheerful, all the time during my stay. Always willing to make my stay comfortable, A JOB WELL DONE!  I will stae the experience; ON JULY 23, 2011, I was preparing for a banquet, family and friends. The toliet backed up while I was putting on my suit. I called the front desk, (Andy) and within two minutes the maintenence man was on the spot. Santiago Cecile, came and took care of the situation with such skill and professionalism that I'm compel to tell anyone who will listen,  A JOB WELL DONE! This man said nothing but what's wrong, handled the situation and never looked back. Keep in mind, I'm preparing for a banquet and needed that bathroom to shave and etc.. Mr.Santiago showed a true committment to his job and craft.  Most maintenance personal would have dragged the problem on and wasted precious time, being that this occurrence happend after normal working hours, but not in this case.  I've never stayed in a hotel were promptness was so sure and precise.  Know this also, I'M A PRIORITY CLUB MEMBER,  I'm always staying at Holiday's Inn.  Let me state," THAT WAS A JOB WELL DONE"!  Mr. Santiago deserves to know, he was greatly appreciated for a terrific job. I was so moved and impress with the speed and clean up effort that I refused to changed rooms "although I was advised by front desk, he (ANDY) did insist" and was very well satisfied. I would be remiss not to mention fontt desk personal who assisted me with my morning work out being that I'm a lifter of weights and not much on cardio. The information and download to Bally's gym was on time.I quess in short a hotel chain is only as strong as its weakest link, this location and link is very stong.  My thumbs up to tne manager ( MAY LE), satff, location and team effort. I'm very much coming back to this location when every I'm in the area.THANKS,DARVIN BADGERMoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 25, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2011</t>
+  </si>
+  <si>
+    <t>My stay was quiet, the  hotel was very clean and very well organized. The room was crisp and clean. I had all amenities needed for my stay, GREAT JOB AND BEAUTIFUL LOCATION! Front desk personal,(Josephine &amp; Andy)  polite and cheerful, all the time during my stay. Always willing to make my stay comfortable, A JOB WELL DONE!  I will stae the experience; ON JULY 23, 2011, I was preparing for a banquet, family and friends. The toliet backed up while I was putting on my suit. I called the front desk, (Andy) and within two minutes the maintenence man was on the spot. Santiago Cecile, came and took care of the situation with such skill and professionalism that I'm compel to tell anyone who will listen,  A JOB WELL DONE! This man said nothing but what's wrong, handled the situation and never looked back. Keep in mind, I'm preparing for a banquet and needed that bathroom to shave and etc.. Mr.Santiago showed a true committment to his job and craft.  Most maintenance personal would have dragged the problem on and wasted precious time, being that this occurrence happend after normal working hours, but not in this case.  I've never stayed in a hotel were promptness was so sure and precise.  Know this also, I'M A PRIORITY CLUB MEMBER,  I'm always staying at Holiday's Inn.  Let me state," THAT WAS A JOB WELL DONE"!  Mr. Santiago deserves to know, he was...My stay was quiet, the  hotel was very clean and very well organized. The room was crisp and clean. I had all amenities needed for my stay, GREAT JOB AND BEAUTIFUL LOCATION! Front desk personal,(Josephine &amp; Andy)  polite and cheerful, all the time during my stay. Always willing to make my stay comfortable, A JOB WELL DONE!  I will stae the experience; ON JULY 23, 2011, I was preparing for a banquet, family and friends. The toliet backed up while I was putting on my suit. I called the front desk, (Andy) and within two minutes the maintenence man was on the spot. Santiago Cecile, came and took care of the situation with such skill and professionalism that I'm compel to tell anyone who will listen,  A JOB WELL DONE! This man said nothing but what's wrong, handled the situation and never looked back. Keep in mind, I'm preparing for a banquet and needed that bathroom to shave and etc.. Mr.Santiago showed a true committment to his job and craft.  Most maintenance personal would have dragged the problem on and wasted precious time, being that this occurrence happend after normal working hours, but not in this case.  I've never stayed in a hotel were promptness was so sure and precise.  Know this also, I'M A PRIORITY CLUB MEMBER,  I'm always staying at Holiday's Inn.  Let me state," THAT WAS A JOB WELL DONE"!  Mr. Santiago deserves to know, he was greatly appreciated for a terrific job. I was so moved and impress with the speed and clean up effort that I refused to changed rooms "although I was advised by front desk, he (ANDY) did insist" and was very well satisfied. I would be remiss not to mention fontt desk personal who assisted me with my morning work out being that I'm a lifter of weights and not much on cardio. The information and download to Bally's gym was on time.I quess in short a hotel chain is only as strong as its weakest link, this location and link is very stong.  My thumbs up to tne manager ( MAY LE), satff, location and team effort. I'm very much coming back to this location when every I'm in the area.THANKS,DARVIN BADGERMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r97466264-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>97466264</t>
+  </si>
+  <si>
+    <t>02/21/2011</t>
+  </si>
+  <si>
+    <t>The management and staff of this hotel are exemplary</t>
+  </si>
+  <si>
+    <t>During my stay at the HEI Sugar Land I was continually impressed by the entire staff . Specifically, May Le the General Manager, Mary Anne the Assistant General Manager an with special mention of Josephine Liao who went out of her way to get menus of local resturants who deliver to the hotel.This young lady exemplifies all that a traveler would like to experience in hotel staff support.Sincerely,Michael D. TaborMoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded February 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded February 27, 2011</t>
+  </si>
+  <si>
+    <t>During my stay at the HEI Sugar Land I was continually impressed by the entire staff . Specifically, May Le the General Manager, Mary Anne the Assistant General Manager an with special mention of Josephine Liao who went out of her way to get menus of local resturants who deliver to the hotel.This young lady exemplifies all that a traveler would like to experience in hotel staff support.Sincerely,Michael D. TaborMore</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r97283088-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>97283088</t>
+  </si>
+  <si>
+    <t>02/20/2011</t>
+  </si>
+  <si>
+    <t>This hotel has excellent service from a dedicated and caring staff.</t>
+  </si>
+  <si>
+    <t>The service at this location has always been a positive, exceptional experience. The staff is dedicated to exceeding customers' expectations. They are knowledgeable of the surrounding area of the hotel and demonstrate a warm, friendly attitude when greeting their guests. The suites are large, clean, and comfortable. While the vanity in the bathroom is small, it is adequate and functional. This hotel is centrally located to Sugar Land and Southwest Houston. When given the opportunity, I am happy to recommend it to others.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded March 15, 2011</t>
+  </si>
+  <si>
+    <t>Responded March 15, 2011</t>
+  </si>
+  <si>
+    <t>The service at this location has always been a positive, exceptional experience. The staff is dedicated to exceeding customers' expectations. They are knowledgeable of the surrounding area of the hotel and demonstrate a warm, friendly attitude when greeting their guests. The suites are large, clean, and comfortable. While the vanity in the bathroom is small, it is adequate and functional. This hotel is centrally located to Sugar Land and Southwest Houston. When given the opportunity, I am happy to recommend it to others.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r58683088-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>58683088</t>
+  </si>
+  <si>
+    <t>03/15/2010</t>
+  </si>
+  <si>
+    <t>Good hotel for families</t>
+  </si>
+  <si>
+    <t>I had no expectations when we made the reservations, having never stayed at a Holiday Inn Express before.  However, I was pleasantly surprised.  The hotel was clean and  tastefully decorated.  All the staff members I encountered were friendly and helpful.  The breakfast buffet was one of the things that most impressed me.  I have stayed in many hotels with "complimentary breakfasts" and many times you don't get more than a bagel and some watery eggs.  This was a spread!  My 3-year-old was very happy.  I was also pleased that when we requested a Pack 'n' Play for my 1-year-old, they delivered a portable crib instead.  At first, I wasn't sure I would like it, but I realized that it had an actual mattress and also stood higher off the ground, making it much more comfortable for my baby and much easier for me to use.  The only downside was that the room was small enough that it was tricky to find a good place for the crib.  Our beds were comfortable, also.  We were only there for the minimum time (we didn't use the pool, etc), but it was a much nicer experience than I had expected.  Will go there again if we are back in the area!MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2010</t>
+  </si>
+  <si>
+    <t>I had no expectations when we made the reservations, having never stayed at a Holiday Inn Express before.  However, I was pleasantly surprised.  The hotel was clean and  tastefully decorated.  All the staff members I encountered were friendly and helpful.  The breakfast buffet was one of the things that most impressed me.  I have stayed in many hotels with "complimentary breakfasts" and many times you don't get more than a bagel and some watery eggs.  This was a spread!  My 3-year-old was very happy.  I was also pleased that when we requested a Pack 'n' Play for my 1-year-old, they delivered a portable crib instead.  At first, I wasn't sure I would like it, but I realized that it had an actual mattress and also stood higher off the ground, making it much more comfortable for my baby and much easier for me to use.  The only downside was that the room was small enough that it was tricky to find a good place for the crib.  Our beds were comfortable, also.  We were only there for the minimum time (we didn't use the pool, etc), but it was a much nicer experience than I had expected.  Will go there again if we are back in the area!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r50963366-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>50963366</t>
+  </si>
+  <si>
+    <t>12/09/2009</t>
+  </si>
+  <si>
+    <t>Watch you car!</t>
+  </si>
+  <si>
+    <t>My first trip to Sygarland - one of the safest cities in the US - My car was broken into.  The driver's side window was off track after the lock cylinder was removed leaving a hole in my door.  A new CTS with a hole in the door - all while parked in the front lot in broad daylight!  No concern whatsoever from the local staff!</t>
+  </si>
+  <si>
+    <t>July 2007</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r46048851-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>46048851</t>
+  </si>
+  <si>
+    <t>10/06/2009</t>
+  </si>
+  <si>
+    <t>Tough beds, otherwise a good choice.</t>
+  </si>
+  <si>
+    <t>Stayed here for 2 nights in June 2009.  Not much to say, this is a very typical Holiday Inn.  Clean, decent staff, free decent buffet style breakfast (adequately stocked with a woman constantly refilling items as they become low), free parking.  There is no pool or fitness room.  The rates are fair considering the location and limited amenities.  The only complaint lies with the beds.  They were VERY uncomfortable.  I found myself tossing all night, both nights.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r10089711-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>10089711</t>
+  </si>
+  <si>
+    <t>10/17/2007</t>
+  </si>
+  <si>
+    <t>Perfect Stay!!</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here when for 3 nights.We paid $99/night with NO hidden charges.I asked for a room with 2 beds &amp; that is just what I recieved!The breakfast was better than expected! We ate all 3 mornings! Omlets &amp; sausage one morning, biscuts &amp; gravy the other's along with fresh fruit, AWESOME warm cinnamon rolls, cereal, oatmeal, variety of muffins, toast. bagels, &amp; all needed condiments &amp; breakfast beverages!!!The room was just fine! Small bathroom, but worked just finefor us!Plenty of pillows of all firmness! Adequete closet space with iron &amp; ironing board handy. Air conditioning worked well. Had to pin the curtains together so the street light didn't shine in....but no problem!We sat out by the pool area &amp; was impressed at how peaceful &amp; quiet it was...being so close to highway 59! We asked for umbrella's for the tables, &amp; they quickly went &amp; put them all up for us!I LOVED the internet room....FREE access &amp; even allowed us to print out our boarding passes before leaving for the airport FREE!!I would DEFINETLY encourage others to stay at this Holiday Inn Express....&amp; we will always check out staying at other Holiday Inn's!!MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2007</t>
+  </si>
+  <si>
+    <t>My husband &amp; I stayed here when for 3 nights.We paid $99/night with NO hidden charges.I asked for a room with 2 beds &amp; that is just what I recieved!The breakfast was better than expected! We ate all 3 mornings! Omlets &amp; sausage one morning, biscuts &amp; gravy the other's along with fresh fruit, AWESOME warm cinnamon rolls, cereal, oatmeal, variety of muffins, toast. bagels, &amp; all needed condiments &amp; breakfast beverages!!!The room was just fine! Small bathroom, but worked just finefor us!Plenty of pillows of all firmness! Adequete closet space with iron &amp; ironing board handy. Air conditioning worked well. Had to pin the curtains together so the street light didn't shine in....but no problem!We sat out by the pool area &amp; was impressed at how peaceful &amp; quiet it was...being so close to highway 59! We asked for umbrella's for the tables, &amp; they quickly went &amp; put them all up for us!I LOVED the internet room....FREE access &amp; even allowed us to print out our boarding passes before leaving for the airport FREE!!I would DEFINETLY encourage others to stay at this Holiday Inn Express....&amp; we will always check out staying at other Holiday Inn's!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r7343039-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>7343039</t>
+  </si>
+  <si>
+    <t>04/11/2007</t>
+  </si>
+  <si>
+    <t>Basic, More Motel than Hotel</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn Express for a wedding in the area.It's an older hotel, but apparently Holiday Inn Express upgraded their bedding as of January. They must have done a pretty good job because we stayed there for three nights and missed out on their complimentary breakfast every morning (6:30 am to 9:30 am).  The rooms are a bit small, with the bathrooms definitely being on the smaller end.  There isn't a real closet available, so they add this makeshift closet in your room.  We did appreciate when housekeeping called to see if we needed anything since we left the "Privacy Please" thing hanging on our door all day.  However, we wished they had replaced our empty tissue box and provided us with more toiletries each day.Overall, it's what it is.  Nothing fancy about this hotel.  They do offer free Internet downstairs as well.  (However, we never got to take advantage of that either.)MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2007</t>
+  </si>
+  <si>
+    <t>I stayed at this Holiday Inn Express for a wedding in the area.It's an older hotel, but apparently Holiday Inn Express upgraded their bedding as of January. They must have done a pretty good job because we stayed there for three nights and missed out on their complimentary breakfast every morning (6:30 am to 9:30 am).  The rooms are a bit small, with the bathrooms definitely being on the smaller end.  There isn't a real closet available, so they add this makeshift closet in your room.  We did appreciate when housekeeping called to see if we needed anything since we left the "Privacy Please" thing hanging on our door all day.  However, we wished they had replaced our empty tissue box and provided us with more toiletries each day.Overall, it's what it is.  Nothing fancy about this hotel.  They do offer free Internet downstairs as well.  (However, we never got to take advantage of that either.)More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r5033415-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>5033415</t>
+  </si>
+  <si>
+    <t>05/03/2006</t>
+  </si>
+  <si>
+    <t>Avoid at all costs</t>
+  </si>
+  <si>
+    <t>Stayed here for a nearby wedding. They messed up the group reservation[the person who made it was no longer working there--wonder why?], reneged on the promised group rate, bumped it $10 higher, messed up on the billing of rooms, inputted double charges to my credit card because they mistakenly gave 2 credits to my daughter's credit card after they had mischarged my bill to her card. Instead of simply notifying her credit card company of their mistake in issuing 2 credits they tried to make me pay for the bill twice.  Then, they also charged a different credit card that she originally used to hold the room reservation a different amount [apparently based upon the originally promised group rate], even though I had already paid for her bill. What a nightmare.  The hotel itself is OK, nothing to rave about, but the billing and accounts handling is a disaster.  Would not stay here again. There are other chain hotels nearby.MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a nearby wedding. They messed up the group reservation[the person who made it was no longer working there--wonder why?], reneged on the promised group rate, bumped it $10 higher, messed up on the billing of rooms, inputted double charges to my credit card because they mistakenly gave 2 credits to my daughter's credit card after they had mischarged my bill to her card. Instead of simply notifying her credit card company of their mistake in issuing 2 credits they tried to make me pay for the bill twice.  Then, they also charged a different credit card that she originally used to hold the room reservation a different amount [apparently based upon the originally promised group rate], even though I had already paid for her bill. What a nightmare.  The hotel itself is OK, nothing to rave about, but the billing and accounts handling is a disaster.  Would not stay here again. There are other chain hotels nearby.More</t>
   </si>
 </sst>
 </file>
@@ -532,11 +1874,17 @@
       <c r="F2" t="s">
         <v>14</v>
       </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
-      <c r="I2" t="s"/>
+      <c r="G2" t="s">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -558,79 +1906,3917 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D1" t="s">
+        <v>22</v>
+      </c>
+      <c r="E1" t="s">
+        <v>23</v>
+      </c>
+      <c r="F1" t="s">
+        <v>24</v>
+      </c>
+      <c r="G1" t="s">
+        <v>25</v>
+      </c>
+      <c r="H1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K1" t="s">
+        <v>29</v>
+      </c>
+      <c r="L1" t="s">
+        <v>30</v>
+      </c>
+      <c r="M1" t="s">
+        <v>31</v>
+      </c>
+      <c r="N1" t="s">
+        <v>32</v>
+      </c>
+      <c r="O1" t="s">
+        <v>33</v>
+      </c>
+      <c r="P1" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>35</v>
+      </c>
+      <c r="R1" t="s">
+        <v>36</v>
+      </c>
+      <c r="S1" t="s">
+        <v>37</v>
+      </c>
+      <c r="T1" t="s">
+        <v>38</v>
+      </c>
+      <c r="U1" t="s">
+        <v>39</v>
+      </c>
+      <c r="V1" t="s">
+        <v>40</v>
+      </c>
+      <c r="W1" t="s">
+        <v>41</v>
+      </c>
+      <c r="X1" t="s">
+        <v>42</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>1</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>55</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>56</v>
+      </c>
+      <c r="J3" t="s">
+        <v>57</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>59</v>
+      </c>
+      <c r="M3" t="n">
+        <v>3</v>
+      </c>
+      <c r="N3" t="s">
+        <v>52</v>
+      </c>
+      <c r="O3" t="s">
+        <v>60</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>2</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>5</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>62</v>
+      </c>
+      <c r="J4" t="s">
+        <v>63</v>
+      </c>
+      <c r="K4" t="s">
+        <v>64</v>
+      </c>
+      <c r="L4" t="s">
+        <v>65</v>
+      </c>
+      <c r="M4" t="n">
+        <v>3</v>
+      </c>
+      <c r="N4" t="s">
+        <v>52</v>
+      </c>
+      <c r="O4" t="s">
+        <v>53</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>67</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5" t="s">
+        <v>69</v>
+      </c>
+      <c r="K5" t="s">
+        <v>70</v>
+      </c>
+      <c r="L5" t="s">
+        <v>71</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>72</v>
+      </c>
+      <c r="O5" t="s">
+        <v>60</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s">
+        <v>73</v>
+      </c>
+      <c r="X5" t="s">
+        <v>74</v>
+      </c>
+      <c r="Y5" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>76</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>77</v>
+      </c>
+      <c r="J6" t="s">
+        <v>78</v>
+      </c>
+      <c r="K6" t="s">
+        <v>79</v>
+      </c>
+      <c r="L6" t="s">
+        <v>80</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="s"/>
+      <c r="T6" t="s"/>
+      <c r="U6" t="s"/>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s">
+        <v>82</v>
+      </c>
+      <c r="X6" t="s">
+        <v>83</v>
+      </c>
+      <c r="Y6" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>85</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>86</v>
+      </c>
+      <c r="J7" t="s">
+        <v>87</v>
+      </c>
+      <c r="K7" t="s">
+        <v>88</v>
+      </c>
+      <c r="L7" t="s">
+        <v>89</v>
+      </c>
+      <c r="M7" t="n">
+        <v>2</v>
+      </c>
+      <c r="N7" t="s">
+        <v>81</v>
+      </c>
+      <c r="O7" t="s">
+        <v>60</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="n">
+        <v>1</v>
+      </c>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>4</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>2</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s">
+        <v>90</v>
+      </c>
+      <c r="X7" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>93</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J8" t="s">
+        <v>95</v>
+      </c>
+      <c r="K8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L8" t="s">
+        <v>97</v>
+      </c>
+      <c r="M8" t="n">
+        <v>3</v>
+      </c>
+      <c r="N8" t="s">
+        <v>98</v>
+      </c>
+      <c r="O8" t="s">
+        <v>99</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s">
+        <v>100</v>
+      </c>
+      <c r="X8" t="s">
+        <v>101</v>
+      </c>
+      <c r="Y8" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>103</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>104</v>
+      </c>
+      <c r="J9" t="s">
+        <v>105</v>
+      </c>
+      <c r="K9" t="s">
+        <v>106</v>
+      </c>
+      <c r="L9" t="s">
+        <v>107</v>
+      </c>
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
+        <v>108</v>
+      </c>
+      <c r="O9" t="s">
+        <v>60</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
+      <c r="T9" t="s"/>
+      <c r="U9" t="s"/>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s">
+        <v>109</v>
+      </c>
+      <c r="X9" t="s">
+        <v>110</v>
+      </c>
+      <c r="Y9" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>112</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>113</v>
+      </c>
+      <c r="J10" t="s">
+        <v>114</v>
+      </c>
+      <c r="K10" t="s">
+        <v>115</v>
+      </c>
+      <c r="L10" t="s">
+        <v>116</v>
+      </c>
+      <c r="M10" t="n">
+        <v>4</v>
+      </c>
+      <c r="N10" t="s">
+        <v>108</v>
+      </c>
+      <c r="O10" t="s">
+        <v>99</v>
+      </c>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>117</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>118</v>
+      </c>
+      <c r="J11" t="s">
+        <v>119</v>
+      </c>
+      <c r="K11" t="s">
+        <v>120</v>
+      </c>
+      <c r="L11" t="s">
+        <v>121</v>
+      </c>
+      <c r="M11" t="n">
+        <v>4</v>
+      </c>
+      <c r="N11" t="s">
+        <v>122</v>
+      </c>
+      <c r="O11" t="s">
+        <v>60</v>
+      </c>
+      <c r="P11" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>4</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>123</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>124</v>
+      </c>
+      <c r="J12" t="s">
+        <v>125</v>
+      </c>
+      <c r="K12" t="s">
+        <v>126</v>
+      </c>
+      <c r="L12" t="s">
+        <v>127</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>128</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>129</v>
+      </c>
+      <c r="X12" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>133</v>
+      </c>
+      <c r="J13" t="s">
+        <v>134</v>
+      </c>
+      <c r="K13" t="s">
+        <v>135</v>
+      </c>
+      <c r="L13" t="s">
+        <v>136</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>128</v>
+      </c>
+      <c r="O13" t="s">
+        <v>53</v>
+      </c>
+      <c r="P13" t="s"/>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="s"/>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="s"/>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>129</v>
+      </c>
+      <c r="X13" t="s">
+        <v>130</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>138</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>139</v>
+      </c>
+      <c r="J14" t="s">
+        <v>140</v>
+      </c>
+      <c r="K14" t="s">
+        <v>141</v>
+      </c>
+      <c r="L14" t="s">
+        <v>142</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>143</v>
+      </c>
+      <c r="O14" t="s">
+        <v>60</v>
+      </c>
+      <c r="P14" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>2</v>
+      </c>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>5</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>144</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>145</v>
+      </c>
+      <c r="J15" t="s">
+        <v>146</v>
+      </c>
+      <c r="K15" t="s">
+        <v>147</v>
+      </c>
+      <c r="L15" t="s">
+        <v>148</v>
+      </c>
+      <c r="M15" t="n">
+        <v>4</v>
+      </c>
+      <c r="N15" t="s">
+        <v>143</v>
+      </c>
+      <c r="O15" t="s">
+        <v>149</v>
+      </c>
+      <c r="P15" t="s"/>
+      <c r="Q15" t="s"/>
+      <c r="R15" t="n">
+        <v>4</v>
+      </c>
+      <c r="S15" t="s"/>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>4</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>150</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>151</v>
+      </c>
+      <c r="J16" t="s">
+        <v>152</v>
+      </c>
+      <c r="K16" t="s">
+        <v>153</v>
+      </c>
+      <c r="L16" t="s">
+        <v>154</v>
+      </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
+      <c r="N16" t="s">
+        <v>143</v>
+      </c>
+      <c r="O16" t="s">
+        <v>53</v>
+      </c>
+      <c r="P16" t="s"/>
+      <c r="Q16" t="n">
+        <v>3</v>
+      </c>
+      <c r="R16" t="s"/>
+      <c r="S16" t="n">
+        <v>4</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>4</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>155</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>156</v>
+      </c>
+      <c r="J17" t="s">
+        <v>157</v>
+      </c>
+      <c r="K17" t="s">
+        <v>158</v>
+      </c>
+      <c r="L17" t="s">
+        <v>159</v>
+      </c>
+      <c r="M17" t="n">
+        <v>2</v>
+      </c>
+      <c r="N17" t="s">
+        <v>160</v>
+      </c>
+      <c r="O17" t="s">
+        <v>53</v>
+      </c>
+      <c r="P17" t="s"/>
+      <c r="Q17" t="n">
+        <v>2</v>
+      </c>
+      <c r="R17" t="s"/>
+      <c r="S17" t="s"/>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>2</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>162</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>163</v>
+      </c>
+      <c r="J18" t="s">
+        <v>157</v>
+      </c>
+      <c r="K18" t="s">
+        <v>164</v>
+      </c>
+      <c r="L18" t="s">
+        <v>165</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>160</v>
+      </c>
+      <c r="O18" t="s">
+        <v>53</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>166</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>167</v>
+      </c>
+      <c r="J19" t="s">
+        <v>168</v>
+      </c>
+      <c r="K19" t="s">
+        <v>169</v>
+      </c>
+      <c r="L19" t="s">
+        <v>170</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s">
+        <v>171</v>
+      </c>
+      <c r="O19" t="s">
+        <v>99</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>5</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
         <v>19</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>172</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>173</v>
+      </c>
+      <c r="J20" t="s">
+        <v>174</v>
+      </c>
+      <c r="K20" t="s">
+        <v>175</v>
+      </c>
+      <c r="L20" t="s">
+        <v>176</v>
+      </c>
+      <c r="M20" t="n">
+        <v>3</v>
+      </c>
+      <c r="N20" t="s">
+        <v>177</v>
+      </c>
+      <c r="O20" t="s">
+        <v>99</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s">
+        <v>178</v>
+      </c>
+      <c r="X20" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y20" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
         <v>20</v>
       </c>
-      <c r="F1" t="s">
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>181</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>182</v>
+      </c>
+      <c r="J21" t="s">
+        <v>183</v>
+      </c>
+      <c r="K21" t="s">
+        <v>184</v>
+      </c>
+      <c r="L21" t="s">
+        <v>185</v>
+      </c>
+      <c r="M21" t="n">
+        <v>4</v>
+      </c>
+      <c r="N21" t="s">
+        <v>186</v>
+      </c>
+      <c r="O21" t="s">
+        <v>60</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
         <v>21</v>
       </c>
-      <c r="G1" t="s">
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>187</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>188</v>
+      </c>
+      <c r="J22" t="s">
+        <v>189</v>
+      </c>
+      <c r="K22" t="s">
+        <v>190</v>
+      </c>
+      <c r="L22" t="s">
+        <v>191</v>
+      </c>
+      <c r="M22" t="n">
+        <v>4</v>
+      </c>
+      <c r="N22" t="s">
+        <v>186</v>
+      </c>
+      <c r="O22" t="s">
+        <v>60</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>4</v>
+      </c>
+      <c r="R22" t="s"/>
+      <c r="S22" t="s"/>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>5</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
         <v>22</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>192</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>193</v>
+      </c>
+      <c r="J23" t="s">
+        <v>194</v>
+      </c>
+      <c r="K23" t="s">
+        <v>195</v>
+      </c>
+      <c r="L23" t="s">
+        <v>196</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>197</v>
+      </c>
+      <c r="O23" t="s">
+        <v>149</v>
+      </c>
+      <c r="P23" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="n">
+        <v>4</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>4</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
         <v>23</v>
       </c>
-      <c r="I1" t="s">
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>198</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>199</v>
+      </c>
+      <c r="J24" t="s">
+        <v>200</v>
+      </c>
+      <c r="K24" t="s">
+        <v>201</v>
+      </c>
+      <c r="L24" t="s">
+        <v>202</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>203</v>
+      </c>
+      <c r="O24" t="s">
+        <v>60</v>
+      </c>
+      <c r="P24" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>4</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
         <v>24</v>
       </c>
-      <c r="J1" t="s">
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>204</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>205</v>
+      </c>
+      <c r="J25" t="s">
+        <v>206</v>
+      </c>
+      <c r="K25" t="s">
+        <v>207</v>
+      </c>
+      <c r="L25" t="s">
+        <v>208</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>203</v>
+      </c>
+      <c r="O25" t="s">
+        <v>60</v>
+      </c>
+      <c r="P25" t="s"/>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>3</v>
+      </c>
+      <c r="S25" t="s"/>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
         <v>25</v>
       </c>
-      <c r="K1" t="s">
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>210</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>211</v>
+      </c>
+      <c r="J26" t="s">
+        <v>212</v>
+      </c>
+      <c r="K26" t="s">
+        <v>213</v>
+      </c>
+      <c r="L26" t="s">
+        <v>214</v>
+      </c>
+      <c r="M26" t="n">
+        <v>2</v>
+      </c>
+      <c r="N26" t="s">
+        <v>215</v>
+      </c>
+      <c r="O26" t="s">
+        <v>60</v>
+      </c>
+      <c r="P26" t="s"/>
+      <c r="Q26" t="s"/>
+      <c r="R26" t="s"/>
+      <c r="S26" t="s"/>
+      <c r="T26" t="s"/>
+      <c r="U26" t="s"/>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
         <v>26</v>
       </c>
-      <c r="L1" t="s">
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>216</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>217</v>
+      </c>
+      <c r="J27" t="s">
+        <v>218</v>
+      </c>
+      <c r="K27" t="s">
+        <v>219</v>
+      </c>
+      <c r="L27" t="s">
+        <v>220</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>215</v>
+      </c>
+      <c r="O27" t="s">
+        <v>60</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="s"/>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="s"/>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
         <v>27</v>
       </c>
-      <c r="M1" t="s">
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>221</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>222</v>
+      </c>
+      <c r="J28" t="s">
+        <v>223</v>
+      </c>
+      <c r="K28" t="s">
+        <v>224</v>
+      </c>
+      <c r="L28" t="s">
+        <v>225</v>
+      </c>
+      <c r="M28" t="n">
+        <v>2</v>
+      </c>
+      <c r="N28" t="s">
+        <v>226</v>
+      </c>
+      <c r="O28" t="s">
+        <v>53</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="s"/>
+      <c r="S28" t="n">
+        <v>5</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>3</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>227</v>
+      </c>
+      <c r="X28" t="s">
+        <v>228</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
         <v>28</v>
       </c>
-      <c r="N1" t="s">
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>231</v>
+      </c>
+      <c r="J29" t="s">
+        <v>232</v>
+      </c>
+      <c r="K29" t="s">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s">
+        <v>234</v>
+      </c>
+      <c r="M29" t="n">
+        <v>3</v>
+      </c>
+      <c r="N29" t="s">
+        <v>235</v>
+      </c>
+      <c r="O29" t="s">
+        <v>60</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="s"/>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="s"/>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>236</v>
+      </c>
+      <c r="X29" t="s">
+        <v>237</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
         <v>29</v>
       </c>
-      <c r="O1" t="s">
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>239</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>240</v>
+      </c>
+      <c r="J30" t="s">
+        <v>241</v>
+      </c>
+      <c r="K30" t="s">
+        <v>242</v>
+      </c>
+      <c r="L30" t="s">
+        <v>243</v>
+      </c>
+      <c r="M30" t="n">
+        <v>4</v>
+      </c>
+      <c r="N30" t="s">
+        <v>235</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="s"/>
+      <c r="Q30" t="s"/>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="s"/>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>244</v>
+      </c>
+      <c r="X30" t="s">
+        <v>245</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
         <v>30</v>
       </c>
-      <c r="P1" t="s">
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>247</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
+        <v>248</v>
+      </c>
+      <c r="J31" t="s">
+        <v>249</v>
+      </c>
+      <c r="K31" t="s">
+        <v>250</v>
+      </c>
+      <c r="L31" t="s">
+        <v>251</v>
+      </c>
+      <c r="M31" t="n">
+        <v>5</v>
+      </c>
+      <c r="N31" t="s">
+        <v>252</v>
+      </c>
+      <c r="O31" t="s">
+        <v>149</v>
+      </c>
+      <c r="P31" t="s"/>
+      <c r="Q31" t="s"/>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="s"/>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>5</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s">
+        <v>253</v>
+      </c>
+      <c r="X31" t="s">
+        <v>254</v>
+      </c>
+      <c r="Y31" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
         <v>31</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>256</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>257</v>
+      </c>
+      <c r="J32" t="s">
+        <v>258</v>
+      </c>
+      <c r="K32" t="s">
+        <v>259</v>
+      </c>
+      <c r="L32" t="s">
+        <v>260</v>
+      </c>
+      <c r="M32" t="n">
+        <v>2</v>
+      </c>
+      <c r="N32" t="s">
+        <v>261</v>
+      </c>
+      <c r="O32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="s"/>
+      <c r="R32" t="s"/>
+      <c r="S32" t="s"/>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s">
+        <v>262</v>
+      </c>
+      <c r="X32" t="s">
+        <v>263</v>
+      </c>
+      <c r="Y32" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
         <v>32</v>
       </c>
-      <c r="R1" t="s">
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>265</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>266</v>
+      </c>
+      <c r="J33" t="s">
+        <v>267</v>
+      </c>
+      <c r="K33" t="s">
+        <v>268</v>
+      </c>
+      <c r="L33" t="s">
+        <v>269</v>
+      </c>
+      <c r="M33" t="n">
+        <v>4</v>
+      </c>
+      <c r="N33" t="s">
+        <v>270</v>
+      </c>
+      <c r="O33" t="s">
+        <v>99</v>
+      </c>
+      <c r="P33" t="s"/>
+      <c r="Q33" t="s"/>
+      <c r="R33" t="s"/>
+      <c r="S33" t="n">
+        <v>4</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>4</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
         <v>33</v>
       </c>
-      <c r="S1" t="s">
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>271</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>272</v>
+      </c>
+      <c r="J34" t="s">
+        <v>273</v>
+      </c>
+      <c r="K34" t="s">
+        <v>274</v>
+      </c>
+      <c r="L34" t="s">
+        <v>275</v>
+      </c>
+      <c r="M34" t="n">
+        <v>5</v>
+      </c>
+      <c r="N34" t="s">
+        <v>276</v>
+      </c>
+      <c r="O34" t="s">
+        <v>53</v>
+      </c>
+      <c r="P34" t="s"/>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>4</v>
+      </c>
+      <c r="S34" t="s"/>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>5</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
         <v>34</v>
       </c>
-      <c r="T1" t="s">
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>277</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>278</v>
+      </c>
+      <c r="J35" t="s">
+        <v>279</v>
+      </c>
+      <c r="K35" t="s">
+        <v>280</v>
+      </c>
+      <c r="L35" t="s">
+        <v>281</v>
+      </c>
+      <c r="M35" t="n">
+        <v>3</v>
+      </c>
+      <c r="N35" t="s">
+        <v>282</v>
+      </c>
+      <c r="O35" t="s">
+        <v>283</v>
+      </c>
+      <c r="P35" t="s"/>
+      <c r="Q35" t="s"/>
+      <c r="R35" t="s"/>
+      <c r="S35" t="s"/>
+      <c r="T35" t="s"/>
+      <c r="U35" t="s"/>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s">
+        <v>284</v>
+      </c>
+      <c r="X35" t="s">
+        <v>285</v>
+      </c>
+      <c r="Y35" t="s">
+        <v>286</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
         <v>35</v>
       </c>
-      <c r="U1" t="s">
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>287</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>288</v>
+      </c>
+      <c r="J36" t="s">
+        <v>289</v>
+      </c>
+      <c r="K36" t="s">
+        <v>290</v>
+      </c>
+      <c r="L36" t="s">
+        <v>291</v>
+      </c>
+      <c r="M36" t="n">
+        <v>3</v>
+      </c>
+      <c r="N36" t="s">
+        <v>292</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>4</v>
+      </c>
+      <c r="S36" t="n">
+        <v>4</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s">
+        <v>293</v>
+      </c>
+      <c r="X36" t="s">
+        <v>294</v>
+      </c>
+      <c r="Y36" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
         <v>36</v>
       </c>
-      <c r="V1" t="s">
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>296</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>297</v>
+      </c>
+      <c r="J37" t="s">
+        <v>298</v>
+      </c>
+      <c r="K37" t="s">
+        <v>299</v>
+      </c>
+      <c r="L37" t="s">
+        <v>300</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>292</v>
+      </c>
+      <c r="O37" t="s">
+        <v>60</v>
+      </c>
+      <c r="P37" t="s"/>
+      <c r="Q37" t="s"/>
+      <c r="R37" t="s"/>
+      <c r="S37" t="s"/>
+      <c r="T37" t="s"/>
+      <c r="U37" t="s"/>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s">
+        <v>301</v>
+      </c>
+      <c r="X37" t="s">
+        <v>302</v>
+      </c>
+      <c r="Y37" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
         <v>37</v>
       </c>
-      <c r="W1" t="s">
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>304</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>305</v>
+      </c>
+      <c r="J38" t="s">
+        <v>306</v>
+      </c>
+      <c r="K38" t="s">
+        <v>307</v>
+      </c>
+      <c r="L38" t="s">
+        <v>308</v>
+      </c>
+      <c r="M38" t="n">
+        <v>3</v>
+      </c>
+      <c r="N38" t="s">
+        <v>309</v>
+      </c>
+      <c r="O38" t="s">
+        <v>60</v>
+      </c>
+      <c r="P38" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>3</v>
+      </c>
+      <c r="R38" t="n">
+        <v>4</v>
+      </c>
+      <c r="S38" t="n">
+        <v>4</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>3</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s">
+        <v>310</v>
+      </c>
+      <c r="X38" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y38" t="s">
+        <v>312</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
         <v>38</v>
       </c>
-      <c r="X1" t="s">
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>313</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>314</v>
+      </c>
+      <c r="J39" t="s">
+        <v>315</v>
+      </c>
+      <c r="K39" t="s">
+        <v>316</v>
+      </c>
+      <c r="L39" t="s">
+        <v>317</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s"/>
+      <c r="O39" t="s"/>
+      <c r="P39" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>3</v>
+      </c>
+      <c r="R39" t="n">
+        <v>3</v>
+      </c>
+      <c r="S39" t="n">
+        <v>4</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>3</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s">
+        <v>310</v>
+      </c>
+      <c r="X39" t="s">
+        <v>311</v>
+      </c>
+      <c r="Y39" t="s">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
         <v>39</v>
       </c>
-      <c r="Y1" t="s">
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>319</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>320</v>
+      </c>
+      <c r="J40" t="s">
+        <v>321</v>
+      </c>
+      <c r="K40" t="s">
+        <v>322</v>
+      </c>
+      <c r="L40" t="s">
+        <v>323</v>
+      </c>
+      <c r="M40" t="n">
+        <v>3</v>
+      </c>
+      <c r="N40" t="s"/>
+      <c r="O40" t="s"/>
+      <c r="P40" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>3</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>3</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s">
+        <v>324</v>
+      </c>
+      <c r="X40" t="s">
+        <v>325</v>
+      </c>
+      <c r="Y40" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
         <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>327</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>328</v>
+      </c>
+      <c r="J41" t="s">
+        <v>329</v>
+      </c>
+      <c r="K41" t="s">
+        <v>330</v>
+      </c>
+      <c r="L41" t="s">
+        <v>331</v>
+      </c>
+      <c r="M41" t="n">
+        <v>5</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>5</v>
+      </c>
+      <c r="R41" t="n">
+        <v>5</v>
+      </c>
+      <c r="S41" t="n">
+        <v>5</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>5</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B42" t="s"/>
+      <c r="C42" t="s"/>
+      <c r="D42" t="n">
+        <v>41</v>
+      </c>
+      <c r="E42" t="s">
+        <v>44</v>
+      </c>
+      <c r="F42" t="s">
+        <v>332</v>
+      </c>
+      <c r="G42" t="s">
+        <v>46</v>
+      </c>
+      <c r="H42" t="s">
+        <v>47</v>
+      </c>
+      <c r="I42" t="s">
+        <v>333</v>
+      </c>
+      <c r="J42" t="s">
+        <v>334</v>
+      </c>
+      <c r="K42" t="s">
+        <v>335</v>
+      </c>
+      <c r="L42" t="s">
+        <v>336</v>
+      </c>
+      <c r="M42" t="n">
+        <v>3</v>
+      </c>
+      <c r="N42" t="s">
+        <v>337</v>
+      </c>
+      <c r="O42" t="s">
+        <v>60</v>
+      </c>
+      <c r="P42" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q42" t="n">
+        <v>3</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>3</v>
+      </c>
+      <c r="T42" t="s"/>
+      <c r="U42" t="n">
+        <v>3</v>
+      </c>
+      <c r="V42" t="n">
+        <v>0</v>
+      </c>
+      <c r="W42" t="s">
+        <v>338</v>
+      </c>
+      <c r="X42" t="s">
+        <v>339</v>
+      </c>
+      <c r="Y42" t="s">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B43" t="s"/>
+      <c r="C43" t="s"/>
+      <c r="D43" t="n">
+        <v>42</v>
+      </c>
+      <c r="E43" t="s">
+        <v>44</v>
+      </c>
+      <c r="F43" t="s">
+        <v>341</v>
+      </c>
+      <c r="G43" t="s">
+        <v>46</v>
+      </c>
+      <c r="H43" t="s">
+        <v>47</v>
+      </c>
+      <c r="I43" t="s">
+        <v>342</v>
+      </c>
+      <c r="J43" t="s">
+        <v>343</v>
+      </c>
+      <c r="K43" t="s">
+        <v>344</v>
+      </c>
+      <c r="L43" t="s">
+        <v>345</v>
+      </c>
+      <c r="M43" t="n">
+        <v>4</v>
+      </c>
+      <c r="N43" t="s">
+        <v>346</v>
+      </c>
+      <c r="O43" t="s">
+        <v>60</v>
+      </c>
+      <c r="P43" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q43" t="n">
+        <v>3</v>
+      </c>
+      <c r="R43" t="n">
+        <v>4</v>
+      </c>
+      <c r="S43" t="n">
+        <v>4</v>
+      </c>
+      <c r="T43" t="s"/>
+      <c r="U43" t="n">
+        <v>4</v>
+      </c>
+      <c r="V43" t="n">
+        <v>0</v>
+      </c>
+      <c r="W43" t="s"/>
+      <c r="X43" t="s"/>
+      <c r="Y43" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B44" t="s"/>
+      <c r="C44" t="s"/>
+      <c r="D44" t="n">
+        <v>43</v>
+      </c>
+      <c r="E44" t="s">
+        <v>44</v>
+      </c>
+      <c r="F44" t="s">
+        <v>347</v>
+      </c>
+      <c r="G44" t="s">
+        <v>46</v>
+      </c>
+      <c r="H44" t="s">
+        <v>47</v>
+      </c>
+      <c r="I44" t="s">
+        <v>348</v>
+      </c>
+      <c r="J44" t="s">
+        <v>349</v>
+      </c>
+      <c r="K44" t="s">
+        <v>350</v>
+      </c>
+      <c r="L44" t="s">
+        <v>351</v>
+      </c>
+      <c r="M44" t="n">
+        <v>4</v>
+      </c>
+      <c r="N44" t="s">
+        <v>352</v>
+      </c>
+      <c r="O44" t="s">
+        <v>60</v>
+      </c>
+      <c r="P44" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q44" t="n">
+        <v>4</v>
+      </c>
+      <c r="R44" t="n">
+        <v>4</v>
+      </c>
+      <c r="S44" t="n">
+        <v>4</v>
+      </c>
+      <c r="T44" t="s"/>
+      <c r="U44" t="n">
+        <v>5</v>
+      </c>
+      <c r="V44" t="n">
+        <v>0</v>
+      </c>
+      <c r="W44" t="s">
+        <v>353</v>
+      </c>
+      <c r="X44" t="s">
+        <v>354</v>
+      </c>
+      <c r="Y44" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B45" t="s"/>
+      <c r="C45" t="s"/>
+      <c r="D45" t="n">
+        <v>44</v>
+      </c>
+      <c r="E45" t="s">
+        <v>44</v>
+      </c>
+      <c r="F45" t="s">
+        <v>356</v>
+      </c>
+      <c r="G45" t="s">
+        <v>46</v>
+      </c>
+      <c r="H45" t="s">
+        <v>47</v>
+      </c>
+      <c r="I45" t="s">
+        <v>357</v>
+      </c>
+      <c r="J45" t="s">
+        <v>358</v>
+      </c>
+      <c r="K45" t="s">
+        <v>359</v>
+      </c>
+      <c r="L45" t="s">
+        <v>360</v>
+      </c>
+      <c r="M45" t="n">
+        <v>4</v>
+      </c>
+      <c r="N45" t="s">
+        <v>361</v>
+      </c>
+      <c r="O45" t="s">
+        <v>60</v>
+      </c>
+      <c r="P45" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>4</v>
+      </c>
+      <c r="R45" t="n">
+        <v>5</v>
+      </c>
+      <c r="S45" t="n">
+        <v>4</v>
+      </c>
+      <c r="T45" t="s"/>
+      <c r="U45" t="n">
+        <v>4</v>
+      </c>
+      <c r="V45" t="n">
+        <v>0</v>
+      </c>
+      <c r="W45" t="s">
+        <v>362</v>
+      </c>
+      <c r="X45" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y45" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B46" t="s"/>
+      <c r="C46" t="s"/>
+      <c r="D46" t="n">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>44</v>
+      </c>
+      <c r="F46" t="s">
+        <v>365</v>
+      </c>
+      <c r="G46" t="s">
+        <v>46</v>
+      </c>
+      <c r="H46" t="s">
+        <v>47</v>
+      </c>
+      <c r="I46" t="s">
+        <v>366</v>
+      </c>
+      <c r="J46" t="s">
+        <v>367</v>
+      </c>
+      <c r="K46" t="s">
+        <v>368</v>
+      </c>
+      <c r="L46" t="s">
+        <v>369</v>
+      </c>
+      <c r="M46" t="n">
+        <v>2</v>
+      </c>
+      <c r="N46" t="s">
+        <v>370</v>
+      </c>
+      <c r="O46" t="s">
+        <v>60</v>
+      </c>
+      <c r="P46" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q46" t="n">
+        <v>1</v>
+      </c>
+      <c r="R46" t="n">
+        <v>3</v>
+      </c>
+      <c r="S46" t="n">
+        <v>1</v>
+      </c>
+      <c r="T46" t="s"/>
+      <c r="U46" t="n">
+        <v>1</v>
+      </c>
+      <c r="V46" t="n">
+        <v>0</v>
+      </c>
+      <c r="W46" t="s">
+        <v>371</v>
+      </c>
+      <c r="X46" t="s">
+        <v>372</v>
+      </c>
+      <c r="Y46" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B47" t="s"/>
+      <c r="C47" t="s"/>
+      <c r="D47" t="n">
+        <v>46</v>
+      </c>
+      <c r="E47" t="s">
+        <v>44</v>
+      </c>
+      <c r="F47" t="s">
+        <v>374</v>
+      </c>
+      <c r="G47" t="s">
+        <v>46</v>
+      </c>
+      <c r="H47" t="s">
+        <v>47</v>
+      </c>
+      <c r="I47" t="s">
+        <v>375</v>
+      </c>
+      <c r="J47" t="s">
+        <v>376</v>
+      </c>
+      <c r="K47" t="s">
+        <v>377</v>
+      </c>
+      <c r="L47" t="s">
+        <v>378</v>
+      </c>
+      <c r="M47" t="n">
+        <v>5</v>
+      </c>
+      <c r="N47" t="s">
+        <v>379</v>
+      </c>
+      <c r="O47" t="s">
+        <v>60</v>
+      </c>
+      <c r="P47" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q47" t="n">
+        <v>4</v>
+      </c>
+      <c r="R47" t="n">
+        <v>5</v>
+      </c>
+      <c r="S47" t="n">
+        <v>5</v>
+      </c>
+      <c r="T47" t="s"/>
+      <c r="U47" t="n">
+        <v>5</v>
+      </c>
+      <c r="V47" t="n">
+        <v>0</v>
+      </c>
+      <c r="W47" t="s">
+        <v>380</v>
+      </c>
+      <c r="X47" t="s">
+        <v>381</v>
+      </c>
+      <c r="Y47" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B48" t="s"/>
+      <c r="C48" t="s"/>
+      <c r="D48" t="n">
+        <v>47</v>
+      </c>
+      <c r="E48" t="s">
+        <v>44</v>
+      </c>
+      <c r="F48" t="s">
+        <v>383</v>
+      </c>
+      <c r="G48" t="s">
+        <v>46</v>
+      </c>
+      <c r="H48" t="s">
+        <v>47</v>
+      </c>
+      <c r="I48" t="s">
+        <v>384</v>
+      </c>
+      <c r="J48" t="s">
+        <v>385</v>
+      </c>
+      <c r="K48" t="s">
+        <v>386</v>
+      </c>
+      <c r="L48" t="s">
+        <v>387</v>
+      </c>
+      <c r="M48" t="n">
+        <v>5</v>
+      </c>
+      <c r="N48" t="s">
+        <v>379</v>
+      </c>
+      <c r="O48" t="s">
+        <v>53</v>
+      </c>
+      <c r="P48" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>5</v>
+      </c>
+      <c r="R48" t="n">
+        <v>5</v>
+      </c>
+      <c r="S48" t="n">
+        <v>5</v>
+      </c>
+      <c r="T48" t="s"/>
+      <c r="U48" t="n">
+        <v>5</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="s">
+        <v>388</v>
+      </c>
+      <c r="X48" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B49" t="s"/>
+      <c r="C49" t="s"/>
+      <c r="D49" t="n">
+        <v>48</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>391</v>
+      </c>
+      <c r="G49" t="s">
+        <v>46</v>
+      </c>
+      <c r="H49" t="s">
+        <v>47</v>
+      </c>
+      <c r="I49" t="s">
+        <v>392</v>
+      </c>
+      <c r="J49" t="s">
+        <v>393</v>
+      </c>
+      <c r="K49" t="s">
+        <v>394</v>
+      </c>
+      <c r="L49" t="s">
+        <v>395</v>
+      </c>
+      <c r="M49" t="n">
+        <v>3</v>
+      </c>
+      <c r="N49" t="s">
+        <v>396</v>
+      </c>
+      <c r="O49" t="s">
+        <v>60</v>
+      </c>
+      <c r="P49" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2</v>
+      </c>
+      <c r="R49" t="n">
+        <v>5</v>
+      </c>
+      <c r="S49" t="n">
+        <v>3</v>
+      </c>
+      <c r="T49" t="s"/>
+      <c r="U49" t="n">
+        <v>5</v>
+      </c>
+      <c r="V49" t="n">
+        <v>0</v>
+      </c>
+      <c r="W49" t="s">
+        <v>388</v>
+      </c>
+      <c r="X49" t="s">
+        <v>389</v>
+      </c>
+      <c r="Y49" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B50" t="s"/>
+      <c r="C50" t="s"/>
+      <c r="D50" t="n">
+        <v>49</v>
+      </c>
+      <c r="E50" t="s">
+        <v>44</v>
+      </c>
+      <c r="F50" t="s">
+        <v>398</v>
+      </c>
+      <c r="G50" t="s">
+        <v>46</v>
+      </c>
+      <c r="H50" t="s">
+        <v>47</v>
+      </c>
+      <c r="I50" t="s">
+        <v>399</v>
+      </c>
+      <c r="J50" t="s">
+        <v>400</v>
+      </c>
+      <c r="K50" t="s">
+        <v>401</v>
+      </c>
+      <c r="L50" t="s">
+        <v>402</v>
+      </c>
+      <c r="M50" t="n">
+        <v>4</v>
+      </c>
+      <c r="N50" t="s">
+        <v>403</v>
+      </c>
+      <c r="O50" t="s">
+        <v>149</v>
+      </c>
+      <c r="P50" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>4</v>
+      </c>
+      <c r="R50" t="n">
+        <v>4</v>
+      </c>
+      <c r="S50" t="n">
+        <v>5</v>
+      </c>
+      <c r="T50" t="s"/>
+      <c r="U50" t="n">
+        <v>5</v>
+      </c>
+      <c r="V50" t="n">
+        <v>0</v>
+      </c>
+      <c r="W50" t="s">
+        <v>404</v>
+      </c>
+      <c r="X50" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y50" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B51" t="s"/>
+      <c r="C51" t="s"/>
+      <c r="D51" t="n">
+        <v>50</v>
+      </c>
+      <c r="E51" t="s">
+        <v>44</v>
+      </c>
+      <c r="F51" t="s">
+        <v>407</v>
+      </c>
+      <c r="G51" t="s">
+        <v>46</v>
+      </c>
+      <c r="H51" t="s">
+        <v>47</v>
+      </c>
+      <c r="I51" t="s">
+        <v>408</v>
+      </c>
+      <c r="J51" t="s">
+        <v>409</v>
+      </c>
+      <c r="K51" t="s">
+        <v>410</v>
+      </c>
+      <c r="L51" t="s">
+        <v>411</v>
+      </c>
+      <c r="M51" t="n">
+        <v>5</v>
+      </c>
+      <c r="N51" t="s">
+        <v>412</v>
+      </c>
+      <c r="O51" t="s">
+        <v>60</v>
+      </c>
+      <c r="P51" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q51" t="n">
+        <v>5</v>
+      </c>
+      <c r="R51" t="n">
+        <v>5</v>
+      </c>
+      <c r="S51" t="n">
+        <v>5</v>
+      </c>
+      <c r="T51" t="s"/>
+      <c r="U51" t="n">
+        <v>5</v>
+      </c>
+      <c r="V51" t="n">
+        <v>0</v>
+      </c>
+      <c r="W51" t="s">
+        <v>404</v>
+      </c>
+      <c r="X51" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y51" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B52" t="s"/>
+      <c r="C52" t="s"/>
+      <c r="D52" t="n">
+        <v>51</v>
+      </c>
+      <c r="E52" t="s">
+        <v>44</v>
+      </c>
+      <c r="F52" t="s">
+        <v>414</v>
+      </c>
+      <c r="G52" t="s">
+        <v>46</v>
+      </c>
+      <c r="H52" t="s">
+        <v>47</v>
+      </c>
+      <c r="I52" t="s">
+        <v>415</v>
+      </c>
+      <c r="J52" t="s">
+        <v>416</v>
+      </c>
+      <c r="K52" t="s">
+        <v>417</v>
+      </c>
+      <c r="L52" t="s">
+        <v>418</v>
+      </c>
+      <c r="M52" t="n">
+        <v>4</v>
+      </c>
+      <c r="N52" t="s">
+        <v>419</v>
+      </c>
+      <c r="O52" t="s">
+        <v>60</v>
+      </c>
+      <c r="P52" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q52" t="n">
+        <v>5</v>
+      </c>
+      <c r="R52" t="n">
+        <v>3</v>
+      </c>
+      <c r="S52" t="n">
+        <v>5</v>
+      </c>
+      <c r="T52" t="s"/>
+      <c r="U52" t="n">
+        <v>4</v>
+      </c>
+      <c r="V52" t="n">
+        <v>0</v>
+      </c>
+      <c r="W52" t="s">
+        <v>404</v>
+      </c>
+      <c r="X52" t="s">
+        <v>405</v>
+      </c>
+      <c r="Y52" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B53" t="s"/>
+      <c r="C53" t="s"/>
+      <c r="D53" t="n">
+        <v>52</v>
+      </c>
+      <c r="E53" t="s">
+        <v>44</v>
+      </c>
+      <c r="F53" t="s">
+        <v>421</v>
+      </c>
+      <c r="G53" t="s">
+        <v>46</v>
+      </c>
+      <c r="H53" t="s">
+        <v>47</v>
+      </c>
+      <c r="I53" t="s">
+        <v>422</v>
+      </c>
+      <c r="J53" t="s">
+        <v>423</v>
+      </c>
+      <c r="K53" t="s">
+        <v>424</v>
+      </c>
+      <c r="L53" t="s">
+        <v>425</v>
+      </c>
+      <c r="M53" t="n">
+        <v>5</v>
+      </c>
+      <c r="N53" t="s">
+        <v>426</v>
+      </c>
+      <c r="O53" t="s">
+        <v>60</v>
+      </c>
+      <c r="P53" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q53" t="s"/>
+      <c r="R53" t="s"/>
+      <c r="S53" t="n">
+        <v>5</v>
+      </c>
+      <c r="T53" t="s"/>
+      <c r="U53" t="n">
+        <v>5</v>
+      </c>
+      <c r="V53" t="n">
+        <v>0</v>
+      </c>
+      <c r="W53" t="s">
+        <v>427</v>
+      </c>
+      <c r="X53" t="s">
+        <v>428</v>
+      </c>
+      <c r="Y53" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B54" t="s"/>
+      <c r="C54" t="s"/>
+      <c r="D54" t="n">
+        <v>53</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>430</v>
+      </c>
+      <c r="G54" t="s">
+        <v>46</v>
+      </c>
+      <c r="H54" t="s">
+        <v>47</v>
+      </c>
+      <c r="I54" t="s">
+        <v>431</v>
+      </c>
+      <c r="J54" t="s">
+        <v>432</v>
+      </c>
+      <c r="K54" t="s">
+        <v>433</v>
+      </c>
+      <c r="L54" t="s">
+        <v>434</v>
+      </c>
+      <c r="M54" t="n">
+        <v>5</v>
+      </c>
+      <c r="N54" t="s">
+        <v>435</v>
+      </c>
+      <c r="O54" t="s">
+        <v>60</v>
+      </c>
+      <c r="P54" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>5</v>
+      </c>
+      <c r="R54" t="n">
+        <v>5</v>
+      </c>
+      <c r="S54" t="n">
+        <v>5</v>
+      </c>
+      <c r="T54" t="s"/>
+      <c r="U54" t="n">
+        <v>5</v>
+      </c>
+      <c r="V54" t="n">
+        <v>0</v>
+      </c>
+      <c r="W54" t="s">
+        <v>436</v>
+      </c>
+      <c r="X54" t="s">
+        <v>437</v>
+      </c>
+      <c r="Y54" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B55" t="s"/>
+      <c r="C55" t="s"/>
+      <c r="D55" t="n">
+        <v>54</v>
+      </c>
+      <c r="E55" t="s">
+        <v>44</v>
+      </c>
+      <c r="F55" t="s">
+        <v>439</v>
+      </c>
+      <c r="G55" t="s">
+        <v>46</v>
+      </c>
+      <c r="H55" t="s">
+        <v>47</v>
+      </c>
+      <c r="I55" t="s">
+        <v>440</v>
+      </c>
+      <c r="J55" t="s">
+        <v>441</v>
+      </c>
+      <c r="K55" t="s">
+        <v>442</v>
+      </c>
+      <c r="L55" t="s">
+        <v>443</v>
+      </c>
+      <c r="M55" t="n">
+        <v>5</v>
+      </c>
+      <c r="N55" t="s">
+        <v>435</v>
+      </c>
+      <c r="O55" t="s">
+        <v>60</v>
+      </c>
+      <c r="P55" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q55" t="n">
+        <v>5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>5</v>
+      </c>
+      <c r="S55" t="n">
+        <v>5</v>
+      </c>
+      <c r="T55" t="s"/>
+      <c r="U55" t="n">
+        <v>5</v>
+      </c>
+      <c r="V55" t="n">
+        <v>0</v>
+      </c>
+      <c r="W55" t="s">
+        <v>444</v>
+      </c>
+      <c r="X55" t="s">
+        <v>445</v>
+      </c>
+      <c r="Y55" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B56" t="s"/>
+      <c r="C56" t="s"/>
+      <c r="D56" t="n">
+        <v>55</v>
+      </c>
+      <c r="E56" t="s">
+        <v>44</v>
+      </c>
+      <c r="F56" t="s">
+        <v>447</v>
+      </c>
+      <c r="G56" t="s">
+        <v>46</v>
+      </c>
+      <c r="H56" t="s">
+        <v>47</v>
+      </c>
+      <c r="I56" t="s">
+        <v>448</v>
+      </c>
+      <c r="J56" t="s">
+        <v>449</v>
+      </c>
+      <c r="K56" t="s">
+        <v>450</v>
+      </c>
+      <c r="L56" t="s">
+        <v>451</v>
+      </c>
+      <c r="M56" t="n">
+        <v>4</v>
+      </c>
+      <c r="N56" t="s">
+        <v>452</v>
+      </c>
+      <c r="O56" t="s">
+        <v>53</v>
+      </c>
+      <c r="P56" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q56" t="n">
+        <v>4</v>
+      </c>
+      <c r="R56" t="n">
+        <v>5</v>
+      </c>
+      <c r="S56" t="n">
+        <v>4</v>
+      </c>
+      <c r="T56" t="s"/>
+      <c r="U56" t="n">
+        <v>4</v>
+      </c>
+      <c r="V56" t="n">
+        <v>0</v>
+      </c>
+      <c r="W56" t="s"/>
+      <c r="X56" t="s"/>
+      <c r="Y56" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B57" t="s"/>
+      <c r="C57" t="s"/>
+      <c r="D57" t="n">
+        <v>56</v>
+      </c>
+      <c r="E57" t="s">
+        <v>44</v>
+      </c>
+      <c r="F57" t="s">
+        <v>454</v>
+      </c>
+      <c r="G57" t="s">
+        <v>46</v>
+      </c>
+      <c r="H57" t="s">
+        <v>47</v>
+      </c>
+      <c r="I57" t="s">
+        <v>455</v>
+      </c>
+      <c r="J57" t="s">
+        <v>456</v>
+      </c>
+      <c r="K57" t="s">
+        <v>457</v>
+      </c>
+      <c r="L57" t="s">
+        <v>458</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="s">
+        <v>459</v>
+      </c>
+      <c r="O57" t="s">
+        <v>60</v>
+      </c>
+      <c r="P57" t="s"/>
+      <c r="Q57" t="s"/>
+      <c r="R57" t="s"/>
+      <c r="S57" t="s"/>
+      <c r="T57" t="s"/>
+      <c r="U57" t="s"/>
+      <c r="V57" t="n">
+        <v>0</v>
+      </c>
+      <c r="W57" t="s"/>
+      <c r="X57" t="s"/>
+      <c r="Y57" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B58" t="s"/>
+      <c r="C58" t="s"/>
+      <c r="D58" t="n">
+        <v>57</v>
+      </c>
+      <c r="E58" t="s">
+        <v>44</v>
+      </c>
+      <c r="F58" t="s">
+        <v>460</v>
+      </c>
+      <c r="G58" t="s">
+        <v>46</v>
+      </c>
+      <c r="H58" t="s">
+        <v>47</v>
+      </c>
+      <c r="I58" t="s">
+        <v>461</v>
+      </c>
+      <c r="J58" t="s">
+        <v>462</v>
+      </c>
+      <c r="K58" t="s">
+        <v>463</v>
+      </c>
+      <c r="L58" t="s">
+        <v>464</v>
+      </c>
+      <c r="M58" t="n">
+        <v>3</v>
+      </c>
+      <c r="N58" t="s"/>
+      <c r="O58" t="s"/>
+      <c r="P58" t="s"/>
+      <c r="Q58" t="s"/>
+      <c r="R58" t="s"/>
+      <c r="S58" t="s"/>
+      <c r="T58" t="s"/>
+      <c r="U58" t="s"/>
+      <c r="V58" t="n">
+        <v>0</v>
+      </c>
+      <c r="W58" t="s"/>
+      <c r="X58" t="s"/>
+      <c r="Y58" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B59" t="s"/>
+      <c r="C59" t="s"/>
+      <c r="D59" t="n">
+        <v>58</v>
+      </c>
+      <c r="E59" t="s">
+        <v>44</v>
+      </c>
+      <c r="F59" t="s">
+        <v>465</v>
+      </c>
+      <c r="G59" t="s">
+        <v>46</v>
+      </c>
+      <c r="H59" t="s">
+        <v>47</v>
+      </c>
+      <c r="I59" t="s">
+        <v>466</v>
+      </c>
+      <c r="J59" t="s">
+        <v>467</v>
+      </c>
+      <c r="K59" t="s">
+        <v>468</v>
+      </c>
+      <c r="L59" t="s">
+        <v>469</v>
+      </c>
+      <c r="M59" t="n">
+        <v>5</v>
+      </c>
+      <c r="N59" t="s">
+        <v>470</v>
+      </c>
+      <c r="O59" t="s">
+        <v>60</v>
+      </c>
+      <c r="P59" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q59" t="n">
+        <v>4</v>
+      </c>
+      <c r="R59" t="n">
+        <v>4</v>
+      </c>
+      <c r="S59" t="n">
+        <v>4</v>
+      </c>
+      <c r="T59" t="s"/>
+      <c r="U59" t="n">
+        <v>4</v>
+      </c>
+      <c r="V59" t="n">
+        <v>0</v>
+      </c>
+      <c r="W59" t="s"/>
+      <c r="X59" t="s"/>
+      <c r="Y59" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B60" t="s"/>
+      <c r="C60" t="s"/>
+      <c r="D60" t="n">
+        <v>59</v>
+      </c>
+      <c r="E60" t="s">
+        <v>44</v>
+      </c>
+      <c r="F60" t="s">
+        <v>472</v>
+      </c>
+      <c r="G60" t="s">
+        <v>46</v>
+      </c>
+      <c r="H60" t="s">
+        <v>47</v>
+      </c>
+      <c r="I60" t="s">
+        <v>473</v>
+      </c>
+      <c r="J60" t="s">
+        <v>474</v>
+      </c>
+      <c r="K60" t="s">
+        <v>475</v>
+      </c>
+      <c r="L60" t="s">
+        <v>476</v>
+      </c>
+      <c r="M60" t="n">
+        <v>3</v>
+      </c>
+      <c r="N60" t="s">
+        <v>477</v>
+      </c>
+      <c r="O60" t="s">
+        <v>99</v>
+      </c>
+      <c r="P60" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q60" t="n">
+        <v>3</v>
+      </c>
+      <c r="R60" t="n">
+        <v>3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>3</v>
+      </c>
+      <c r="T60" t="s"/>
+      <c r="U60" t="n">
+        <v>3</v>
+      </c>
+      <c r="V60" t="n">
+        <v>0</v>
+      </c>
+      <c r="W60" t="s"/>
+      <c r="X60" t="s"/>
+      <c r="Y60" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B61" t="s"/>
+      <c r="C61" t="s"/>
+      <c r="D61" t="n">
+        <v>60</v>
+      </c>
+      <c r="E61" t="s">
+        <v>44</v>
+      </c>
+      <c r="F61" t="s">
+        <v>479</v>
+      </c>
+      <c r="G61" t="s">
+        <v>46</v>
+      </c>
+      <c r="H61" t="s">
+        <v>47</v>
+      </c>
+      <c r="I61" t="s">
+        <v>480</v>
+      </c>
+      <c r="J61" t="s">
+        <v>481</v>
+      </c>
+      <c r="K61" t="s">
+        <v>482</v>
+      </c>
+      <c r="L61" t="s">
+        <v>483</v>
+      </c>
+      <c r="M61" t="n">
+        <v>1</v>
+      </c>
+      <c r="N61" t="s"/>
+      <c r="O61" t="s"/>
+      <c r="P61" t="s"/>
+      <c r="Q61" t="s"/>
+      <c r="R61" t="s"/>
+      <c r="S61" t="s"/>
+      <c r="T61" t="s"/>
+      <c r="U61" t="s"/>
+      <c r="V61" t="n">
+        <v>0</v>
+      </c>
+      <c r="W61" t="s"/>
+      <c r="X61" t="s"/>
+      <c r="Y61" t="s">
+        <v>484</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Houston/Houston_shard_347.xlsx
+++ b/data/hotels_by_city/Houston/Houston_shard_347.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="485">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="795">
   <si>
     <t xml:space="preserve">STR# </t>
   </si>
@@ -150,18 +150,126 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>08/10/2018</t>
+    <t>09/07/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r614100706-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>56723</t>
+  </si>
+  <si>
+    <t>223181</t>
+  </si>
+  <si>
+    <t>614100706</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>And yet another fantastic stay at a Holiday Inn Express!</t>
+  </si>
+  <si>
+    <t>If you read my reviews you'll see that we choose Holiday Inn Express or other IHG hotels most often when we travel.   This was our first time to stay at this location and it did not disappoint.   Check-in was easy.  The lady at the desk was very friendly and welcoming.  We had a room on the 2nd floor.  My daughter loved it when we got there and our room had a doorbell!!  I've never seen that before.  The room was clean and the beds were comfortable as always.   The bathroom seemed a tad bit smaller than other HI Express we've stayed in but it was perfectly fine.   The next morning breakfast was great.  It was as we are always used to in an HI Express - good variety.   Check-out was just as easy.   One of my favorite things about this HI Express was the location.   Incredibly easy off and easy on Hwy 59 South.   We left the hotel to go out to get dinner after we had checked in and for us to be not as familiar with Sugar Land the ease of the location was great.  Would definitely stay here again when traveling if the need arises when traveling through.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>If you read my reviews you'll see that we choose Holiday Inn Express or other IHG hotels most often when we travel.   This was our first time to stay at this location and it did not disappoint.   Check-in was easy.  The lady at the desk was very friendly and welcoming.  We had a room on the 2nd floor.  My daughter loved it when we got there and our room had a doorbell!!  I've never seen that before.  The room was clean and the beds were comfortable as always.   The bathroom seemed a tad bit smaller than other HI Express we've stayed in but it was perfectly fine.   The next morning breakfast was great.  It was as we are always used to in an HI Express - good variety.   Check-out was just as easy.   One of my favorite things about this HI Express was the location.   Incredibly easy off and easy on Hwy 59 South.   We left the hotel to go out to get dinner after we had checked in and for us to be not as familiar with Sugar Land the ease of the location was great.  Would definitely stay here again when traveling if the need arises when traveling through.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r609607342-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>609607342</t>
+  </si>
+  <si>
+    <t>08/23/2018</t>
+  </si>
+  <si>
+    <t>Friendly staff, not the best HI Express</t>
+  </si>
+  <si>
+    <t>Stayed here a few times in August for a week or so total. The first visit, the fire alarm was turning on intermittently for a few hours. The alarm inside my room was activating too, and it was unbearable to be in my room. The water pressure is not great, my air conditioner was loud when it kicked on all through the night. Other than that, it's a standard Holiday Inn Express with breakfast, workout facility, small pool, etc.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded today</t>
+  </si>
+  <si>
+    <t>Responded today</t>
+  </si>
+  <si>
+    <t>Stayed here a few times in August for a week or so total. The first visit, the fire alarm was turning on intermittently for a few hours. The alarm inside my room was activating too, and it was unbearable to be in my room. The water pressure is not great, my air conditioner was loud when it kicked on all through the night. Other than that, it's a standard Holiday Inn Express with breakfast, workout facility, small pool, etc.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r608110898-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>608110898</t>
+  </si>
+  <si>
+    <t>08/19/2018</t>
+  </si>
+  <si>
+    <t>Nice experience at this hotel in Sugar Land</t>
+  </si>
+  <si>
+    <t>Strange that there are some quite negative reviewsOn this hotel. It’s quite nice, clean and attractive.  Our family used one of the meeting rooms to gather for a memorial at the passing of a loved one. We had at least 3 guests rooms on all floors and even had a suite. Room rates were very reasonable. All had nice sheets and towels and in room conveniences like refrigerators and microwaves. The free breakfast is certainly not great but convenient and decent with choices. We would choose this hotel anytime we were in Sugar Land .</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r602522916-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>602522916</t>
+  </si>
+  <si>
+    <t>08/03/2018</t>
+  </si>
+  <si>
+    <t>Old Hotel</t>
+  </si>
+  <si>
+    <t>This hotel needs a major overhaul! The elevator was loud, slow and bumped around. The first room that they sent us to smelled musty. The next one smelled fine. The toilet ran and there was not enough counter space. It was close to shopping and restaurants.</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r600710209-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>600710209</t>
+  </si>
+  <si>
+    <t>07/29/2018</t>
+  </si>
+  <si>
+    <t>Needs an Update</t>
+  </si>
+  <si>
+    <t>My husband and I stay in Holiday Inn properties exclusively when we travel. This property is older and does not compare favorably with other, newer Holiday Inn Express hotels. The public areas are in need of a good cleaning, especially in the breakfast area. The breakfast buffet was sparse and did not offer one small thing that is important to me - half and half for coffee. Our guest room was clean, but the bathroom was very small. One good thing was the friendly attitude of the hotel staff, which makes up for some of the deficiencies of the property. Overall, I would probably choose another hotel for my next stay in Sugar Land.MoreShow less</t>
+  </si>
+  <si>
+    <t>My husband and I stay in Holiday Inn properties exclusively when we travel. This property is older and does not compare favorably with other, newer Holiday Inn Express hotels. The public areas are in need of a good cleaning, especially in the breakfast area. The breakfast buffet was sparse and did not offer one small thing that is important to me - half and half for coffee. Our guest room was clean, but the bathroom was very small. One good thing was the friendly attitude of the hotel staff, which makes up for some of the deficiencies of the property. Overall, I would probably choose another hotel for my next stay in Sugar Land.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r590014637-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
-    <t>56723</t>
-  </si>
-  <si>
-    <t>223181</t>
-  </si>
-  <si>
     <t>590014637</t>
   </si>
   <si>
@@ -177,9 +285,6 @@
     <t>June 2018</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
     <t>We stayed at the Holiday Inn Express in Sugar Land for three days. This is a very subpar hotel. Our first room had a problem with the shower and the drain in the sink. Also, the iron was not working in the room. They changed our rooms, which meant we had to move all of our stuff which we had already unpacked. When we got to the next room we noticed the same problems. Very poor shower with no pressure and only lukewarm water. The air conditioning is very loud and we requested four irons before we found one that was acceptable. The breakfast was very sparse with selection and quality. We chose this hotel primarily because of cost as we had many people coming to a wedding with varying budgets. In retrospect, we should’ve read the reviews more carefully and chosen a better hotel which only would’ve cost a few dollars per night more. If traveling to Sugar Land, Texas, definitely avoid this hotel.More</t>
   </si>
   <si>
@@ -198,9 +303,6 @@
     <t>The room was very small.  It was old and dingy.  The bed was hard.  It was disappointing.  I exclusively stay at Holiday Inn Express Hotels and this was such a letdown.  The staff was friendly and the location was close to where I needed to be.  But I could quickly see why the price was lower due to the need for updating.</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r584723456-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -219,6 +321,60 @@
     <t>Stayed here during 2 family events. The hotel decor is fine, looks a little worn. The front desk was always attentive and helpful. We had one issue when one of the elevators got stuck between floors and no one answered the phone, had to ring the alarm button. The workers quickly started working on resetting and getting it moving, but no air conditioning in the elevator made it quite hot. Rooms were quite, but air conditioning is loud when it kicks on and had to turn tv volume up to be able to hear. Also no sleep option on the tv. Only ate the breakfast once as there was a softball tournament in the area and the breakfast area was crowded with the players and families. More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r572532464-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>572532464</t>
+  </si>
+  <si>
+    <t>04/10/2018</t>
+  </si>
+  <si>
+    <t>Filthy</t>
+  </si>
+  <si>
+    <t>I have never seen a dirtier fitness center in my life.  There were sweat-drop marks covering the equipment and splashed all over the mirrored wall.  It appears that nothing has been wiped down for weeks- maybe even months.  Their is a layer of dust and hair on multiple surfaces throughout the fitness room.  It is disgusting.There were no towels, no sanitary wipes for the machines, and no cups for the water cooler.  Definitely the worst Holiday Inn Express fitness center I've ever been in.My room looks decent, but now I have the heebie-jeebies.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded April 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 25, 2018</t>
+  </si>
+  <si>
+    <t>I have never seen a dirtier fitness center in my life.  There were sweat-drop marks covering the equipment and splashed all over the mirrored wall.  It appears that nothing has been wiped down for weeks- maybe even months.  Their is a layer of dust and hair on multiple surfaces throughout the fitness room.  It is disgusting.There were no towels, no sanitary wipes for the machines, and no cups for the water cooler.  Definitely the worst Holiday Inn Express fitness center I've ever been in.My room looks decent, but now I have the heebie-jeebies.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r569316876-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>569316876</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>NOT UP TO HOLIDAY INN EXPRESS STANDARDS WE EXPECT</t>
+  </si>
+  <si>
+    <t>This facility was somewhat of a disappointment and not up to Holiday Inn Express standards that we have come to expect.  Check in was fine and the young lady seemed to be a good customer service representative.  The lobby was attractive and looked clean.  The elevator had a heavy hydraulic fluid odor in it and the room smelled musty when we entered it.  We bought a can of air freshener to help with the odor. This is an older building and it appeared that some updates have been done but the work must have been done by an amateur.  The work detail was not done well.  The walls are thin and other guests were noisy. The stopper in the sink did not work, they fixed it, the TV was about to fall over on the stand, they fixed it, and the stool leaked and cycled loudly on a regular basis, they never fixed it.  The maid service (2nd floor) was hit or miss, mostly miss.  Every day they left something undone.  They did not replace linens toilet paper or tissues in kind, they did not vacuum very often, and I finally had to go to desk clerk to get someone to clean the stool after 3 days.  The breakfast for the most part was good and had a good variety.  However on Sunday and Monday, apparently the person who was supposed to tend the breakfast area did not show up...This facility was somewhat of a disappointment and not up to Holiday Inn Express standards that we have come to expect.  Check in was fine and the young lady seemed to be a good customer service representative.  The lobby was attractive and looked clean.  The elevator had a heavy hydraulic fluid odor in it and the room smelled musty when we entered it.  We bought a can of air freshener to help with the odor. This is an older building and it appeared that some updates have been done but the work must have been done by an amateur.  The work detail was not done well.  The walls are thin and other guests were noisy. The stopper in the sink did not work, they fixed it, the TV was about to fall over on the stand, they fixed it, and the stool leaked and cycled loudly on a regular basis, they never fixed it.  The maid service (2nd floor) was hit or miss, mostly miss.  Every day they left something undone.  They did not replace linens toilet paper or tissues in kind, they did not vacuum very often, and I finally had to go to desk clerk to get someone to clean the stool after 3 days.  The breakfast for the most part was good and had a good variety.  However on Sunday and Monday, apparently the person who was supposed to tend the breakfast area did not show up or quit.  The bar was not stocked with several items. When I brought it to the attention of the person at the front desk they did not seem very interested, which seemed fairly typical of the desk clerks.  Eventually they did restock a few items.  It did not appear that management of this facility was caring about customers.  As a matter of fact I could never find a manager to express my concerns. With all this said our stay was not bad.  It seems like I spent a lot of time doing the employees job for them.  When we were looking the room over to leave I found a bunch of left over trash behind the chair in our room.  Who knows how long it had been there. On Saturday night when we returned to the hotel there was trash in the entry and on lobby floor.  I told the desk clerk but an hour later it was still there.  He was busy entertaining his lady friend behind the desk to be bothered. I think management in this facility is due for a shake up.  This stay was 5 nights Wed to Monday. Probably will not stay in this facility again.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded April 12, 2018</t>
+  </si>
+  <si>
+    <t>Responded April 12, 2018</t>
+  </si>
+  <si>
+    <t>This facility was somewhat of a disappointment and not up to Holiday Inn Express standards that we have come to expect.  Check in was fine and the young lady seemed to be a good customer service representative.  The lobby was attractive and looked clean.  The elevator had a heavy hydraulic fluid odor in it and the room smelled musty when we entered it.  We bought a can of air freshener to help with the odor. This is an older building and it appeared that some updates have been done but the work must have been done by an amateur.  The work detail was not done well.  The walls are thin and other guests were noisy. The stopper in the sink did not work, they fixed it, the TV was about to fall over on the stand, they fixed it, and the stool leaked and cycled loudly on a regular basis, they never fixed it.  The maid service (2nd floor) was hit or miss, mostly miss.  Every day they left something undone.  They did not replace linens toilet paper or tissues in kind, they did not vacuum very often, and I finally had to go to desk clerk to get someone to clean the stool after 3 days.  The breakfast for the most part was good and had a good variety.  However on Sunday and Monday, apparently the person who was supposed to tend the breakfast area did not show up...This facility was somewhat of a disappointment and not up to Holiday Inn Express standards that we have come to expect.  Check in was fine and the young lady seemed to be a good customer service representative.  The lobby was attractive and looked clean.  The elevator had a heavy hydraulic fluid odor in it and the room smelled musty when we entered it.  We bought a can of air freshener to help with the odor. This is an older building and it appeared that some updates have been done but the work must have been done by an amateur.  The work detail was not done well.  The walls are thin and other guests were noisy. The stopper in the sink did not work, they fixed it, the TV was about to fall over on the stand, they fixed it, and the stool leaked and cycled loudly on a regular basis, they never fixed it.  The maid service (2nd floor) was hit or miss, mostly miss.  Every day they left something undone.  They did not replace linens toilet paper or tissues in kind, they did not vacuum very often, and I finally had to go to desk clerk to get someone to clean the stool after 3 days.  The breakfast for the most part was good and had a good variety.  However on Sunday and Monday, apparently the person who was supposed to tend the breakfast area did not show up or quit.  The bar was not stocked with several items. When I brought it to the attention of the person at the front desk they did not seem very interested, which seemed fairly typical of the desk clerks.  Eventually they did restock a few items.  It did not appear that management of this facility was caring about customers.  As a matter of fact I could never find a manager to express my concerns. With all this said our stay was not bad.  It seems like I spent a lot of time doing the employees job for them.  When we were looking the room over to leave I found a bunch of left over trash behind the chair in our room.  Who knows how long it had been there. On Saturday night when we returned to the hotel there was trash in the entry and on lobby floor.  I told the desk clerk but an hour later it was still there.  He was busy entertaining his lady friend behind the desk to be bothered. I think management in this facility is due for a shake up.  This stay was 5 nights Wed to Monday. Probably will not stay in this facility again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r564562336-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -297,6 +453,57 @@
     <t>No hot water three mornings in a row.  Three complaints - zero results.  Promised points at end, but never delivered.  Promised something again after review posted internally, only to call back and find no one by that name.  Weak wifi - this place is not good - avoid.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r558618800-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>558618800</t>
+  </si>
+  <si>
+    <t>02/05/2018</t>
+  </si>
+  <si>
+    <t>Fine for short stay</t>
+  </si>
+  <si>
+    <t>This hotel is fine for a short stay in the area. The rooms are clean and comfortable. The shower water pressure was lacking, and the AC system can be loud. There are also no outlets by the bed for cell phones.MoreShow less</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded February 19, 2018</t>
+  </si>
+  <si>
+    <t>Responded February 19, 2018</t>
+  </si>
+  <si>
+    <t>This hotel is fine for a short stay in the area. The rooms are clean and comfortable. The shower water pressure was lacking, and the AC system can be loud. There are also no outlets by the bed for cell phones.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r528311086-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>528311086</t>
+  </si>
+  <si>
+    <t>09/29/2017</t>
+  </si>
+  <si>
+    <t>Needs an update</t>
+  </si>
+  <si>
+    <t>Stayed here last night and could tell this is not the most updated hotel.  Older carpet and amenities.  Room felt humid, but that's the Houston area for you.  Bed and pillows were comfortable.  Needed to run the fan/AC all night for white noise over the interstate traffic, and I was on the far end of the hotel.  Not a bad hotel but not above average.MoreShow less</t>
+  </si>
+  <si>
+    <t>September 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Responded October 14, 2017</t>
+  </si>
+  <si>
+    <t>Stayed here last night and could tell this is not the most updated hotel.  Older carpet and amenities.  Room felt humid, but that's the Houston area for you.  Bed and pillows were comfortable.  Needed to run the fan/AC all night for white noise over the interstate traffic, and I was on the far end of the hotel.  Not a bad hotel but not above average.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r512874407-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -315,9 +522,6 @@
     <t>August 2017</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled as a couple</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded August 29, 2017</t>
   </si>
   <si>
@@ -369,6 +573,60 @@
     <t>After a long drive, this was a very convenient stop directly off freeway. The rooms are clean, comfortable and have what you need for a short stay.  The breakfast is complimentary and more than adequate.  The thing that impressed us most was the wonderful customer service of the front desk staff. We had specific room requests (I'm a bit particular about room location) which were handled politely and eagerly. Joseph, the person on duty when we called and arrived, was so helpful and showed wonderful hospitality. I would return because of the customer care.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r495423325-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>495423325</t>
+  </si>
+  <si>
+    <t>06/23/2017</t>
+  </si>
+  <si>
+    <t>Bed bugs!  Travelers beware</t>
+  </si>
+  <si>
+    <t>Had to make a family emergency and had to get to MD Anderson asap.  This was an unexpected trip and we needed a decent place to sleep before heading home.  It was close to midnight when I found this hotel on my smart phone and booked a room.  We just needed rest after a very stressful day.
+The lobby seemed decent when arriving.  Very well maintained. Nothing out of the ordinary.  Checked in and was giving room 310.  Once we opened the door to the room it had a very musty and unpleasant odor.  My husband reminded me it was just a place to stay until the next morning.  Both of us were exhausted and needed sleep desperately. As my normal custom, I went to examine the bed.  Luckily for us it was the first thing I did.  I barely sat my bag down, pulled the covers back and there was a live bed bug.  Crawling on the sheets.  We immediately grabbed the bags and headed downstairs.
+The young man at the front desk was very kind.  He offered us another room.  Which we politely declined. He then offered us a full refund.  He was very apologetic.  He was very quick to offer the refund, makes me wonder if he knew it was a problem at this property. 
+It was a very long day and made longer due to the uncleanliness of this hotel.  If you must stay, be sure...Had to make a family emergency and had to get to MD Anderson asap.  This was an unexpected trip and we needed a decent place to sleep before heading home.  It was close to midnight when I found this hotel on my smart phone and booked a room.  We just needed rest after a very stressful day.The lobby seemed decent when arriving.  Very well maintained. Nothing out of the ordinary.  Checked in and was giving room 310.  Once we opened the door to the room it had a very musty and unpleasant odor.  My husband reminded me it was just a place to stay until the next morning.  Both of us were exhausted and needed sleep desperately. As my normal custom, I went to examine the bed.  Luckily for us it was the first thing I did.  I barely sat my bag down, pulled the covers back and there was a live bed bug.  Crawling on the sheets.  We immediately grabbed the bags and headed downstairs.The young man at the front desk was very kind.  He offered us another room.  Which we politely declined. He then offered us a full refund.  He was very apologetic.  He was very quick to offer the refund, makes me wonder if he knew it was a problem at this property. It was a very long day and made longer due to the uncleanliness of this hotel.  If you must stay, be sure to check your room and bed.  Would hate for someone to take home an extra friend.MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2017</t>
+  </si>
+  <si>
+    <t>Had to make a family emergency and had to get to MD Anderson asap.  This was an unexpected trip and we needed a decent place to sleep before heading home.  It was close to midnight when I found this hotel on my smart phone and booked a room.  We just needed rest after a very stressful day.
+The lobby seemed decent when arriving.  Very well maintained. Nothing out of the ordinary.  Checked in and was giving room 310.  Once we opened the door to the room it had a very musty and unpleasant odor.  My husband reminded me it was just a place to stay until the next morning.  Both of us were exhausted and needed sleep desperately. As my normal custom, I went to examine the bed.  Luckily for us it was the first thing I did.  I barely sat my bag down, pulled the covers back and there was a live bed bug.  Crawling on the sheets.  We immediately grabbed the bags and headed downstairs.
+The young man at the front desk was very kind.  He offered us another room.  Which we politely declined. He then offered us a full refund.  He was very apologetic.  He was very quick to offer the refund, makes me wonder if he knew it was a problem at this property. 
+It was a very long day and made longer due to the uncleanliness of this hotel.  If you must stay, be sure...Had to make a family emergency and had to get to MD Anderson asap.  This was an unexpected trip and we needed a decent place to sleep before heading home.  It was close to midnight when I found this hotel on my smart phone and booked a room.  We just needed rest after a very stressful day.The lobby seemed decent when arriving.  Very well maintained. Nothing out of the ordinary.  Checked in and was giving room 310.  Once we opened the door to the room it had a very musty and unpleasant odor.  My husband reminded me it was just a place to stay until the next morning.  Both of us were exhausted and needed sleep desperately. As my normal custom, I went to examine the bed.  Luckily for us it was the first thing I did.  I barely sat my bag down, pulled the covers back and there was a live bed bug.  Crawling on the sheets.  We immediately grabbed the bags and headed downstairs.The young man at the front desk was very kind.  He offered us another room.  Which we politely declined. He then offered us a full refund.  He was very apologetic.  He was very quick to offer the refund, makes me wonder if he knew it was a problem at this property. It was a very long day and made longer due to the uncleanliness of this hotel.  If you must stay, be sure to check your room and bed.  Would hate for someone to take home an extra friend.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r490213779-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>490213779</t>
+  </si>
+  <si>
+    <t>06/03/2017</t>
+  </si>
+  <si>
+    <t>Don't recommend</t>
+  </si>
+  <si>
+    <t>Terrible service. Our reservations were wrong. We didn't get the room we needed the first night. A/C did not work in one of the rooms. The rooms with 2 beds are not queen beds, they are full size beds.MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Responded June 17, 2017</t>
+  </si>
+  <si>
+    <t>Terrible service. Our reservations were wrong. We didn't get the room we needed the first night. A/C did not work in one of the rooms. The rooms with 2 beds are not queen beds, they are full size beds.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r479113063-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -432,6 +690,51 @@
     <t>We had red eye flight in, we're exhausted and check in wasn't for hours.  We went to see if we could stay and the wonderful lady said yes.  I think name of Alexandria  but w not I....i don't know we were tired!She was awesome.   Room nice, not fancy.  Handicap room.  After nap offered to move since we didn't need special room.  She said we were good.  Breakfast nice, low key.  It seemed pretty full.  A previous entry complained about fitness room.  It is one of better stocked that I have seen. Weights, balls, stretch things, two treadmills.   It was goid temp.Another review said hot tub only seats 2. There is no hot tubMore</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r455002222-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>455002222</t>
+  </si>
+  <si>
+    <t>01/26/2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Okay overall experience, great staff. </t>
+  </si>
+  <si>
+    <t>The hotel is a close easy drive if you are visiting and going to see a show at the Smart Financial Center. The front desk and breakfast staff were top notch. Our a/c unit was very loud and never satisfied the room and shut off. You had to physically turn it off to hear the tv. The shower was jacked. The shower head only worked on the center hard massage stream and the shower valve leaked and barely worked. The bed and pillows were very comfortable. Breakfast had a lot of options for a complimentary service but the food wasn't that great. MoreShow less</t>
+  </si>
+  <si>
+    <t>January 2017</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded February 11, 2017</t>
+  </si>
+  <si>
+    <t>Responded February 11, 2017</t>
+  </si>
+  <si>
+    <t>The hotel is a close easy drive if you are visiting and going to see a show at the Smart Financial Center. The front desk and breakfast staff were top notch. Our a/c unit was very loud and never satisfied the room and shut off. You had to physically turn it off to hear the tv. The shower was jacked. The shower head only worked on the center hard massage stream and the shower valve leaked and barely worked. The bed and pillows were very comfortable. Breakfast had a lot of options for a complimentary service but the food wasn't that great. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r441388074-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>441388074</t>
+  </si>
+  <si>
+    <t>12/01/2016</t>
+  </si>
+  <si>
+    <t>Good location, great staff</t>
+  </si>
+  <si>
+    <t>Stayed here for a business trip. Very nice and helpful front desk staff. Conveniently located. Not to far from downtown. Breakfast and rooms were standard. Priced competitively. I would stay here again.</t>
+  </si>
+  <si>
+    <t>June 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r433673595-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -483,6 +786,45 @@
     <t>Several members of my family stayed here for a wedding that was close by. The rooms were nice and clean, though a few did smell a bit musty. When housekeeping noticed the smell, they notified the front desk and those family members were immediately moved to new rooms. The staff was very friendly and welcoming. Breakfast was the standard fare at this type of hotel.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r412679047-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>412679047</t>
+  </si>
+  <si>
+    <t>08/30/2016</t>
+  </si>
+  <si>
+    <t>Find a new general manager!</t>
+  </si>
+  <si>
+    <t>My husband and I were planning to stay 6 months on a corporate business account, but after three weeks we left and found another hotel. The employees are all friendly and helpful except for the general manager.  She is loud and disrespectful to the guests and employees. When she ran out of tea bags, she said other guests take handfuls. When the business center needed an ink cartridge, she said guests just print too much. She had plenty of excuses.  The final straw for me was when she accused me of fraternizing with her employees (I was outside reading a book as he came out to smoke) and when she told me she was charging my room a $150 cleaning fee because my room smelled.  After I brought her to my room and she realized it smelled like it should, she gave my several more excuses and then dropped the charge.  We've stayed in many Holiday Inn Express hotels and this one is very nice, but IHG would be smart to get this lady out of a customer service role before she runs off more guests. MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2016</t>
+  </si>
+  <si>
+    <t>My husband and I were planning to stay 6 months on a corporate business account, but after three weeks we left and found another hotel. The employees are all friendly and helpful except for the general manager.  She is loud and disrespectful to the guests and employees. When she ran out of tea bags, she said other guests take handfuls. When the business center needed an ink cartridge, she said guests just print too much. She had plenty of excuses.  The final straw for me was when she accused me of fraternizing with her employees (I was outside reading a book as he came out to smoke) and when she told me she was charging my room a $150 cleaning fee because my room smelled.  After I brought her to my room and she realized it smelled like it should, she gave my several more excuses and then dropped the charge.  We've stayed in many Holiday Inn Express hotels and this one is very nice, but IHG would be smart to get this lady out of a customer service role before she runs off more guests. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r409564022-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>409564022</t>
+  </si>
+  <si>
+    <t>08/23/2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Looking at rv's </t>
+  </si>
+  <si>
+    <t>Nice rooms clean pool excellent hotel for the area would highly recommend if you need that area rest of hotels in area are very dirty this hotel was immaculate clean everywhere and it only has a two-man hot tub but very clean and worth the stay</t>
+  </si>
+  <si>
+    <t>August 2016</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r403036206-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -498,9 +840,6 @@
     <t>Upon arrival at the hotel, we were greeted by a young lady for Check-in.  I informed her that the reservation she pulled up on her screen was different than the one I booked online (I booked a king bed and the reservation was for two doubles).  She did not confirm that she was going to change the accommodations, so I asked her what type room it would be, as she handed me the room keys.  She rudely answered “king.”  The room seemed pretty dated.  As we were getting ready for bed, I pulled off all of the sheets/comforter and exposed a fitted sheet that was tremendously stained with Lord know what.  There were four massive, crusty stains on the fitted sheet.  I immediately called the Front Desk and asked for a new fitted sheet.  The next morning, I was looking forward to the “Fresh, Hot Pancakes” that were advertised in the elevator.  When we enter the breakfast area, I see a big sign that says, “OUT OF ORDER.”  The breakfast was sub-par.  Later that day, Housekeeping came around and I asked for some big towels.  Much to my dismay, the lady informed me that they did not have any and I would have to go down to the Front Desk to obtain some.  I blew it off and went to the “gym.”  Again, disappointed!  It was hotter in there than it was outside – August in Texas, c’mon.  I examined...Upon arrival at the hotel, we were greeted by a young lady for Check-in.  I informed her that the reservation she pulled up on her screen was different than the one I booked online (I booked a king bed and the reservation was for two doubles).  She did not confirm that she was going to change the accommodations, so I asked her what type room it would be, as she handed me the room keys.  She rudely answered “king.”  The room seemed pretty dated.  As we were getting ready for bed, I pulled off all of the sheets/comforter and exposed a fitted sheet that was tremendously stained with Lord know what.  There were four massive, crusty stains on the fitted sheet.  I immediately called the Front Desk and asked for a new fitted sheet.  The next morning, I was looking forward to the “Fresh, Hot Pancakes” that were advertised in the elevator.  When we enter the breakfast area, I see a big sign that says, “OUT OF ORDER.”  The breakfast was sub-par.  Later that day, Housekeeping came around and I asked for some big towels.  Much to my dismay, the lady informed me that they did not have any and I would have to go down to the Front Desk to obtain some.  I blew it off and went to the “gym.”  Again, disappointed!  It was hotter in there than it was outside – August in Texas, c’mon.  I examined the a/c and discovered that the plug did not fit any receptacle that was near the unit.  I shrugged it off and got on the treadmill – it made the most horrible screeching I have ever heard.  I got off and went over to another treadmill.  This one was a bit better.  I finished my workout and decided to go to the Front Desk to obtain those big towels for a shower.  A gentleman came out of the back room, on the phone, and nodded his head, as to say, “What do you want?”  I told him that Housekeeping said I had to get a towel from the Front Desk.  Without a reply, he went out from behind the Front Desk and over to a Supply Room.  Five or so minutes later, a housekeeper came out of the elevator, lugging a bag of laundry way too heavy for her, and asked if I was waiting for something.  I told her that I was waiting for big towels.  Soon after, the gentleman, still on the phone, came out and handed me the towels.  He did not acknowledge me or say “sorry for the wait.”  Getting into bed later that night, I discovered another stain.  This time, it was on the comforter.  It looked like make-up or coffee.  I did not even bother to call the front desk.  I had enough of this place.  The next morning we did not bother with the breakfast.  We went to Egg &amp; I, which was amazing.  I was glad to leave this horrible place and will likely never stay at a Holiday Inn Express ever again.  I have had good experiences with Holiday Inn &amp; Suites.  I guess there is a great disparity between these two branches of Holiday Inn.  I should have booked the Hilton on University and Hwy 6!MoreShow less</t>
   </si>
   <si>
-    <t>August 2016</t>
-  </si>
-  <si>
     <t>Upon arrival at the hotel, we were greeted by a young lady for Check-in.  I informed her that the reservation she pulled up on her screen was different than the one I booked online (I booked a king bed and the reservation was for two doubles).  She did not confirm that she was going to change the accommodations, so I asked her what type room it would be, as she handed me the room keys.  She rudely answered “king.”  The room seemed pretty dated.  As we were getting ready for bed, I pulled off all of the sheets/comforter and exposed a fitted sheet that was tremendously stained with Lord know what.  There were four massive, crusty stains on the fitted sheet.  I immediately called the Front Desk and asked for a new fitted sheet.  The next morning, I was looking forward to the “Fresh, Hot Pancakes” that were advertised in the elevator.  When we enter the breakfast area, I see a big sign that says, “OUT OF ORDER.”  The breakfast was sub-par.  Later that day, Housekeeping came around and I asked for some big towels.  Much to my dismay, the lady informed me that they did not have any and I would have to go down to the Front Desk to obtain some.  I blew it off and went to the “gym.”  Again, disappointed!  It was hotter in there than it was outside – August in Texas, c’mon.  I examined...Upon arrival at the hotel, we were greeted by a young lady for Check-in.  I informed her that the reservation she pulled up on her screen was different than the one I booked online (I booked a king bed and the reservation was for two doubles).  She did not confirm that she was going to change the accommodations, so I asked her what type room it would be, as she handed me the room keys.  She rudely answered “king.”  The room seemed pretty dated.  As we were getting ready for bed, I pulled off all of the sheets/comforter and exposed a fitted sheet that was tremendously stained with Lord know what.  There were four massive, crusty stains on the fitted sheet.  I immediately called the Front Desk and asked for a new fitted sheet.  The next morning, I was looking forward to the “Fresh, Hot Pancakes” that were advertised in the elevator.  When we enter the breakfast area, I see a big sign that says, “OUT OF ORDER.”  The breakfast was sub-par.  Later that day, Housekeeping came around and I asked for some big towels.  Much to my dismay, the lady informed me that they did not have any and I would have to go down to the Front Desk to obtain some.  I blew it off and went to the “gym.”  Again, disappointed!  It was hotter in there than it was outside – August in Texas, c’mon.  I examined the a/c and discovered that the plug did not fit any receptacle that was near the unit.  I shrugged it off and got on the treadmill – it made the most horrible screeching I have ever heard.  I got off and went over to another treadmill.  This one was a bit better.  I finished my workout and decided to go to the Front Desk to obtain those big towels for a shower.  A gentleman came out of the back room, on the phone, and nodded his head, as to say, “What do you want?”  I told him that Housekeeping said I had to get a towel from the Front Desk.  Without a reply, he went out from behind the Front Desk and over to a Supply Room.  Five or so minutes later, a housekeeper came out of the elevator, lugging a bag of laundry way too heavy for her, and asked if I was waiting for something.  I told her that I was waiting for big towels.  Soon after, the gentleman, still on the phone, came out and handed me the towels.  He did not acknowledge me or say “sorry for the wait.”  Getting into bed later that night, I discovered another stain.  This time, it was on the comforter.  It looked like make-up or coffee.  I did not even bother to call the front desk.  I had enough of this place.  The next morning we did not bother with the breakfast.  We went to Egg &amp; I, which was amazing.  I was glad to leave this horrible place and will likely never stay at a Holiday Inn Express ever again.  I have had good experiences with Holiday Inn &amp; Suites.  I guess there is a great disparity between these two branches of Holiday Inn.  I should have booked the Hilton on University and Hwy 6!More</t>
   </si>
   <si>
@@ -531,7 +870,40 @@
     <t>We stayed a single night here June 3, 2016.  The bed was very comfortable, (as HI Express always are), the room was nice and clean, the breakfast tasty and the coffee strong.  The only downside was very little hot water in the shower.  You could get either hot water with no pressure, or warm water with okay pressure.  The front desk was aware of the problem (not new); a shame they haven't remedied this yet.</t>
   </si>
   <si>
-    <t>June 2016</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r373841500-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>373841500</t>
+  </si>
+  <si>
+    <t>05/17/2016</t>
+  </si>
+  <si>
+    <t>Moved 3x. Close to freeway and mall</t>
+  </si>
+  <si>
+    <t xml:space="preserve">It was very close to the freeway and the mall plus lots of eateries nearby. I was moved 3 times. The first room had a slow draining sink and no hot water.  Second room--no hot water.  Third room, hot water in the sink but lukewarm water via shower.The front desk apologized and said they would notify maintenance.  The room was clean, comfortable bed, and the hotel was quiet. The front desk was courteous.  Check in and out was quick and easy. </t>
+  </si>
+  <si>
+    <t>May 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r373573348-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>373573348</t>
+  </si>
+  <si>
+    <t>05/16/2016</t>
+  </si>
+  <si>
+    <t>Really Helpful Staff at Holiday Inn Express Sugarland</t>
+  </si>
+  <si>
+    <t>When my credit card wasn't accepted the staff were really patient and helpful while I contacted the issuer and got the card cleared for use (used in more than 2 countries in less than 24 hours).  The rooms were large and clean, but the bathrooms were rather small and show signs of wear &amp; tear.</t>
+  </si>
+  <si>
+    <t>April 2016</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r372585686-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
@@ -549,9 +921,6 @@
     <t>We stood overnight at this hotel overall was ok, check in was friendly and seem very clean, elevator is hot and smelly once in the room bed was ok, squeaky as well as desk chair.Not recommend for longer stay than a nightMoreShow less</t>
   </si>
   <si>
-    <t>May 2016</t>
-  </si>
-  <si>
     <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded May 29, 2016</t>
   </si>
   <si>
@@ -576,9 +945,6 @@
     <t>This is nice and compact property with all basic facilities. The lobby is small and the staff is very helpful. Rooms are adequate and comfortable. Location is ok. I was there the day Houston had flood but the water didnot came here as the property was in slightly elevated location.Rooms - nice and cleanBathroom - compact and okToiletries- limited and can be improvedFood - okBreakfast - limited but one can managePool- small and cleanGymn- small and has important equipmentsOverall - no complaints express hotel</t>
   </si>
   <si>
-    <t>April 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r363383765-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -594,6 +960,48 @@
     <t>Stayed one night on business in this hotel, and it was very nice and clean.  The staff is friendly.  However, I did not like the parking situation as the spots are few and very small.  It's also kind of easy to miss the entrance on the service road if you're not looking closely.  I had to park around the side of the building which backed up to some businesses and did not have a very "safe" feel as it is not adequately lit.  Breakfast was good.  Did a late checkout and had an upgraded room, so I definitely appreciated their customer service.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r355163524-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>355163524</t>
+  </si>
+  <si>
+    <t>03/13/2016</t>
+  </si>
+  <si>
+    <t>Clean hotel</t>
+  </si>
+  <si>
+    <t>Nice and clean hotel with free breakfast.Breakfast was average, cereal and bread. I did not like the pillows which a bit too big / thick in my point of view. Great value for convenience location and space.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r350406736-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>350406736</t>
+  </si>
+  <si>
+    <t>02/23/2016</t>
+  </si>
+  <si>
+    <t>Safety is not a priority</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my husband who was there for business with a large group of colleagues. Within minutes of my arrival, my car was broken in to; while at the door of the hotel, under lights, and with two cameras facing it. When asked if the cameras worked, we were told by staff that they had no access to them. I have since found out, after filing a police report the evening of the incident, that the cameras either don't work or the manager is not willing to release the tapes to the police. Also, there were other cars broken in to the same evening. I am not sure why the management would not want to assist the police find criminals that put their patrons at risk.  I have nothing but nice things to say about the front desk staff. It is obviously not their fault. I do want people to know that the hotel is not a safe environment and the safety of guests is obviously not a priority. We will not stay there again.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2016</t>
+  </si>
+  <si>
+    <t>IHGService, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded March 9, 2016</t>
+  </si>
+  <si>
+    <t>Responded March 9, 2016</t>
+  </si>
+  <si>
+    <t>I stayed at this hotel with my husband who was there for business with a large group of colleagues. Within minutes of my arrival, my car was broken in to; while at the door of the hotel, under lights, and with two cameras facing it. When asked if the cameras worked, we were told by staff that they had no access to them. I have since found out, after filing a police report the evening of the incident, that the cameras either don't work or the manager is not willing to release the tapes to the police. Also, there were other cars broken in to the same evening. I am not sure why the management would not want to assist the police find criminals that put their patrons at risk.  I have nothing but nice things to say about the front desk staff. It is obviously not their fault. I do want people to know that the hotel is not a safe environment and the safety of guests is obviously not a priority. We will not stay there again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r346600334-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -609,9 +1017,6 @@
     <t>I used to stay in Hyatt Place while I was visiting Sugarland, TX. This time I tried HI Exp because they have vacancy and the nightly rate is very reasonable. This hotel in an office complex behind FedEx store. The room is apartment style with kitchen and living area etc. The included breakfast is okay. Lots of restaurants around. The staffs are very nice. Ray helped printing my boarding passes because the self server printer was broken. People like to smoke in front of the hotel and I used the back door to walk around the hotel to my car.</t>
   </si>
   <si>
-    <t>February 2016</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r337885314-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -648,6 +1053,36 @@
     <t>I booked this hotel for an overnight business trip in the area (close to a client) and because I am an IHG Rewards program participant (and have been for MANY years). I am writing this review from the lobby -- because the internet connection is virtually non-existent in my room! So much for working in the room. There are only 3 access points in the entire hotel (according to the front desk staff) which is severely lacking for this day and age.I have not yet experienced sleeping in the bed or the breakfast, so I can not offer more details on those amenities. More to come once I complete my travel...More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r332455566-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>332455566</t>
+  </si>
+  <si>
+    <t>12/13/2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bad Service </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Not worth It! Electricity failed For 2 hours and they didn't extend the breakfast time! They did Not care about Not being able to go down using the elevador so had to go down 5 sets of stairs.    The room had a humid type smell. Would not recommended It and stay here again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r329941929-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>329941929</t>
+  </si>
+  <si>
+    <t>11/30/2015</t>
+  </si>
+  <si>
+    <t>Average hotel, for a pleasant stay in Houston</t>
+  </si>
+  <si>
+    <t>Staff is really nice and helpful. It's an average hotel, which isn't superb. It's a bit old, but it's perfect for a pleasant stay in Houston. The bar and the restaurant are nice.I would recommend it.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r321270912-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -708,6 +1143,51 @@
     <t>This hotel charged me the highest rate of the 3 Holiday Inns I stayed in on my trip. The room was the smallest room I have ever seen. When trying to get out of bed, my legs hit the wall, it was so small. To add insult to injury, the room had no microwave or refrigerator. A microwave was available at $15.00 per day and a mini fridge was available for $25.00 dollars EXTRA a day. The air conditioner was rigged to turn completely off between cycles. When it was running it was great, When it wasn't the room was hot and stuffy. The "spa" was only 4 feet long and 2 feet wide. Yep, my sofa is bigger than the spa that was offered. Being the highest priced hotel we stayed in, it did not offer any kind of breakfast with the room. The staff was polite, but came off as snooty to me. I will not stay there again.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r301672710-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>301672710</t>
+  </si>
+  <si>
+    <t>08/20/2015</t>
+  </si>
+  <si>
+    <t>Not up to par</t>
+  </si>
+  <si>
+    <t>I travel a lot for work and usually try and stay within the IHG family for hotels, so I've been to my fair share.  This one seems to have a different set of standards than most. The staff has been great so far... there's no issue there. The facilities are the issue.  First time in the elevator up to my room (5th floor) it jerked so hard I thought I was going to be stuck. It seriously felt like the elevator wanted to keep going but only managed to smack against the ceiling.  But the doors opened and I got out alive, so that wasn't a deal breaker. The biggest issue I'm having is the room. It. Smells. Awful.  I cant quite, put my finger on it, but my best description is like a mix of stale pee and a dank basement.I'm headed back to the front desk now to see if they'll switch me to a different room. MoreShow less</t>
+  </si>
+  <si>
+    <t>I travel a lot for work and usually try and stay within the IHG family for hotels, so I've been to my fair share.  This one seems to have a different set of standards than most. The staff has been great so far... there's no issue there. The facilities are the issue.  First time in the elevator up to my room (5th floor) it jerked so hard I thought I was going to be stuck. It seriously felt like the elevator wanted to keep going but only managed to smack against the ceiling.  But the doors opened and I got out alive, so that wasn't a deal breaker. The biggest issue I'm having is the room. It. Smells. Awful.  I cant quite, put my finger on it, but my best description is like a mix of stale pee and a dank basement.I'm headed back to the front desk now to see if they'll switch me to a different room. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r292966180-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>292966180</t>
+  </si>
+  <si>
+    <t>07/27/2015</t>
+  </si>
+  <si>
+    <t>one of the quietest hotels I have ever stayed at</t>
+  </si>
+  <si>
+    <t>I have to say right off the bat, this is one of the quietest hotels I have ever stayed at. Our room was just to the side of the elevator and we never heard anyone coming or going. On the positive side, the bedding is comfortable and the sofa and chair provide additional relaxation and visiting options. The front desk provided exceptional response when we first checked in, only to find that the previous guest had stolen a light bulb from the lamp. (People really steal light bulbs from hotels? Sad.) The location just off the freeway is very convenient and makes shopping, dining, and entertainment excursions very easy.On the negative, with no separation between the sitting area and the sleeping area, early risers like myself need to wait until others awake before turning on the TV. They have a nice little pool but it was not suitable for our toddler granddaughter, as the minimum depth is 3'. Otherwise the pool is fine. The free breakfast buffet is awful, simply awful.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t>hiexsugarland, Front Office Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded August 3, 2015</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2015</t>
+  </si>
+  <si>
+    <t>I have to say right off the bat, this is one of the quietest hotels I have ever stayed at. Our room was just to the side of the elevator and we never heard anyone coming or going. On the positive side, the bedding is comfortable and the sofa and chair provide additional relaxation and visiting options. The front desk provided exceptional response when we first checked in, only to find that the previous guest had stolen a light bulb from the lamp. (People really steal light bulbs from hotels? Sad.) The location just off the freeway is very convenient and makes shopping, dining, and entertainment excursions very easy.On the negative, with no separation between the sitting area and the sleeping area, early risers like myself need to wait until others awake before turning on the TV. They have a nice little pool but it was not suitable for our toddler granddaughter, as the minimum depth is 3'. Otherwise the pool is fine. The free breakfast buffet is awful, simply awful.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r291293200-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -721,9 +1201,6 @@
   </si>
   <si>
     <t>I'm a Platinum level member of the IHG so I stay at a lot of HI Expresses and this one was definitely a big disappointment.  The deadbolt on my card lock was bent and could not be thrown to secure my door and the peephole was so badly scratched that it was useless, rendering my primary room security measures worthless.  And the A/C worked very poorly and never did cool the room off even though it was set to 66 the entire time.  And then the shower nightmare.  The shower head offered 2 spray types; a narrow hard thumping stream in the middle, or the normal shower spray that sprayed water in every crazy direction possible, leaving the bathroom floor soaked.  So before I experience anything else below HIE standards, I am going to submit this and state that I will not be returning to this property, despite having a major client nearby.MoreShow less</t>
-  </si>
-  <si>
-    <t>July 2015</t>
   </si>
   <si>
     <t>hiexsugarland, Front Office Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 23, 2015</t>
@@ -796,6 +1273,45 @@
     <t>This hotel is lovely, clean, and safe. The rooms offer a microwave, small refrigerator, and coffeemaker. The flat screen TV is good size and comes with Directv. The bath and bed linens are very comfortable.The continental breakfast is good, and the fitness room offers several treadmills and ellipticals with television.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r282953418-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>282953418</t>
+  </si>
+  <si>
+    <t>Legit Place!</t>
+  </si>
+  <si>
+    <t>Stayed here for a funeral service over the weekend. Our room was amazing, the tv channels were entertaining and lastly the view of the parking lot was awesome!! The morning breakfast served was so delicious I ate a lot of food. The receptionist was nice and helpful with everything. If your in the Houston area hit this place up!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>Stayed here for a funeral service over the weekend. Our room was amazing, the tv channels were entertaining and lastly the view of the parking lot was awesome!! The morning breakfast served was so delicious I ate a lot of food. The receptionist was nice and helpful with everything. If your in the Houston area hit this place up!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r274921692-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>274921692</t>
+  </si>
+  <si>
+    <t>05/26/2015</t>
+  </si>
+  <si>
+    <t>Nice, pleasant</t>
+  </si>
+  <si>
+    <t>We decided to stay here for a TMSL graduation ceremony in Houston, which was about a 20+ mile drive.  The hotel was easy to find and out check-in was easy &amp; quick. As we drove in, the outside appearance was very nice; the landscaping was meticulous.  The room was very close to the elevator and was nice &amp; cool upon our entrance.  The bathroom was very clean, as was the room. The king size bed had clean smelling linens and was very comfortable. The breakfast bar had a good selection: pastries, cereals, turkey sausage, eggs, gravy, biscuits, etc.  Overall the room and hotel were great. The two things I would change would be to add an in-room safe and upgrade the pillows to down pillows!MoreShow less</t>
+  </si>
+  <si>
+    <t>May 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We decided to stay here for a TMSL graduation ceremony in Houston, which was about a 20+ mile drive.  The hotel was easy to find and out check-in was easy &amp; quick. As we drove in, the outside appearance was very nice; the landscaping was meticulous.  The room was very close to the elevator and was nice &amp; cool upon our entrance.  The bathroom was very clean, as was the room. The king size bed had clean smelling linens and was very comfortable. The breakfast bar had a good selection: pastries, cereals, turkey sausage, eggs, gravy, biscuits, etc.  Overall the room and hotel were great. The two things I would change would be to add an in-room safe and upgrade the pillows to down pillows!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r274249369-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -811,9 +1327,6 @@
     <t>The outside of this property fooled me.  I thought it was a newer style, or at least renovated.  Sadly, I was wrong.This is an old property that was renovated on the cheap.  The bathrooms are tiny. The carpet is old and tired.  I could go on, but I think you probably get the picture.  As a very frequent HIE traveler (Gold Priority), this property does not meet the new standard set by HIE properties.On the plus side - the location is great.  The area is safe,clean and close to everything (in Sugar Land).  Other than that, you will be disappointed if you're used to the newer HIE's.MoreShow less</t>
   </si>
   <si>
-    <t>May 2015</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded June 10, 2015</t>
   </si>
   <si>
@@ -859,6 +1372,54 @@
     <t>December 2014</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r226982997-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>226982997</t>
+  </si>
+  <si>
+    <t>09/04/2014</t>
+  </si>
+  <si>
+    <t>Ok</t>
+  </si>
+  <si>
+    <t>The stay was good.  The bed sheets were clean and the room was nice.  the restroom was clean as well.  Overall the only thing was the issue with the elevator.  It kept getting stuck.  Took the stairs instead.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2014</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded September 8, 2014</t>
+  </si>
+  <si>
+    <t>Responded September 8, 2014</t>
+  </si>
+  <si>
+    <t>The stay was good.  The bed sheets were clean and the room was nice.  the restroom was clean as well.  Overall the only thing was the issue with the elevator.  It kept getting stuck.  Took the stairs instead.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r217258167-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>217258167</t>
+  </si>
+  <si>
+    <t>07/24/2014</t>
+  </si>
+  <si>
+    <t>It was ok</t>
+  </si>
+  <si>
+    <t>I stayed here 5 nights in July.  The rooms were small and the air conditioner was loud.  The rooms were clean and the staff exceptionally friendly!  The breakfast had a good selection and coffee was ready for me every morning by 5:30!  I so appreciated that.  Thank you!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2014</t>
+  </si>
+  <si>
+    <t>I stayed here 5 nights in July.  The rooms were small and the air conditioner was loud.  The rooms were clean and the staff exceptionally friendly!  The breakfast had a good selection and coffee was ready for me every morning by 5:30!  I so appreciated that.  Thank you!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r215186230-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -877,9 +1438,6 @@
     <t>June 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
     <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 28, 2014</t>
   </si>
   <si>
@@ -940,6 +1498,60 @@
     <t>I have now stayed at this property several times and do not understand the many recent good reviews. True the hotel is in a great location, but it is an older HIE, the AC is very loud and the thermostats never seem to operate properly (regardless of the room I am in), and the rooms are small. The bathroom vanity is short on space as well. On the upside, the hotel is near some very good nightlife p, it is clean with a friendly staff, and with the AC noise you could not possibly hear anything outside.You can do better for the money spent.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r193248827-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>193248827</t>
+  </si>
+  <si>
+    <t>02/06/2014</t>
+  </si>
+  <si>
+    <t>Older</t>
+  </si>
+  <si>
+    <t>Staff, excellent and friendly.  Location, very good close to town center (by car).  Hotel room was not fresh bed not the best.  A call at 9 AM to our room to ask us if we ready to check out is a first for us.  $170 plus tax is def overvalued.  Renovated bathroom is ok.  Wifi weak but free.  Breakfast is mediocre but free.  Business center PCs need faster ones with better software.  MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2014</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Responded February 21, 2014</t>
+  </si>
+  <si>
+    <t>Staff, excellent and friendly.  Location, very good close to town center (by car).  Hotel room was not fresh bed not the best.  A call at 9 AM to our room to ask us if we ready to check out is a first for us.  $170 plus tax is def overvalued.  Renovated bathroom is ok.  Wifi weak but free.  Breakfast is mediocre but free.  Business center PCs need faster ones with better software.  More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r174404920-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>174404920</t>
+  </si>
+  <si>
+    <t>08/27/2013</t>
+  </si>
+  <si>
+    <t>Expensive but I'll come back</t>
+  </si>
+  <si>
+    <t>Very clean, good service, didn't have the best rate.  This hotel is in a great location, near some great restaurants.  Very close to Crown Cork and Seal, the plant I cover.  I'll probably stay here everytime I'm in Sugar Land.MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2013</t>
+  </si>
+  <si>
+    <t>hiexsugarland, Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded September 2, 2013</t>
+  </si>
+  <si>
+    <t>Responded September 2, 2013</t>
+  </si>
+  <si>
+    <t>Very clean, good service, didn't have the best rate.  This hotel is in a great location, near some great restaurants.  Very close to Crown Cork and Seal, the plant I cover.  I'll probably stay here everytime I'm in Sugar Land.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r168331763-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -1009,6 +1621,48 @@
     <t>Breakfast was a nice bonus and pretty good selection, front desk staff was not very accessable most of the time they were on their cell phones, but the housekeeping staff always did a phenomenal job and the room was always clean and tidy.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r159357702-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>159357702</t>
+  </si>
+  <si>
+    <t>05/01/2013</t>
+  </si>
+  <si>
+    <t>Good, but isolated</t>
+  </si>
+  <si>
+    <t>In general, the hotel is all what you would expect of a Holiday Inn Express. Facilities are ok, you have a decent breakfast and attention is good.If you have a car, then it´s fine.The problem is if you have no car, because there is nothing near to walk to and taxis can take a while to arrive.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t>IHGCare, Guest Relations Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded May 14, 2013</t>
+  </si>
+  <si>
+    <t>Responded May 14, 2013</t>
+  </si>
+  <si>
+    <t>In general, the hotel is all what you would expect of a Holiday Inn Express. Facilities are ok, you have a decent breakfast and attention is good.If you have a car, then it´s fine.The problem is if you have no car, because there is nothing near to walk to and taxis can take a while to arrive.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r153330767-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>153330767</t>
+  </si>
+  <si>
+    <t>02/27/2013</t>
+  </si>
+  <si>
+    <t>Nice hotel, friendly staff, convenient location.</t>
+  </si>
+  <si>
+    <t>I stayed here one night for business.  The king suite I stayed in was clean and for the most part well taken care of.  The staff was friendly and courteous, and check-in was very quick.The address was tough for the GPS to figure out, but after circling around a couple times I managed to make my way into the parking lot.  It is located behind the fed-ex store which has a small driveway and if you miss it, count on at least 10 minutes to circle back around.The continental breakfast was good as is typical for HIX.I would stay here again without a doubt.</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r152391156-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -1069,6 +1723,57 @@
     <t>November 2012</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r142473524-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>142473524</t>
+  </si>
+  <si>
+    <t>10/10/2012</t>
+  </si>
+  <si>
+    <t>Great for Women on Business</t>
+  </si>
+  <si>
+    <t>This is my first time to Sugar Land Tx. Since I have to travel throughout the State, I usually stay at Extended Stay. After looking at the photos of this site online, I decided to pay the extra $30 to $50 per night. The "Business Bar" area appealed to me since I had to meet a client. So instead of meeting in a noisy restaurant, I'm able to meet my client here for a couple of hours and then get back on the road. Moreover, the facility is well lit, updated, and comfortable. The staff was EXTREMELY friendly which further added to my great experience. By the way - Extended Stay is right next door. I'm glad that I chose Holiday Inn Express Sugar Land.MoreShow less</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded October 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 11, 2012</t>
+  </si>
+  <si>
+    <t>This is my first time to Sugar Land Tx. Since I have to travel throughout the State, I usually stay at Extended Stay. After looking at the photos of this site online, I decided to pay the extra $30 to $50 per night. The "Business Bar" area appealed to me since I had to meet a client. So instead of meeting in a noisy restaurant, I'm able to meet my client here for a couple of hours and then get back on the road. Moreover, the facility is well lit, updated, and comfortable. The staff was EXTREMELY friendly which further added to my great experience. By the way - Extended Stay is right next door. I'm glad that I chose Holiday Inn Express Sugar Land.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r142056356-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>142056356</t>
+  </si>
+  <si>
+    <t>10/05/2012</t>
+  </si>
+  <si>
+    <t>Nice Stay, Great Management.</t>
+  </si>
+  <si>
+    <t>Everything was enjoyable, but the added extra here was being treated well.Sometimes it's tough enough being away from home, it sure makes much nicer then you're treated well.Thanks May Le!!Also enjoyed your restaurant tips.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded October 6, 2012</t>
+  </si>
+  <si>
+    <t>Responded October 6, 2012</t>
+  </si>
+  <si>
+    <t>Everything was enjoyable, but the added extra here was being treated well.Sometimes it's tough enough being away from home, it sure makes much nicer then you're treated well.Thanks May Le!!Also enjoyed your restaurant tips.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r141369746-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -1087,12 +1792,6 @@
     <t>September 2012</t>
   </si>
   <si>
-    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded October 6, 2012</t>
-  </si>
-  <si>
-    <t>Responded October 6, 2012</t>
-  </si>
-  <si>
     <t>I have stayed at this hotel many times and the hotel staff have always been extremely friendly and accommodating.  Due to the business I travel with, my hotel reservations are not always the easiest, but the staff is quick and attentive to getting my reservation made and make the check-in process quick.  As I come into the hotel after work, the staff always greets me with a smile and it makes me feel welcomed.More</t>
   </si>
   <si>
@@ -1150,6 +1849,57 @@
     <t>I was in town for an interview and had a reservation for 3 nights. While in bed, I saw a large cockroach run under the furniture. I spent the night because I was too tired to move. Next day, I asked to checkout because of the problem and asked for a refund of my next two nights. The manager refused since I had prepaid and offered to change rooms. At this point, I did not want to spend another night worried about bugs so I declined. So, I ended up paying for 2 nights that I was not in the room. I even called guest relations who said that prepaid rates will not be refunded. I stay at a lot of HIE's and this was NOT a nice one. Grungy and cheap were my impression.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r131577274-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>131577274</t>
+  </si>
+  <si>
+    <t>06/08/2012</t>
+  </si>
+  <si>
+    <t>Thank you</t>
+  </si>
+  <si>
+    <t>I don't like to travel much as it is a hassle but I don't remember feeling as welcomed at any other hotel as I was here. The ladies at the front Cheryl and May were very kindhearted and accomodating and I thank them for that. My husband and I enjoyed the breakfast they offer and will be coming back next time we visit Sugar Land.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded June 11, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 11, 2012</t>
+  </si>
+  <si>
+    <t>I don't like to travel much as it is a hassle but I don't remember feeling as welcomed at any other hotel as I was here. The ladies at the front Cheryl and May were very kindhearted and accomodating and I thank them for that. My husband and I enjoyed the breakfast they offer and will be coming back next time we visit Sugar Land.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r130382847-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>130382847</t>
+  </si>
+  <si>
+    <t>05/21/2012</t>
+  </si>
+  <si>
+    <t>Still (Spring 2012) outdated rooms &amp; bathrooms</t>
+  </si>
+  <si>
+    <t>Nothing has changed about the rooms in this hotel in 8 years....I have checked out this hotel at least once a year or every two years since my first stay in 2004.  Because my company has an office literally within walking distance of this hotel.... Its now Spring 2012  8 years later and its still awfully outdated, and more like a low budget hotel.  The outside building appears updated, but IT IS NOT.     Go just 2miles away to the Beautiful Staybridge Suites BRAND NEW and still apart of the ICHOtels group.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded June 7, 2012</t>
+  </si>
+  <si>
+    <t>Responded June 7, 2012</t>
+  </si>
+  <si>
+    <t>Nothing has changed about the rooms in this hotel in 8 years....I have checked out this hotel at least once a year or every two years since my first stay in 2004.  Because my company has an office literally within walking distance of this hotel.... Its now Spring 2012  8 years later and its still awfully outdated, and more like a low budget hotel.  The outside building appears updated, but IT IS NOT.     Go just 2miles away to the Beautiful Staybridge Suites BRAND NEW and still apart of the ICHOtels group.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r126701622-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -1165,9 +1915,6 @@
     <t>Thank you Holiday Inn Express, Sugar Land for your warm welcome and exceptional service. The pancakes were great too!MoreShow less</t>
   </si>
   <si>
-    <t>March 2012</t>
-  </si>
-  <si>
     <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded April 6, 2012</t>
   </si>
   <si>
@@ -1222,6 +1969,57 @@
     <t>My guests, colleagues &amp; I stayed recently two nights (02/29-03/02). We all agreed that we found the staff quite helpful, kind and competent. However, for as wonderful as each one of the staff is, the rooms themselves are equally old, dank, smelly (mine was apparently a smoking room for a number of years before its conversion to a non-smoking room). This is an OLD, OLD building w/ very loud air conditioners, older linens and old finishes.The location is very helpful, though. Quite close to many eateries and to an Enterprise-Rent-a-Car location.While the price is lower, I've come to expect A LOT more from Holiday Inn Express. If you choose to stay here, bring a dehumidifier and an ozone machine w/ you.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r122791383-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>122791383</t>
+  </si>
+  <si>
+    <t>01/08/2012</t>
+  </si>
+  <si>
+    <t>Never Again</t>
+  </si>
+  <si>
+    <t>I travel fairly often and have stayed in many family friendly affordable hotels. This was one of the worst stays ever. The ONLY redeming factor were the nice staff who tried to be accomodating in a losing situation. You can not run a hotel with no cold water ( meaning burning showers and a steaming sink) on and off for three days, broken ice machines on 2 of the 3 floors we tried, and no water in the vending machines we tried (on 2 floors). The beds are concave, the rooms can use more outlets to accomodate the year 2012. And at breakfsat the half and half  had curdled, and the only fruit (bananas) were too brown to eat. One of the 2 treadmills were broken in the fitness center as well. Sorry to tell it like it is but these are the facts. Not at all what we expected.MoreShow less</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded January 9, 2012</t>
+  </si>
+  <si>
+    <t>Responded January 9, 2012</t>
+  </si>
+  <si>
+    <t>I travel fairly often and have stayed in many family friendly affordable hotels. This was one of the worst stays ever. The ONLY redeming factor were the nice staff who tried to be accomodating in a losing situation. You can not run a hotel with no cold water ( meaning burning showers and a steaming sink) on and off for three days, broken ice machines on 2 of the 3 floors we tried, and no water in the vending machines we tried (on 2 floors). The beds are concave, the rooms can use more outlets to accomodate the year 2012. And at breakfsat the half and half  had curdled, and the only fruit (bananas) were too brown to eat. One of the 2 treadmills were broken in the fitness center as well. Sorry to tell it like it is but these are the facts. Not at all what we expected.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r121606883-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>121606883</t>
+  </si>
+  <si>
+    <t>12/10/2011</t>
+  </si>
+  <si>
+    <t>Comfortable stay.</t>
+  </si>
+  <si>
+    <t>We stayed one night in this hotel, checked in at 9pm and checked out and 9am the following day. We didn't stay long but the hotel was perfectly fine. I had a King Suite and there was lots of room and the bed was comfortable. The First Colony Mall in Sugar Land was a 10 minute drive, and many restaurants were within a quick drive. If you don't have a car you might find it difficult to get around. I had a quick breakfast in the morning before checking out for my afternoon flight. The price was right, the location was fine, and the hotel was nice. I'd stay here again.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded December 12, 2011</t>
+  </si>
+  <si>
+    <t>Responded December 12, 2011</t>
+  </si>
+  <si>
+    <t>We stayed one night in this hotel, checked in at 9pm and checked out and 9am the following day. We didn't stay long but the hotel was perfectly fine. I had a King Suite and there was lots of room and the bed was comfortable. The First Colony Mall in Sugar Land was a 10 minute drive, and many restaurants were within a quick drive. If you don't have a car you might find it difficult to get around. I had a quick breakfast in the morning before checking out for my afternoon flight. The price was right, the location was fine, and the hotel was nice. I'd stay here again.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r121140520-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -1291,6 +2089,60 @@
     <t>Nice hotel with clean rooms.  The breakfast was okay.  The only "hot" food item worth eating were the cinnamon rolls.  They have coffee available all day but take the creamer away after breakfast.The hotel is about 35 minutes from Houston Hobby airport.  We didn't rent a car and unfortunately, the hotel is not within walking distance to any restaurants or shopping.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r118651775-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>118651775</t>
+  </si>
+  <si>
+    <t>09/27/2011</t>
+  </si>
+  <si>
+    <t>Excellent service - Very clean</t>
+  </si>
+  <si>
+    <t>Stayed here for business. Staff were excellent; very friendly and accomodating. Overall was very clean. Would stay here again. Highly recommended.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded September 28, 2011</t>
+  </si>
+  <si>
+    <t>Responded September 28, 2011</t>
+  </si>
+  <si>
+    <t>Stayed here for business. Staff were excellent; very friendly and accomodating. Overall was very clean. Would stay here again. Highly recommended.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r115778335-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>115778335</t>
+  </si>
+  <si>
+    <t>07/25/2011</t>
+  </si>
+  <si>
+    <t>Great management, clean, and comfortable.</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights at this hotel. It is a standard Holiday Inn Express, meaning comfortable, nicely appointed, and very clean. It met all my expectations there. The management is excellent. When I booked, I messed up and booked 3 months instead of three nights! When I realized this, I called the property itself and the manager on duty fixed it without any complaint or fee, despite the fact that they could have charged me one. The desk staff were always friendly and helpful, even helping me to find somewhere to eat one evening. This exceeded my expectations.My only critique is that I booked one of the "suites," which is a suite by generous definition only. The only thing "suite-like" about it was an odd niche created by adding a short wall in between a couch and the bed. It did have a sink, microwave, and fridge across from it, and I suppose this was supposed to be the "second room" of the "suite," but truly it wasn't much different than many larger rooms nowadays with bar areas. Next time I'd probably  not pay the extra for the "suite." But, again, overall, this is a very nice property with excellent management and staff!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2011</t>
+  </si>
+  <si>
+    <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 27, 2011</t>
+  </si>
+  <si>
+    <t>Responded July 27, 2011</t>
+  </si>
+  <si>
+    <t>I stayed 3 nights at this hotel. It is a standard Holiday Inn Express, meaning comfortable, nicely appointed, and very clean. It met all my expectations there. The management is excellent. When I booked, I messed up and booked 3 months instead of three nights! When I realized this, I called the property itself and the manager on duty fixed it without any complaint or fee, despite the fact that they could have charged me one. The desk staff were always friendly and helpful, even helping me to find somewhere to eat one evening. This exceeded my expectations.My only critique is that I booked one of the "suites," which is a suite by generous definition only. The only thing "suite-like" about it was an odd niche created by adding a short wall in between a couch and the bed. It did have a sink, microwave, and fridge across from it, and I suppose this was supposed to be the "second room" of the "suite," but truly it wasn't much different than many larger rooms nowadays with bar areas. Next time I'd probably  not pay the extra for the "suite." But, again, overall, this is a very nice property with excellent management and staff!More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r115737532-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -1306,9 +2158,6 @@
     <t>My stay was quiet, the  hotel was very clean and very well organized. The room was crisp and clean. I had all amenities needed for my stay, GREAT JOB AND BEAUTIFUL LOCATION! Front desk personal,(Josephine &amp; Andy)  polite and cheerful, all the time during my stay. Always willing to make my stay comfortable, A JOB WELL DONE!  I will stae the experience; ON JULY 23, 2011, I was preparing for a banquet, family and friends. The toliet backed up while I was putting on my suit. I called the front desk, (Andy) and within two minutes the maintenence man was on the spot. Santiago Cecile, came and took care of the situation with such skill and professionalism that I'm compel to tell anyone who will listen,  A JOB WELL DONE! This man said nothing but what's wrong, handled the situation and never looked back. Keep in mind, I'm preparing for a banquet and needed that bathroom to shave and etc.. Mr.Santiago showed a true committment to his job and craft.  Most maintenance personal would have dragged the problem on and wasted precious time, being that this occurrence happend after normal working hours, but not in this case.  I've never stayed in a hotel were promptness was so sure and precise.  Know this also, I'M A PRIORITY CLUB MEMBER,  I'm always staying at Holiday's Inn.  Let me state," THAT WAS A JOB WELL DONE"!  Mr. Santiago deserves to know, he was...My stay was quiet, the  hotel was very clean and very well organized. The room was crisp and clean. I had all amenities needed for my stay, GREAT JOB AND BEAUTIFUL LOCATION! Front desk personal,(Josephine &amp; Andy)  polite and cheerful, all the time during my stay. Always willing to make my stay comfortable, A JOB WELL DONE!  I will stae the experience; ON JULY 23, 2011, I was preparing for a banquet, family and friends. The toliet backed up while I was putting on my suit. I called the front desk, (Andy) and within two minutes the maintenence man was on the spot. Santiago Cecile, came and took care of the situation with such skill and professionalism that I'm compel to tell anyone who will listen,  A JOB WELL DONE! This man said nothing but what's wrong, handled the situation and never looked back. Keep in mind, I'm preparing for a banquet and needed that bathroom to shave and etc.. Mr.Santiago showed a true committment to his job and craft.  Most maintenance personal would have dragged the problem on and wasted precious time, being that this occurrence happend after normal working hours, but not in this case.  I've never stayed in a hotel were promptness was so sure and precise.  Know this also, I'M A PRIORITY CLUB MEMBER,  I'm always staying at Holiday's Inn.  Let me state," THAT WAS A JOB WELL DONE"!  Mr. Santiago deserves to know, he was greatly appreciated for a terrific job. I was so moved and impress with the speed and clean up effort that I refused to changed rooms "although I was advised by front desk, he (ANDY) did insist" and was very well satisfied. I would be remiss not to mention fontt desk personal who assisted me with my morning work out being that I'm a lifter of weights and not much on cardio. The information and download to Bally's gym was on time.I quess in short a hotel chain is only as strong as its weakest link, this location and link is very stong.  My thumbs up to tne manager ( MAY LE), satff, location and team effort. I'm very much coming back to this location when every I'm in the area.THANKS,DARVIN BADGERMoreShow less</t>
   </si>
   <si>
-    <t>July 2011</t>
-  </si>
-  <si>
     <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded July 25, 2011</t>
   </si>
   <si>
@@ -1333,9 +2182,6 @@
     <t>During my stay at the HEI Sugar Land I was continually impressed by the entire staff . Specifically, May Le the General Manager, Mary Anne the Assistant General Manager an with special mention of Josephine Liao who went out of her way to get menus of local resturants who deliver to the hotel.This young lady exemplifies all that a traveler would like to experience in hotel staff support.Sincerely,Michael D. TaborMoreShow less</t>
   </si>
   <si>
-    <t>February 2011</t>
-  </si>
-  <si>
     <t>hiexsugarland, General Manager at Holiday Inn Express Sugar Land, responded to this reviewResponded February 27, 2011</t>
   </si>
   <si>
@@ -1369,6 +2215,42 @@
     <t>The service at this location has always been a positive, exceptional experience. The staff is dedicated to exceeding customers' expectations. They are knowledgeable of the surrounding area of the hotel and demonstrate a warm, friendly attitude when greeting their guests. The suites are large, clean, and comfortable. While the vanity in the bathroom is small, it is adequate and functional. This hotel is centrally located to Sugar Land and Southwest Houston. When given the opportunity, I am happy to recommend it to others.More</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r89001969-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>89001969</t>
+  </si>
+  <si>
+    <t>12/04/2010</t>
+  </si>
+  <si>
+    <t>It's for the business traveler.</t>
+  </si>
+  <si>
+    <t>I was in town for a wedding, parking was convenient, rooms were a little small but fit the bill, front desk staff was very helpfull and kind, breakfast as usual was fantastic, seriously the cinnomon rolls are great.  The bathrooms as other people have said are a bit on the small side, but are modern.  There is a pool and gym also.  Some people have given this place a thumbs down based upon what a Holiday inn express is.  They are designed for the business traveler not really a family.  Do some research and know what you are getting into.  If your looking for a large room with big soft beds and different pillows to choose from then I would reccomend Holiday Inn.MoreShow less</t>
+  </si>
+  <si>
+    <t>I was in town for a wedding, parking was convenient, rooms were a little small but fit the bill, front desk staff was very helpfull and kind, breakfast as usual was fantastic, seriously the cinnomon rolls are great.  The bathrooms as other people have said are a bit on the small side, but are modern.  There is a pool and gym also.  Some people have given this place a thumbs down based upon what a Holiday inn express is.  They are designed for the business traveler not really a family.  Do some research and know what you are getting into.  If your looking for a large room with big soft beds and different pillows to choose from then I would reccomend Holiday Inn.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r86703009-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>86703009</t>
+  </si>
+  <si>
+    <t>11/10/2010</t>
+  </si>
+  <si>
+    <t>Average but Uncomfortable Stay</t>
+  </si>
+  <si>
+    <t>While the location was good for business in the Sugar land area and the price was reasonable for the Houston greater area, my stay was uncomfortable. The rooms were clean but "tired". The AC never sufficiently cooled the room and the Water in the bathroom/tub was scorching hot. There was no cold water at all. I had to shower quickly and in brief intervals. I complained to the front desk who said they would check into it but nothing was ever done. I thought it was just my room but other co-workers complained of a similar experience.</t>
+  </si>
+  <si>
+    <t>June 2010</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r58683088-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -1423,6 +2305,42 @@
     <t>Stayed here for 2 nights in June 2009.  Not much to say, this is a very typical Holiday Inn.  Clean, decent staff, free decent buffet style breakfast (adequately stocked with a woman constantly refilling items as they become low), free parking.  There is no pool or fitness room.  The rates are fair considering the location and limited amenities.  The only complaint lies with the beds.  They were VERY uncomfortable.  I found myself tossing all night, both nights.</t>
   </si>
   <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r34005814-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>34005814</t>
+  </si>
+  <si>
+    <t>07/06/2009</t>
+  </si>
+  <si>
+    <t>Clean, pleasant, met expectations, decent value</t>
+  </si>
+  <si>
+    <t>Stayed at this Holiday Inn Express…it was located right off a main highway, was convenient, and yet not "loud".  Everything was in good condition, clean and comfortable.  The staff addressed any issues.  They had a daily breakfast buffet, including some hot foods. Outdoor pool was pleasant.  Overall, nothing remarkable, but for basic value hotel (about $90 per night) it was quite satifactory.</t>
+  </si>
+  <si>
+    <t>July 2009</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r14360420-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>14360420</t>
+  </si>
+  <si>
+    <t>03/18/2008</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Express Sugarland for one night.  I had previously stayed at this hotel and found it to be adequate.  It was still the same.  The beds and bedding are comfortable.  The water pressure good with enough hot water.  The air conditioner was pretty loud.  The bathroom is small with not much vanity area, which could be inconvient if you were staying for more than a night with two people.  Room is on the smaller side.  There was a desk with adequate lighting also a nice chair and ottoman. Front desk personnel were very friendly and helpful.  Breakfast was good with lots of options.  Biscuits, eggs, sausage gravy, many cereals, etc.  Has regular tv (not flat screen).  I would stay here again as it is a comfortable room, just not "over the top" like the two new Holiday Inn Express Hotels I stayed in in the past few weeks.  Wireless internet was easy to connect to and was speedy.I would recommend this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2008</t>
+  </si>
+  <si>
+    <t>Stayed at the Holiday Inn Express Sugarland for one night.  I had previously stayed at this hotel and found it to be adequate.  It was still the same.  The beds and bedding are comfortable.  The water pressure good with enough hot water.  The air conditioner was pretty loud.  The bathroom is small with not much vanity area, which could be inconvient if you were staying for more than a night with two people.  Room is on the smaller side.  There was a desk with adequate lighting also a nice chair and ottoman. Front desk personnel were very friendly and helpful.  Breakfast was good with lots of options.  Biscuits, eggs, sausage gravy, many cereals, etc.  Has regular tv (not flat screen).  I would stay here again as it is a comfortable room, just not "over the top" like the two new Holiday Inn Express Hotels I stayed in in the past few weeks.  Wireless internet was easy to connect to and was speedy.I would recommend this hotel.More</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r10089711-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
   </si>
   <si>
@@ -1481,6 +2399,24 @@
   </si>
   <si>
     <t>Stayed here for a nearby wedding. They messed up the group reservation[the person who made it was no longer working there--wonder why?], reneged on the promised group rate, bumped it $10 higher, messed up on the billing of rooms, inputted double charges to my credit card because they mistakenly gave 2 credits to my daughter's credit card after they had mischarged my bill to her card. Instead of simply notifying her credit card company of their mistake in issuing 2 credits they tried to make me pay for the bill twice.  Then, they also charged a different credit card that she originally used to hold the room reservation a different amount [apparently based upon the originally promised group rate], even though I had already paid for her bill. What a nightmare.  The hotel itself is OK, nothing to rave about, but the billing and accounts handling is a disaster.  Would not stay here again. There are other chain hotels nearby.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56723-d223181-r2663567-Holiday_Inn_Express_Sugar_Land-Sugar_Land_Texas.html</t>
+  </si>
+  <si>
+    <t>2663567</t>
+  </si>
+  <si>
+    <t>10/08/2004</t>
+  </si>
+  <si>
+    <t>Refurbished...but still Outdated</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is located in a trendy, upscale area of Sugarland - Sugarcreek Blvd area off of Rt. 59 South and Rt. 6.    I spent 1 night for business.  It looks like any other Holiday Inn Express "new", crisp, and up to date with technology...BUT:  This is a REFURBISHED former old hotel of some sort from the 1970'/80's and all they did was redecorate with carpet, paint, furnitures and fixtures:  The low ceilings, AWKWARD room set up with old Doors &amp; Door frames &amp; LACK of counter space in the bathroom, LACK of wall plug/outlets &amp; LACK of lighting at the Desk, old A/C wall unit below the window, old refrigerator/microwave = all were NOT refurbished.   Outdated/Dark looking things they should have replaced or refurbished.  ROOMS HAVE NO ETHERNET/CABLE COMPUTER ACCESS, ONLY WIRELESS CARD:  Meaning:  if you don't have a wireless laptop,  you are FORCED to go the lobby to use their walkup counter with ethernet cable in the TV/Breakfast Lobby.  It was inconvenient to FIND OUT ABOUT THIS at 11:00PM when I needed to work on my business presentation for the next morning.   What a pain if your company's laptop isn't wireless yet.  I would suggest trying the Marriott a couple of miles away.MoreShow less</t>
+  </si>
+  <si>
+    <t>This Holiday Inn Express is located in a trendy, upscale area of Sugarland - Sugarcreek Blvd area off of Rt. 59 South and Rt. 6.    I spent 1 night for business.  It looks like any other Holiday Inn Express "new", crisp, and up to date with technology...BUT:  This is a REFURBISHED former old hotel of some sort from the 1970'/80's and all they did was redecorate with carpet, paint, furnitures and fixtures:  The low ceilings, AWKWARD room set up with old Doors &amp; Door frames &amp; LACK of counter space in the bathroom, LACK of wall plug/outlets &amp; LACK of lighting at the Desk, old A/C wall unit below the window, old refrigerator/microwave = all were NOT refurbished.   Outdated/Dark looking things they should have replaced or refurbished.  ROOMS HAVE NO ETHERNET/CABLE COMPUTER ACCESS, ONLY WIRELESS CARD:  Meaning:  if you don't have a wireless laptop,  you are FORCED to go the lobby to use their walkup counter with ethernet cable in the TV/Breakfast Lobby.  It was inconvenient to FIND OUT ABOUT THIS at 11:00PM when I needed to work on my business presentation for the next morning.   What a pain if your company's laptop isn't wireless yet.  I would suggest trying the Marriott a couple of miles away.More</t>
   </si>
 </sst>
 </file>
@@ -2015,7 +2951,7 @@
         <v>51</v>
       </c>
       <c r="M2" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N2" t="s">
         <v>52</v>
@@ -2026,9 +2962,13 @@
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
       <c r="R2" t="s"/>
-      <c r="S2" t="s"/>
+      <c r="S2" t="n">
+        <v>5</v>
+      </c>
       <c r="T2" t="s"/>
-      <c r="U2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
@@ -2075,19 +3015,19 @@
         <v>3</v>
       </c>
       <c r="N3" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O3" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
-        <v>2</v>
-      </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
-      <c r="S3" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="R3" t="s"/>
+      <c r="S3" t="n">
+        <v>3</v>
+      </c>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
         <v>5</v>
@@ -2095,10 +3035,14 @@
       <c r="V3" t="n">
         <v>0</v>
       </c>
-      <c r="W3" t="s"/>
-      <c r="X3" t="s"/>
+      <c r="W3" t="s">
+        <v>62</v>
+      </c>
+      <c r="X3" t="s">
+        <v>63</v>
+      </c>
       <c r="Y3" t="s">
-        <v>59</v>
+        <v>64</v>
       </c>
     </row>
     <row r="4">
@@ -2114,7 +3058,7 @@
         <v>44</v>
       </c>
       <c r="F4" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="G4" t="s">
         <v>46</v>
@@ -2123,22 +3067,22 @@
         <v>47</v>
       </c>
       <c r="I4" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="J4" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="K4" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="L4" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="M4" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N4" t="s">
-        <v>52</v>
+        <v>60</v>
       </c>
       <c r="O4" t="s">
         <v>53</v>
@@ -2155,7 +3099,7 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5">
@@ -2171,7 +3115,7 @@
         <v>44</v>
       </c>
       <c r="F5" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="G5" t="s">
         <v>46</v>
@@ -2180,43 +3124,45 @@
         <v>47</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="J5" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="K5" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="L5" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="M5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="N5" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="O5" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="n">
+        <v>2</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
-      <c r="W5" t="s">
-        <v>73</v>
-      </c>
-      <c r="X5" t="s">
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
         <v>74</v>
-      </c>
-      <c r="Y5" t="s">
-        <v>75</v>
       </c>
     </row>
     <row r="6">
@@ -2232,7 +3178,7 @@
         <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G6" t="s">
         <v>46</v>
@@ -2241,43 +3187,45 @@
         <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J6" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="K6" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="L6" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="M6" t="n">
         <v>3</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="O6" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P6" t="s"/>
-      <c r="Q6" t="s"/>
+      <c r="Q6" t="n">
+        <v>3</v>
+      </c>
       <c r="R6" t="s"/>
-      <c r="S6" t="s"/>
+      <c r="S6" t="n">
+        <v>4</v>
+      </c>
       <c r="T6" t="s"/>
-      <c r="U6" t="s"/>
+      <c r="U6" t="n">
+        <v>4</v>
+      </c>
       <c r="V6" t="n">
         <v>0</v>
       </c>
-      <c r="W6" t="s">
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
         <v>82</v>
-      </c>
-      <c r="X6" t="s">
-        <v>83</v>
-      </c>
-      <c r="Y6" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="7">
@@ -2293,58 +3241,48 @@
         <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>83</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>84</v>
+      </c>
+      <c r="J7" t="s">
         <v>85</v>
       </c>
-      <c r="G7" t="s">
-        <v>46</v>
-      </c>
-      <c r="H7" t="s">
-        <v>47</v>
-      </c>
-      <c r="I7" t="s">
+      <c r="K7" t="s">
         <v>86</v>
       </c>
-      <c r="J7" t="s">
+      <c r="L7" t="s">
         <v>87</v>
       </c>
-      <c r="K7" t="s">
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
         <v>88</v>
       </c>
-      <c r="L7" t="s">
+      <c r="O7" t="s">
+        <v>53</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
+      <c r="T7" t="s"/>
+      <c r="U7" t="s"/>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
         <v>89</v>
-      </c>
-      <c r="M7" t="n">
-        <v>2</v>
-      </c>
-      <c r="N7" t="s">
-        <v>81</v>
-      </c>
-      <c r="O7" t="s">
-        <v>60</v>
-      </c>
-      <c r="P7" t="s"/>
-      <c r="Q7" t="n">
-        <v>1</v>
-      </c>
-      <c r="R7" t="s"/>
-      <c r="S7" t="n">
-        <v>4</v>
-      </c>
-      <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>2</v>
-      </c>
-      <c r="V7" t="n">
-        <v>0</v>
-      </c>
-      <c r="W7" t="s">
-        <v>90</v>
-      </c>
-      <c r="X7" t="s">
-        <v>91</v>
-      </c>
-      <c r="Y7" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="8">
@@ -2360,52 +3298,54 @@
         <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>90</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>91</v>
+      </c>
+      <c r="J8" t="s">
+        <v>92</v>
+      </c>
+      <c r="K8" t="s">
         <v>93</v>
       </c>
-      <c r="G8" t="s">
-        <v>46</v>
-      </c>
-      <c r="H8" t="s">
-        <v>47</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="L8" t="s">
         <v>94</v>
-      </c>
-      <c r="J8" t="s">
-        <v>95</v>
-      </c>
-      <c r="K8" t="s">
-        <v>96</v>
-      </c>
-      <c r="L8" t="s">
-        <v>97</v>
       </c>
       <c r="M8" t="n">
         <v>3</v>
       </c>
       <c r="N8" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="O8" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="P8" t="s"/>
-      <c r="Q8" t="s"/>
-      <c r="R8" t="s"/>
+      <c r="Q8" t="n">
+        <v>2</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
       <c r="S8" t="s"/>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>5</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
-      <c r="W8" t="s">
-        <v>100</v>
-      </c>
-      <c r="X8" t="s">
-        <v>101</v>
-      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>102</v>
+        <v>94</v>
       </c>
     </row>
     <row r="9">
@@ -2421,7 +3361,7 @@
         <v>44</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>95</v>
       </c>
       <c r="G9" t="s">
         <v>46</v>
@@ -2430,25 +3370,25 @@
         <v>47</v>
       </c>
       <c r="I9" t="s">
-        <v>104</v>
+        <v>96</v>
       </c>
       <c r="J9" t="s">
-        <v>105</v>
+        <v>97</v>
       </c>
       <c r="K9" t="s">
-        <v>106</v>
+        <v>98</v>
       </c>
       <c r="L9" t="s">
-        <v>107</v>
+        <v>99</v>
       </c>
       <c r="M9" t="n">
         <v>3</v>
       </c>
       <c r="N9" t="s">
-        <v>108</v>
+        <v>88</v>
       </c>
       <c r="O9" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P9" t="s"/>
       <c r="Q9" t="s"/>
@@ -2459,14 +3399,10 @@
       <c r="V9" t="n">
         <v>0</v>
       </c>
-      <c r="W9" t="s">
-        <v>109</v>
-      </c>
-      <c r="X9" t="s">
-        <v>110</v>
-      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10">
@@ -2482,7 +3418,7 @@
         <v>44</v>
       </c>
       <c r="F10" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="G10" t="s">
         <v>46</v>
@@ -2491,45 +3427,43 @@
         <v>47</v>
       </c>
       <c r="I10" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="J10" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="K10" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="L10" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="M10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N10" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="O10" t="s">
-        <v>99</v>
+        <v>61</v>
       </c>
       <c r="P10" t="s"/>
       <c r="Q10" t="s"/>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
-      <c r="S10" t="n">
-        <v>5</v>
-      </c>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
       <c r="T10" t="s"/>
-      <c r="U10" t="n">
-        <v>5</v>
-      </c>
+      <c r="U10" t="s"/>
       <c r="V10" t="n">
         <v>0</v>
       </c>
-      <c r="W10" t="s"/>
-      <c r="X10" t="s"/>
+      <c r="W10" t="s">
+        <v>107</v>
+      </c>
+      <c r="X10" t="s">
+        <v>108</v>
+      </c>
       <c r="Y10" t="s">
-        <v>116</v>
+        <v>109</v>
       </c>
     </row>
     <row r="11">
@@ -2545,7 +3479,7 @@
         <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>110</v>
       </c>
       <c r="G11" t="s">
         <v>46</v>
@@ -2554,43 +3488,47 @@
         <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>118</v>
+        <v>111</v>
       </c>
       <c r="J11" t="s">
-        <v>119</v>
+        <v>112</v>
       </c>
       <c r="K11" t="s">
-        <v>120</v>
+        <v>113</v>
       </c>
       <c r="L11" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="M11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N11" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="O11" t="s">
-        <v>60</v>
-      </c>
-      <c r="P11" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q11" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="n">
+        <v>3</v>
+      </c>
       <c r="R11" t="s"/>
       <c r="S11" t="s"/>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
-      <c r="W11" t="s"/>
-      <c r="X11" t="s"/>
+      <c r="W11" t="s">
+        <v>116</v>
+      </c>
+      <c r="X11" t="s">
+        <v>117</v>
+      </c>
       <c r="Y11" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="12">
@@ -2606,34 +3544,34 @@
         <v>44</v>
       </c>
       <c r="F12" t="s">
+        <v>119</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>120</v>
+      </c>
+      <c r="J12" t="s">
+        <v>121</v>
+      </c>
+      <c r="K12" t="s">
+        <v>122</v>
+      </c>
+      <c r="L12" t="s">
         <v>123</v>
       </c>
-      <c r="G12" t="s">
-        <v>46</v>
-      </c>
-      <c r="H12" t="s">
-        <v>47</v>
-      </c>
-      <c r="I12" t="s">
+      <c r="M12" t="n">
+        <v>3</v>
+      </c>
+      <c r="N12" t="s">
         <v>124</v>
       </c>
-      <c r="J12" t="s">
-        <v>125</v>
-      </c>
-      <c r="K12" t="s">
-        <v>126</v>
-      </c>
-      <c r="L12" t="s">
-        <v>127</v>
-      </c>
-      <c r="M12" t="n">
-        <v>5</v>
-      </c>
-      <c r="N12" t="s">
-        <v>128</v>
-      </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P12" t="s"/>
       <c r="Q12" t="s"/>
@@ -2645,13 +3583,13 @@
         <v>0</v>
       </c>
       <c r="W12" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="X12" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
     </row>
     <row r="13">
@@ -2667,31 +3605,31 @@
         <v>44</v>
       </c>
       <c r="F13" t="s">
+        <v>128</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>129</v>
+      </c>
+      <c r="J13" t="s">
+        <v>130</v>
+      </c>
+      <c r="K13" t="s">
+        <v>131</v>
+      </c>
+      <c r="L13" t="s">
         <v>132</v>
       </c>
-      <c r="G13" t="s">
-        <v>46</v>
-      </c>
-      <c r="H13" t="s">
-        <v>47</v>
-      </c>
-      <c r="I13" t="s">
+      <c r="M13" t="n">
+        <v>3</v>
+      </c>
+      <c r="N13" t="s">
         <v>133</v>
-      </c>
-      <c r="J13" t="s">
-        <v>134</v>
-      </c>
-      <c r="K13" t="s">
-        <v>135</v>
-      </c>
-      <c r="L13" t="s">
-        <v>136</v>
-      </c>
-      <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>128</v>
       </c>
       <c r="O13" t="s">
         <v>53</v>
@@ -2706,13 +3644,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="s">
-        <v>129</v>
+        <v>134</v>
       </c>
       <c r="X13" t="s">
-        <v>130</v>
+        <v>135</v>
       </c>
       <c r="Y13" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="14">
@@ -2728,54 +3666,58 @@
         <v>44</v>
       </c>
       <c r="F14" t="s">
+        <v>137</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
         <v>138</v>
       </c>
-      <c r="G14" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" t="s">
-        <v>47</v>
-      </c>
-      <c r="I14" t="s">
+      <c r="J14" t="s">
         <v>139</v>
       </c>
-      <c r="J14" t="s">
+      <c r="K14" t="s">
         <v>140</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>141</v>
-      </c>
-      <c r="L14" t="s">
-        <v>142</v>
       </c>
       <c r="M14" t="n">
         <v>2</v>
       </c>
       <c r="N14" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O14" t="s">
-        <v>60</v>
-      </c>
-      <c r="P14" t="n">
-        <v>2</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P14" t="s"/>
       <c r="Q14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="R14" t="s"/>
-      <c r="S14" t="s"/>
+      <c r="S14" t="n">
+        <v>4</v>
+      </c>
       <c r="T14" t="s"/>
       <c r="U14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
-      <c r="W14" t="s"/>
-      <c r="X14" t="s"/>
+      <c r="W14" t="s">
+        <v>142</v>
+      </c>
+      <c r="X14" t="s">
+        <v>143</v>
+      </c>
       <c r="Y14" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="15">
@@ -2791,7 +3733,7 @@
         <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G15" t="s">
         <v>46</v>
@@ -2800,32 +3742,32 @@
         <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="J15" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K15" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="L15" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="M15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N15" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="O15" t="s">
-        <v>149</v>
+        <v>76</v>
       </c>
       <c r="P15" t="s"/>
       <c r="Q15" t="s"/>
-      <c r="R15" t="n">
-        <v>4</v>
-      </c>
-      <c r="S15" t="s"/>
+      <c r="R15" t="s"/>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
         <v>4</v>
@@ -2833,10 +3775,14 @@
       <c r="V15" t="n">
         <v>0</v>
       </c>
-      <c r="W15" t="s"/>
-      <c r="X15" t="s"/>
+      <c r="W15" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" t="s">
+        <v>151</v>
+      </c>
       <c r="Y15" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="16">
@@ -2852,7 +3798,7 @@
         <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
         <v>46</v>
@@ -2861,45 +3807,43 @@
         <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="J16" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="K16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L16" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="M16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N16" t="s">
-        <v>143</v>
+        <v>158</v>
       </c>
       <c r="O16" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P16" t="s"/>
-      <c r="Q16" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q16" t="s"/>
       <c r="R16" t="s"/>
-      <c r="S16" t="n">
-        <v>4</v>
-      </c>
+      <c r="S16" t="s"/>
       <c r="T16" t="s"/>
-      <c r="U16" t="n">
-        <v>4</v>
-      </c>
+      <c r="U16" t="s"/>
       <c r="V16" t="n">
         <v>0</v>
       </c>
-      <c r="W16" t="s"/>
-      <c r="X16" t="s"/>
+      <c r="W16" t="s">
+        <v>159</v>
+      </c>
+      <c r="X16" t="s">
+        <v>160</v>
+      </c>
       <c r="Y16" t="s">
-        <v>154</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17">
@@ -2915,7 +3859,7 @@
         <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="G17" t="s">
         <v>46</v>
@@ -2924,43 +3868,43 @@
         <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>156</v>
+        <v>163</v>
       </c>
       <c r="J17" t="s">
-        <v>157</v>
+        <v>164</v>
       </c>
       <c r="K17" t="s">
-        <v>158</v>
+        <v>165</v>
       </c>
       <c r="L17" t="s">
-        <v>159</v>
+        <v>166</v>
       </c>
       <c r="M17" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N17" t="s">
-        <v>160</v>
+        <v>167</v>
       </c>
       <c r="O17" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P17" t="s"/>
-      <c r="Q17" t="n">
-        <v>2</v>
-      </c>
+      <c r="Q17" t="s"/>
       <c r="R17" t="s"/>
       <c r="S17" t="s"/>
       <c r="T17" t="s"/>
-      <c r="U17" t="n">
-        <v>2</v>
-      </c>
+      <c r="U17" t="s"/>
       <c r="V17" t="n">
         <v>0</v>
       </c>
-      <c r="W17" t="s"/>
-      <c r="X17" t="s"/>
+      <c r="W17" t="s">
+        <v>168</v>
+      </c>
+      <c r="X17" t="s">
+        <v>169</v>
+      </c>
       <c r="Y17" t="s">
-        <v>161</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18">
@@ -2976,7 +3920,7 @@
         <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>162</v>
+        <v>171</v>
       </c>
       <c r="G18" t="s">
         <v>46</v>
@@ -2985,25 +3929,25 @@
         <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>163</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>157</v>
+        <v>173</v>
       </c>
       <c r="K18" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="L18" t="s">
-        <v>165</v>
+        <v>175</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N18" t="s">
-        <v>160</v>
+        <v>176</v>
       </c>
       <c r="O18" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P18" t="s"/>
       <c r="Q18" t="s"/>
@@ -3014,10 +3958,14 @@
       <c r="V18" t="n">
         <v>0</v>
       </c>
-      <c r="W18" t="s"/>
-      <c r="X18" t="s"/>
+      <c r="W18" t="s">
+        <v>177</v>
+      </c>
+      <c r="X18" t="s">
+        <v>178</v>
+      </c>
       <c r="Y18" t="s">
-        <v>165</v>
+        <v>179</v>
       </c>
     </row>
     <row r="19">
@@ -3033,7 +3981,7 @@
         <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>180</v>
       </c>
       <c r="G19" t="s">
         <v>46</v>
@@ -3042,32 +3990,34 @@
         <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>181</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>182</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>183</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
       </c>
       <c r="N19" t="s">
-        <v>171</v>
+        <v>176</v>
       </c>
       <c r="O19" t="s">
-        <v>99</v>
+        <v>76</v>
       </c>
       <c r="P19" t="s"/>
-      <c r="Q19" t="n">
-        <v>4</v>
-      </c>
-      <c r="R19" t="s"/>
-      <c r="S19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>5</v>
+      </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
         <v>5</v>
@@ -3078,7 +4028,7 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>170</v>
+        <v>184</v>
       </c>
     </row>
     <row r="20">
@@ -3094,7 +4044,7 @@
         <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="G20" t="s">
         <v>46</v>
@@ -3103,43 +4053,45 @@
         <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="J20" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="K20" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="L20" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="M20" t="n">
+        <v>1</v>
+      </c>
+      <c r="N20" t="s">
+        <v>190</v>
+      </c>
+      <c r="O20" t="s">
+        <v>53</v>
+      </c>
+      <c r="P20" t="n">
         <v>3</v>
       </c>
-      <c r="N20" t="s">
-        <v>177</v>
-      </c>
-      <c r="O20" t="s">
-        <v>99</v>
-      </c>
-      <c r="P20" t="s"/>
       <c r="Q20" t="s"/>
-      <c r="R20" t="s"/>
+      <c r="R20" t="n">
+        <v>3</v>
+      </c>
       <c r="S20" t="s"/>
       <c r="T20" t="s"/>
-      <c r="U20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s">
-        <v>178</v>
-      </c>
-      <c r="X20" t="s">
-        <v>179</v>
-      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
       <c r="Y20" t="s">
-        <v>180</v>
+        <v>191</v>
       </c>
     </row>
     <row r="21">
@@ -3155,7 +4107,7 @@
         <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>181</v>
+        <v>192</v>
       </c>
       <c r="G21" t="s">
         <v>46</v>
@@ -3164,39 +4116,49 @@
         <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>182</v>
+        <v>193</v>
       </c>
       <c r="J21" t="s">
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="K21" t="s">
-        <v>184</v>
+        <v>195</v>
       </c>
       <c r="L21" t="s">
-        <v>185</v>
+        <v>196</v>
       </c>
       <c r="M21" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="N21" t="s">
-        <v>186</v>
+        <v>197</v>
       </c>
       <c r="O21" t="s">
-        <v>60</v>
-      </c>
-      <c r="P21" t="s"/>
-      <c r="Q21" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P21" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>2</v>
+      </c>
       <c r="R21" t="s"/>
       <c r="S21" t="s"/>
       <c r="T21" t="s"/>
-      <c r="U21" t="s"/>
+      <c r="U21" t="n">
+        <v>1</v>
+      </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
-      <c r="W21" t="s"/>
-      <c r="X21" t="s"/>
+      <c r="W21" t="s">
+        <v>198</v>
+      </c>
+      <c r="X21" t="s">
+        <v>199</v>
+      </c>
       <c r="Y21" t="s">
-        <v>185</v>
+        <v>200</v>
       </c>
     </row>
     <row r="22">
@@ -3212,7 +4174,7 @@
         <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>187</v>
+        <v>201</v>
       </c>
       <c r="G22" t="s">
         <v>46</v>
@@ -3221,37 +4183,35 @@
         <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>188</v>
+        <v>202</v>
       </c>
       <c r="J22" t="s">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="K22" t="s">
-        <v>190</v>
+        <v>204</v>
       </c>
       <c r="L22" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
       <c r="M22" t="n">
         <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>186</v>
+        <v>206</v>
       </c>
       <c r="O22" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q22" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q22" t="s"/>
       <c r="R22" t="s"/>
       <c r="S22" t="s"/>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -3259,7 +4219,7 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>191</v>
+        <v>205</v>
       </c>
     </row>
     <row r="23">
@@ -3275,7 +4235,7 @@
         <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>192</v>
+        <v>207</v>
       </c>
       <c r="G23" t="s">
         <v>46</v>
@@ -3284,45 +4244,43 @@
         <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>193</v>
+        <v>208</v>
       </c>
       <c r="J23" t="s">
-        <v>194</v>
+        <v>209</v>
       </c>
       <c r="K23" t="s">
-        <v>195</v>
+        <v>210</v>
       </c>
       <c r="L23" t="s">
-        <v>196</v>
+        <v>211</v>
       </c>
       <c r="M23" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="N23" t="s">
-        <v>197</v>
+        <v>212</v>
       </c>
       <c r="O23" t="s">
-        <v>149</v>
-      </c>
-      <c r="P23" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P23" t="s"/>
       <c r="Q23" t="s"/>
       <c r="R23" t="s"/>
-      <c r="S23" t="n">
-        <v>4</v>
-      </c>
+      <c r="S23" t="s"/>
       <c r="T23" t="s"/>
-      <c r="U23" t="n">
-        <v>4</v>
-      </c>
+      <c r="U23" t="s"/>
       <c r="V23" t="n">
         <v>0</v>
       </c>
-      <c r="W23" t="s"/>
-      <c r="X23" t="s"/>
+      <c r="W23" t="s">
+        <v>213</v>
+      </c>
+      <c r="X23" t="s">
+        <v>214</v>
+      </c>
       <c r="Y23" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
     </row>
     <row r="24">
@@ -3338,7 +4296,7 @@
         <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>216</v>
       </c>
       <c r="G24" t="s">
         <v>46</v>
@@ -3347,43 +4305,43 @@
         <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>217</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>218</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>219</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>220</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>212</v>
       </c>
       <c r="O24" t="s">
-        <v>60</v>
-      </c>
-      <c r="P24" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P24" t="s"/>
       <c r="Q24" t="s"/>
       <c r="R24" t="s"/>
       <c r="S24" t="s"/>
       <c r="T24" t="s"/>
-      <c r="U24" t="n">
-        <v>4</v>
-      </c>
+      <c r="U24" t="s"/>
       <c r="V24" t="n">
         <v>0</v>
       </c>
-      <c r="W24" t="s"/>
-      <c r="X24" t="s"/>
+      <c r="W24" t="s">
+        <v>213</v>
+      </c>
+      <c r="X24" t="s">
+        <v>214</v>
+      </c>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>221</v>
       </c>
     </row>
     <row r="25">
@@ -3399,7 +4357,7 @@
         <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>204</v>
+        <v>222</v>
       </c>
       <c r="G25" t="s">
         <v>46</v>
@@ -3408,45 +4366,43 @@
         <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>205</v>
+        <v>223</v>
       </c>
       <c r="J25" t="s">
-        <v>206</v>
+        <v>224</v>
       </c>
       <c r="K25" t="s">
-        <v>207</v>
+        <v>225</v>
       </c>
       <c r="L25" t="s">
-        <v>208</v>
+        <v>226</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
       </c>
       <c r="N25" t="s">
-        <v>203</v>
+        <v>227</v>
       </c>
       <c r="O25" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="P25" t="s"/>
-      <c r="Q25" t="n">
-        <v>3</v>
-      </c>
-      <c r="R25" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q25" t="s"/>
+      <c r="R25" t="s"/>
       <c r="S25" t="s"/>
       <c r="T25" t="s"/>
-      <c r="U25" t="n">
-        <v>3</v>
-      </c>
+      <c r="U25" t="s"/>
       <c r="V25" t="n">
         <v>0</v>
       </c>
-      <c r="W25" t="s"/>
-      <c r="X25" t="s"/>
+      <c r="W25" t="s">
+        <v>228</v>
+      </c>
+      <c r="X25" t="s">
+        <v>229</v>
+      </c>
       <c r="Y25" t="s">
-        <v>209</v>
+        <v>230</v>
       </c>
     </row>
     <row r="26">
@@ -3462,7 +4418,7 @@
         <v>44</v>
       </c>
       <c r="F26" t="s">
-        <v>210</v>
+        <v>231</v>
       </c>
       <c r="G26" t="s">
         <v>46</v>
@@ -3471,39 +4427,43 @@
         <v>47</v>
       </c>
       <c r="I26" t="s">
-        <v>211</v>
+        <v>232</v>
       </c>
       <c r="J26" t="s">
-        <v>212</v>
+        <v>233</v>
       </c>
       <c r="K26" t="s">
-        <v>213</v>
+        <v>234</v>
       </c>
       <c r="L26" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
       <c r="M26" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N26" t="s">
-        <v>215</v>
+        <v>236</v>
       </c>
       <c r="O26" t="s">
-        <v>60</v>
-      </c>
-      <c r="P26" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
       <c r="Q26" t="s"/>
       <c r="R26" t="s"/>
       <c r="S26" t="s"/>
       <c r="T26" t="s"/>
-      <c r="U26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="s"/>
       <c r="X26" t="s"/>
       <c r="Y26" t="s">
-        <v>214</v>
+        <v>235</v>
       </c>
     </row>
     <row r="27">
@@ -3519,7 +4479,7 @@
         <v>44</v>
       </c>
       <c r="F27" t="s">
-        <v>216</v>
+        <v>237</v>
       </c>
       <c r="G27" t="s">
         <v>46</v>
@@ -3528,39 +4488,45 @@
         <v>47</v>
       </c>
       <c r="I27" t="s">
-        <v>217</v>
+        <v>238</v>
       </c>
       <c r="J27" t="s">
-        <v>218</v>
+        <v>239</v>
       </c>
       <c r="K27" t="s">
-        <v>219</v>
+        <v>240</v>
       </c>
       <c r="L27" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
       <c r="M27" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N27" t="s">
-        <v>215</v>
+        <v>242</v>
       </c>
       <c r="O27" t="s">
-        <v>60</v>
-      </c>
-      <c r="P27" t="s"/>
-      <c r="Q27" t="s"/>
+        <v>61</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>2</v>
+      </c>
       <c r="R27" t="s"/>
       <c r="S27" t="s"/>
       <c r="T27" t="s"/>
-      <c r="U27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
       <c r="V27" t="n">
         <v>0</v>
       </c>
       <c r="W27" t="s"/>
       <c r="X27" t="s"/>
       <c r="Y27" t="s">
-        <v>220</v>
+        <v>241</v>
       </c>
     </row>
     <row r="28">
@@ -3576,7 +4542,7 @@
         <v>44</v>
       </c>
       <c r="F28" t="s">
-        <v>221</v>
+        <v>243</v>
       </c>
       <c r="G28" t="s">
         <v>46</v>
@@ -3585,47 +4551,43 @@
         <v>47</v>
       </c>
       <c r="I28" t="s">
-        <v>222</v>
+        <v>244</v>
       </c>
       <c r="J28" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
       <c r="K28" t="s">
-        <v>224</v>
+        <v>246</v>
       </c>
       <c r="L28" t="s">
-        <v>225</v>
+        <v>247</v>
       </c>
       <c r="M28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N28" t="s">
-        <v>226</v>
+        <v>242</v>
       </c>
       <c r="O28" t="s">
-        <v>53</v>
+        <v>248</v>
       </c>
       <c r="P28" t="s"/>
       <c r="Q28" t="s"/>
-      <c r="R28" t="s"/>
-      <c r="S28" t="n">
-        <v>5</v>
-      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
       <c r="T28" t="s"/>
       <c r="U28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
       </c>
-      <c r="W28" t="s">
-        <v>227</v>
-      </c>
-      <c r="X28" t="s">
-        <v>228</v>
-      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
       <c r="Y28" t="s">
-        <v>229</v>
+        <v>247</v>
       </c>
     </row>
     <row r="29">
@@ -3641,7 +4603,7 @@
         <v>44</v>
       </c>
       <c r="F29" t="s">
-        <v>230</v>
+        <v>249</v>
       </c>
       <c r="G29" t="s">
         <v>46</v>
@@ -3650,43 +4612,45 @@
         <v>47</v>
       </c>
       <c r="I29" t="s">
-        <v>231</v>
+        <v>250</v>
       </c>
       <c r="J29" t="s">
-        <v>232</v>
+        <v>251</v>
       </c>
       <c r="K29" t="s">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="L29" t="s">
-        <v>234</v>
+        <v>253</v>
       </c>
       <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>242</v>
+      </c>
+      <c r="O29" t="s">
+        <v>53</v>
+      </c>
+      <c r="P29" t="s"/>
+      <c r="Q29" t="n">
         <v>3</v>
       </c>
-      <c r="N29" t="s">
-        <v>235</v>
-      </c>
-      <c r="O29" t="s">
-        <v>60</v>
-      </c>
-      <c r="P29" t="s"/>
-      <c r="Q29" t="s"/>
       <c r="R29" t="s"/>
-      <c r="S29" t="s"/>
+      <c r="S29" t="n">
+        <v>4</v>
+      </c>
       <c r="T29" t="s"/>
-      <c r="U29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
       <c r="V29" t="n">
         <v>0</v>
       </c>
-      <c r="W29" t="s">
-        <v>236</v>
-      </c>
-      <c r="X29" t="s">
-        <v>237</v>
-      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
       <c r="Y29" t="s">
-        <v>238</v>
+        <v>253</v>
       </c>
     </row>
     <row r="30">
@@ -3702,7 +4666,7 @@
         <v>44</v>
       </c>
       <c r="F30" t="s">
-        <v>239</v>
+        <v>254</v>
       </c>
       <c r="G30" t="s">
         <v>46</v>
@@ -3711,47 +4675,39 @@
         <v>47</v>
       </c>
       <c r="I30" t="s">
-        <v>240</v>
+        <v>255</v>
       </c>
       <c r="J30" t="s">
-        <v>241</v>
+        <v>256</v>
       </c>
       <c r="K30" t="s">
-        <v>242</v>
+        <v>257</v>
       </c>
       <c r="L30" t="s">
-        <v>243</v>
+        <v>258</v>
       </c>
       <c r="M30" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N30" t="s">
-        <v>235</v>
+        <v>259</v>
       </c>
       <c r="O30" t="s">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="P30" t="s"/>
       <c r="Q30" t="s"/>
-      <c r="R30" t="n">
-        <v>5</v>
-      </c>
+      <c r="R30" t="s"/>
       <c r="S30" t="s"/>
       <c r="T30" t="s"/>
-      <c r="U30" t="n">
-        <v>5</v>
-      </c>
+      <c r="U30" t="s"/>
       <c r="V30" t="n">
         <v>0</v>
       </c>
-      <c r="W30" t="s">
-        <v>244</v>
-      </c>
-      <c r="X30" t="s">
-        <v>245</v>
-      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
       <c r="Y30" t="s">
-        <v>246</v>
+        <v>260</v>
       </c>
     </row>
     <row r="31">
@@ -3767,7 +4723,7 @@
         <v>44</v>
       </c>
       <c r="F31" t="s">
-        <v>247</v>
+        <v>261</v>
       </c>
       <c r="G31" t="s">
         <v>46</v>
@@ -3776,47 +4732,39 @@
         <v>47</v>
       </c>
       <c r="I31" t="s">
-        <v>248</v>
+        <v>262</v>
       </c>
       <c r="J31" t="s">
-        <v>249</v>
+        <v>263</v>
       </c>
       <c r="K31" t="s">
-        <v>250</v>
+        <v>264</v>
       </c>
       <c r="L31" t="s">
-        <v>251</v>
+        <v>265</v>
       </c>
       <c r="M31" t="n">
         <v>5</v>
       </c>
       <c r="N31" t="s">
-        <v>252</v>
+        <v>266</v>
       </c>
       <c r="O31" t="s">
-        <v>149</v>
+        <v>61</v>
       </c>
       <c r="P31" t="s"/>
       <c r="Q31" t="s"/>
-      <c r="R31" t="n">
-        <v>5</v>
-      </c>
+      <c r="R31" t="s"/>
       <c r="S31" t="s"/>
       <c r="T31" t="s"/>
-      <c r="U31" t="n">
-        <v>5</v>
-      </c>
+      <c r="U31" t="s"/>
       <c r="V31" t="n">
         <v>0</v>
       </c>
-      <c r="W31" t="s">
-        <v>253</v>
-      </c>
-      <c r="X31" t="s">
-        <v>254</v>
-      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
       <c r="Y31" t="s">
-        <v>255</v>
+        <v>265</v>
       </c>
     </row>
     <row r="32">
@@ -3832,7 +4780,7 @@
         <v>44</v>
       </c>
       <c r="F32" t="s">
-        <v>256</v>
+        <v>267</v>
       </c>
       <c r="G32" t="s">
         <v>46</v>
@@ -3841,47 +4789,43 @@
         <v>47</v>
       </c>
       <c r="I32" t="s">
-        <v>257</v>
+        <v>268</v>
       </c>
       <c r="J32" t="s">
-        <v>258</v>
+        <v>269</v>
       </c>
       <c r="K32" t="s">
-        <v>259</v>
+        <v>270</v>
       </c>
       <c r="L32" t="s">
-        <v>260</v>
+        <v>271</v>
       </c>
       <c r="M32" t="n">
         <v>2</v>
       </c>
       <c r="N32" t="s">
-        <v>261</v>
+        <v>266</v>
       </c>
       <c r="O32" t="s">
-        <v>99</v>
-      </c>
-      <c r="P32" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q32" t="s"/>
+        <v>53</v>
+      </c>
+      <c r="P32" t="s"/>
+      <c r="Q32" t="n">
+        <v>2</v>
+      </c>
       <c r="R32" t="s"/>
       <c r="S32" t="s"/>
       <c r="T32" t="s"/>
       <c r="U32" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
       </c>
-      <c r="W32" t="s">
-        <v>262</v>
-      </c>
-      <c r="X32" t="s">
-        <v>263</v>
-      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
       <c r="Y32" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="33">
@@ -3897,7 +4841,7 @@
         <v>44</v>
       </c>
       <c r="F33" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="G33" t="s">
         <v>46</v>
@@ -3906,43 +4850,39 @@
         <v>47</v>
       </c>
       <c r="I33" t="s">
+        <v>274</v>
+      </c>
+      <c r="J33" t="s">
+        <v>269</v>
+      </c>
+      <c r="K33" t="s">
+        <v>275</v>
+      </c>
+      <c r="L33" t="s">
+        <v>276</v>
+      </c>
+      <c r="M33" t="n">
+        <v>5</v>
+      </c>
+      <c r="N33" t="s">
         <v>266</v>
       </c>
-      <c r="J33" t="s">
-        <v>267</v>
-      </c>
-      <c r="K33" t="s">
-        <v>268</v>
-      </c>
-      <c r="L33" t="s">
-        <v>269</v>
-      </c>
-      <c r="M33" t="n">
-        <v>4</v>
-      </c>
-      <c r="N33" t="s">
-        <v>270</v>
-      </c>
       <c r="O33" t="s">
-        <v>99</v>
+        <v>53</v>
       </c>
       <c r="P33" t="s"/>
       <c r="Q33" t="s"/>
       <c r="R33" t="s"/>
-      <c r="S33" t="n">
-        <v>4</v>
-      </c>
+      <c r="S33" t="s"/>
       <c r="T33" t="s"/>
-      <c r="U33" t="n">
-        <v>4</v>
-      </c>
+      <c r="U33" t="s"/>
       <c r="V33" t="n">
         <v>0</v>
       </c>
       <c r="W33" t="s"/>
       <c r="X33" t="s"/>
       <c r="Y33" t="s">
-        <v>269</v>
+        <v>276</v>
       </c>
     </row>
     <row r="34">
@@ -3958,7 +4898,7 @@
         <v>44</v>
       </c>
       <c r="F34" t="s">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="G34" t="s">
         <v>46</v>
@@ -3967,33 +4907,31 @@
         <v>47</v>
       </c>
       <c r="I34" t="s">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="J34" t="s">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="K34" t="s">
-        <v>274</v>
+        <v>280</v>
       </c>
       <c r="L34" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="M34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N34" t="s">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="O34" t="s">
-        <v>53</v>
+        <v>76</v>
       </c>
       <c r="P34" t="s"/>
       <c r="Q34" t="n">
-        <v>3</v>
-      </c>
-      <c r="R34" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R34" t="s"/>
       <c r="S34" t="s"/>
       <c r="T34" t="s"/>
       <c r="U34" t="n">
@@ -4005,7 +4943,7 @@
       <c r="W34" t="s"/>
       <c r="X34" t="s"/>
       <c r="Y34" t="s">
-        <v>275</v>
+        <v>281</v>
       </c>
     </row>
     <row r="35">
@@ -4021,7 +4959,7 @@
         <v>44</v>
       </c>
       <c r="F35" t="s">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="G35" t="s">
         <v>46</v>
@@ -4030,25 +4968,25 @@
         <v>47</v>
       </c>
       <c r="I35" t="s">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="J35" t="s">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="K35" t="s">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="L35" t="s">
-        <v>281</v>
+        <v>286</v>
       </c>
       <c r="M35" t="n">
         <v>3</v>
       </c>
       <c r="N35" t="s">
-        <v>282</v>
+        <v>287</v>
       </c>
       <c r="O35" t="s">
-        <v>283</v>
+        <v>53</v>
       </c>
       <c r="P35" t="s"/>
       <c r="Q35" t="s"/>
@@ -4059,12 +4997,8 @@
       <c r="V35" t="n">
         <v>0</v>
       </c>
-      <c r="W35" t="s">
-        <v>284</v>
-      </c>
-      <c r="X35" t="s">
-        <v>285</v>
-      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
       <c r="Y35" t="s">
         <v>286</v>
       </c>
@@ -4082,7 +5016,7 @@
         <v>44</v>
       </c>
       <c r="F36" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="G36" t="s">
         <v>46</v>
@@ -4091,53 +5025,43 @@
         <v>47</v>
       </c>
       <c r="I36" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="J36" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="K36" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L36" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N36" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="O36" t="s">
-        <v>60</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P36" t="s"/>
+      <c r="Q36" t="s"/>
+      <c r="R36" t="s"/>
       <c r="S36" t="n">
         <v>4</v>
       </c>
       <c r="T36" t="s"/>
       <c r="U36" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
       </c>
-      <c r="W36" t="s">
-        <v>293</v>
-      </c>
-      <c r="X36" t="s">
-        <v>294</v>
-      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
       <c r="Y36" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="37">
@@ -4153,34 +5077,34 @@
         <v>44</v>
       </c>
       <c r="F37" t="s">
+        <v>294</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>295</v>
+      </c>
+      <c r="J37" t="s">
         <v>296</v>
       </c>
-      <c r="G37" t="s">
-        <v>46</v>
-      </c>
-      <c r="H37" t="s">
-        <v>47</v>
-      </c>
-      <c r="I37" t="s">
+      <c r="K37" t="s">
         <v>297</v>
       </c>
-      <c r="J37" t="s">
+      <c r="L37" t="s">
         <v>298</v>
-      </c>
-      <c r="K37" t="s">
-        <v>299</v>
-      </c>
-      <c r="L37" t="s">
-        <v>300</v>
       </c>
       <c r="M37" t="n">
         <v>3</v>
       </c>
       <c r="N37" t="s">
-        <v>292</v>
+        <v>287</v>
       </c>
       <c r="O37" t="s">
-        <v>60</v>
+        <v>76</v>
       </c>
       <c r="P37" t="s"/>
       <c r="Q37" t="s"/>
@@ -4192,13 +5116,13 @@
         <v>0</v>
       </c>
       <c r="W37" t="s">
+        <v>299</v>
+      </c>
+      <c r="X37" t="s">
+        <v>300</v>
+      </c>
+      <c r="Y37" t="s">
         <v>301</v>
-      </c>
-      <c r="X37" t="s">
-        <v>302</v>
-      </c>
-      <c r="Y37" t="s">
-        <v>303</v>
       </c>
     </row>
     <row r="38">
@@ -4214,62 +5138,48 @@
         <v>44</v>
       </c>
       <c r="F38" t="s">
+        <v>302</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>303</v>
+      </c>
+      <c r="J38" t="s">
         <v>304</v>
       </c>
-      <c r="G38" t="s">
-        <v>46</v>
-      </c>
-      <c r="H38" t="s">
-        <v>47</v>
-      </c>
-      <c r="I38" t="s">
+      <c r="K38" t="s">
         <v>305</v>
       </c>
-      <c r="J38" t="s">
+      <c r="L38" t="s">
         <v>306</v>
       </c>
-      <c r="K38" t="s">
-        <v>307</v>
-      </c>
-      <c r="L38" t="s">
-        <v>308</v>
-      </c>
       <c r="M38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N38" t="s">
-        <v>309</v>
+        <v>293</v>
       </c>
       <c r="O38" t="s">
-        <v>60</v>
-      </c>
-      <c r="P38" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q38" t="n">
-        <v>3</v>
-      </c>
-      <c r="R38" t="n">
-        <v>4</v>
-      </c>
-      <c r="S38" t="n">
-        <v>4</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P38" t="s"/>
+      <c r="Q38" t="s"/>
+      <c r="R38" t="s"/>
+      <c r="S38" t="s"/>
       <c r="T38" t="s"/>
-      <c r="U38" t="n">
-        <v>3</v>
-      </c>
+      <c r="U38" t="s"/>
       <c r="V38" t="n">
         <v>0</v>
       </c>
-      <c r="W38" t="s">
-        <v>310</v>
-      </c>
-      <c r="X38" t="s">
-        <v>311</v>
-      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
       <c r="Y38" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
     </row>
     <row r="39">
@@ -4285,7 +5195,7 @@
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="G39" t="s">
         <v>46</v>
@@ -4294,49 +5204,45 @@
         <v>47</v>
       </c>
       <c r="I39" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="J39" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="K39" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="L39" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="M39" t="n">
         <v>4</v>
       </c>
-      <c r="N39" t="s"/>
-      <c r="O39" t="s"/>
+      <c r="N39" t="s">
+        <v>293</v>
+      </c>
+      <c r="O39" t="s">
+        <v>61</v>
+      </c>
       <c r="P39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q39" t="n">
-        <v>3</v>
-      </c>
-      <c r="R39" t="n">
-        <v>3</v>
-      </c>
-      <c r="S39" t="n">
-        <v>4</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="R39" t="s"/>
+      <c r="S39" t="s"/>
       <c r="T39" t="s"/>
       <c r="U39" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V39" t="n">
         <v>0</v>
       </c>
-      <c r="W39" t="s">
-        <v>310</v>
-      </c>
-      <c r="X39" t="s">
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
         <v>311</v>
-      </c>
-      <c r="Y39" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="40">
@@ -4352,7 +5258,7 @@
         <v>44</v>
       </c>
       <c r="F40" t="s">
-        <v>319</v>
+        <v>312</v>
       </c>
       <c r="G40" t="s">
         <v>46</v>
@@ -4361,49 +5267,35 @@
         <v>47</v>
       </c>
       <c r="I40" t="s">
-        <v>320</v>
+        <v>313</v>
       </c>
       <c r="J40" t="s">
-        <v>321</v>
+        <v>314</v>
       </c>
       <c r="K40" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="L40" t="s">
-        <v>323</v>
+        <v>316</v>
       </c>
       <c r="M40" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N40" t="s"/>
       <c r="O40" t="s"/>
-      <c r="P40" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q40" t="n">
-        <v>3</v>
-      </c>
-      <c r="R40" t="n">
-        <v>3</v>
-      </c>
-      <c r="S40" t="n">
-        <v>4</v>
-      </c>
+      <c r="P40" t="s"/>
+      <c r="Q40" t="s"/>
+      <c r="R40" t="s"/>
+      <c r="S40" t="s"/>
       <c r="T40" t="s"/>
-      <c r="U40" t="n">
-        <v>3</v>
-      </c>
+      <c r="U40" t="s"/>
       <c r="V40" t="n">
         <v>0</v>
       </c>
-      <c r="W40" t="s">
-        <v>324</v>
-      </c>
-      <c r="X40" t="s">
-        <v>325</v>
-      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
       <c r="Y40" t="s">
-        <v>326</v>
+        <v>316</v>
       </c>
     </row>
     <row r="41">
@@ -4419,7 +5311,7 @@
         <v>44</v>
       </c>
       <c r="F41" t="s">
-        <v>327</v>
+        <v>317</v>
       </c>
       <c r="G41" t="s">
         <v>46</v>
@@ -4428,45 +5320,49 @@
         <v>47</v>
       </c>
       <c r="I41" t="s">
-        <v>328</v>
+        <v>318</v>
       </c>
       <c r="J41" t="s">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="K41" t="s">
-        <v>330</v>
+        <v>320</v>
       </c>
       <c r="L41" t="s">
-        <v>331</v>
+        <v>321</v>
       </c>
       <c r="M41" t="n">
-        <v>5</v>
-      </c>
-      <c r="N41" t="s"/>
-      <c r="O41" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N41" t="s">
+        <v>322</v>
+      </c>
+      <c r="O41" t="s">
+        <v>61</v>
+      </c>
       <c r="P41" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="Q41" t="s"/>
       <c r="R41" t="n">
-        <v>5</v>
-      </c>
-      <c r="S41" t="n">
-        <v>5</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="S41" t="s"/>
       <c r="T41" t="s"/>
       <c r="U41" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="V41" t="n">
         <v>0</v>
       </c>
-      <c r="W41" t="s"/>
-      <c r="X41" t="s"/>
+      <c r="W41" t="s">
+        <v>323</v>
+      </c>
+      <c r="X41" t="s">
+        <v>324</v>
+      </c>
       <c r="Y41" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
     </row>
     <row r="42">
@@ -4482,7 +5378,7 @@
         <v>44</v>
       </c>
       <c r="F42" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G42" t="s">
         <v>46</v>
@@ -4491,53 +5387,45 @@
         <v>47</v>
       </c>
       <c r="I42" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="J42" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="K42" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="L42" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="M42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N42" t="s">
-        <v>337</v>
+        <v>322</v>
       </c>
       <c r="O42" t="s">
-        <v>60</v>
+        <v>248</v>
       </c>
       <c r="P42" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q42" t="n">
-        <v>3</v>
-      </c>
-      <c r="R42" t="n">
-        <v>3</v>
-      </c>
+        <v>4</v>
+      </c>
+      <c r="Q42" t="s"/>
+      <c r="R42" t="s"/>
       <c r="S42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T42" t="s"/>
       <c r="U42" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V42" t="n">
         <v>0</v>
       </c>
-      <c r="W42" t="s">
-        <v>338</v>
-      </c>
-      <c r="X42" t="s">
-        <v>339</v>
-      </c>
+      <c r="W42" t="s"/>
+      <c r="X42" t="s"/>
       <c r="Y42" t="s">
-        <v>340</v>
+        <v>330</v>
       </c>
     </row>
     <row r="43">
@@ -4553,7 +5441,7 @@
         <v>44</v>
       </c>
       <c r="F43" t="s">
-        <v>341</v>
+        <v>331</v>
       </c>
       <c r="G43" t="s">
         <v>46</v>
@@ -4562,38 +5450,32 @@
         <v>47</v>
       </c>
       <c r="I43" t="s">
-        <v>342</v>
+        <v>332</v>
       </c>
       <c r="J43" t="s">
-        <v>343</v>
+        <v>333</v>
       </c>
       <c r="K43" t="s">
-        <v>344</v>
+        <v>334</v>
       </c>
       <c r="L43" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
       <c r="M43" t="n">
         <v>4</v>
       </c>
       <c r="N43" t="s">
-        <v>346</v>
+        <v>336</v>
       </c>
       <c r="O43" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
       </c>
-      <c r="Q43" t="n">
-        <v>3</v>
-      </c>
-      <c r="R43" t="n">
-        <v>4</v>
-      </c>
-      <c r="S43" t="n">
-        <v>4</v>
-      </c>
+      <c r="Q43" t="s"/>
+      <c r="R43" t="s"/>
+      <c r="S43" t="s"/>
       <c r="T43" t="s"/>
       <c r="U43" t="n">
         <v>4</v>
@@ -4604,7 +5486,7 @@
       <c r="W43" t="s"/>
       <c r="X43" t="s"/>
       <c r="Y43" t="s">
-        <v>345</v>
+        <v>335</v>
       </c>
     </row>
     <row r="44">
@@ -4620,7 +5502,7 @@
         <v>44</v>
       </c>
       <c r="F44" t="s">
-        <v>347</v>
+        <v>337</v>
       </c>
       <c r="G44" t="s">
         <v>46</v>
@@ -4629,53 +5511,45 @@
         <v>47</v>
       </c>
       <c r="I44" t="s">
-        <v>348</v>
+        <v>338</v>
       </c>
       <c r="J44" t="s">
-        <v>349</v>
+        <v>339</v>
       </c>
       <c r="K44" t="s">
-        <v>350</v>
+        <v>340</v>
       </c>
       <c r="L44" t="s">
-        <v>351</v>
+        <v>341</v>
       </c>
       <c r="M44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N44" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="O44" t="s">
-        <v>60</v>
-      </c>
-      <c r="P44" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P44" t="s"/>
       <c r="Q44" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R44" t="n">
-        <v>4</v>
-      </c>
-      <c r="S44" t="n">
-        <v>4</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="S44" t="s"/>
       <c r="T44" t="s"/>
       <c r="U44" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
       </c>
-      <c r="W44" t="s">
-        <v>353</v>
-      </c>
-      <c r="X44" t="s">
-        <v>354</v>
-      </c>
+      <c r="W44" t="s"/>
+      <c r="X44" t="s"/>
       <c r="Y44" t="s">
-        <v>355</v>
+        <v>342</v>
       </c>
     </row>
     <row r="45">
@@ -4691,7 +5565,7 @@
         <v>44</v>
       </c>
       <c r="F45" t="s">
-        <v>356</v>
+        <v>343</v>
       </c>
       <c r="G45" t="s">
         <v>46</v>
@@ -4700,53 +5574,35 @@
         <v>47</v>
       </c>
       <c r="I45" t="s">
-        <v>357</v>
+        <v>344</v>
       </c>
       <c r="J45" t="s">
-        <v>358</v>
+        <v>345</v>
       </c>
       <c r="K45" t="s">
-        <v>359</v>
+        <v>346</v>
       </c>
       <c r="L45" t="s">
-        <v>360</v>
+        <v>347</v>
       </c>
       <c r="M45" t="n">
-        <v>4</v>
-      </c>
-      <c r="N45" t="s">
-        <v>361</v>
-      </c>
-      <c r="O45" t="s">
-        <v>60</v>
-      </c>
-      <c r="P45" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>4</v>
-      </c>
-      <c r="R45" t="n">
-        <v>5</v>
-      </c>
-      <c r="S45" t="n">
-        <v>4</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="N45" t="s"/>
+      <c r="O45" t="s"/>
+      <c r="P45" t="s"/>
+      <c r="Q45" t="s"/>
+      <c r="R45" t="s"/>
+      <c r="S45" t="s"/>
       <c r="T45" t="s"/>
-      <c r="U45" t="n">
-        <v>4</v>
-      </c>
+      <c r="U45" t="s"/>
       <c r="V45" t="n">
         <v>0</v>
       </c>
-      <c r="W45" t="s">
-        <v>362</v>
-      </c>
-      <c r="X45" t="s">
-        <v>363</v>
-      </c>
+      <c r="W45" t="s"/>
+      <c r="X45" t="s"/>
       <c r="Y45" t="s">
-        <v>364</v>
+        <v>347</v>
       </c>
     </row>
     <row r="46">
@@ -4762,7 +5618,7 @@
         <v>44</v>
       </c>
       <c r="F46" t="s">
-        <v>365</v>
+        <v>348</v>
       </c>
       <c r="G46" t="s">
         <v>46</v>
@@ -4771,53 +5627,35 @@
         <v>47</v>
       </c>
       <c r="I46" t="s">
-        <v>366</v>
+        <v>349</v>
       </c>
       <c r="J46" t="s">
-        <v>367</v>
+        <v>350</v>
       </c>
       <c r="K46" t="s">
-        <v>368</v>
+        <v>351</v>
       </c>
       <c r="L46" t="s">
-        <v>369</v>
+        <v>352</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
-      </c>
-      <c r="N46" t="s">
-        <v>370</v>
-      </c>
-      <c r="O46" t="s">
-        <v>60</v>
-      </c>
-      <c r="P46" t="n">
-        <v>2</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>1</v>
-      </c>
-      <c r="R46" t="n">
         <v>3</v>
       </c>
-      <c r="S46" t="n">
-        <v>1</v>
-      </c>
+      <c r="N46" t="s"/>
+      <c r="O46" t="s"/>
+      <c r="P46" t="s"/>
+      <c r="Q46" t="s"/>
+      <c r="R46" t="s"/>
+      <c r="S46" t="s"/>
       <c r="T46" t="s"/>
-      <c r="U46" t="n">
-        <v>1</v>
-      </c>
+      <c r="U46" t="s"/>
       <c r="V46" t="n">
         <v>0</v>
       </c>
-      <c r="W46" t="s">
-        <v>371</v>
-      </c>
-      <c r="X46" t="s">
-        <v>372</v>
-      </c>
+      <c r="W46" t="s"/>
+      <c r="X46" t="s"/>
       <c r="Y46" t="s">
-        <v>373</v>
+        <v>352</v>
       </c>
     </row>
     <row r="47">
@@ -4833,7 +5671,7 @@
         <v>44</v>
       </c>
       <c r="F47" t="s">
-        <v>374</v>
+        <v>353</v>
       </c>
       <c r="G47" t="s">
         <v>46</v>
@@ -4842,53 +5680,39 @@
         <v>47</v>
       </c>
       <c r="I47" t="s">
-        <v>375</v>
+        <v>354</v>
       </c>
       <c r="J47" t="s">
-        <v>376</v>
+        <v>355</v>
       </c>
       <c r="K47" t="s">
-        <v>377</v>
+        <v>356</v>
       </c>
       <c r="L47" t="s">
-        <v>378</v>
+        <v>357</v>
       </c>
       <c r="M47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="N47" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="O47" t="s">
-        <v>60</v>
-      </c>
-      <c r="P47" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q47" t="n">
-        <v>4</v>
-      </c>
-      <c r="R47" t="n">
-        <v>5</v>
-      </c>
-      <c r="S47" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P47" t="s"/>
+      <c r="Q47" t="s"/>
+      <c r="R47" t="s"/>
+      <c r="S47" t="s"/>
       <c r="T47" t="s"/>
-      <c r="U47" t="n">
-        <v>5</v>
-      </c>
+      <c r="U47" t="s"/>
       <c r="V47" t="n">
         <v>0</v>
       </c>
-      <c r="W47" t="s">
-        <v>380</v>
-      </c>
-      <c r="X47" t="s">
-        <v>381</v>
-      </c>
+      <c r="W47" t="s"/>
+      <c r="X47" t="s"/>
       <c r="Y47" t="s">
-        <v>382</v>
+        <v>357</v>
       </c>
     </row>
     <row r="48">
@@ -4904,7 +5728,7 @@
         <v>44</v>
       </c>
       <c r="F48" t="s">
-        <v>383</v>
+        <v>359</v>
       </c>
       <c r="G48" t="s">
         <v>46</v>
@@ -4913,53 +5737,39 @@
         <v>47</v>
       </c>
       <c r="I48" t="s">
-        <v>384</v>
+        <v>360</v>
       </c>
       <c r="J48" t="s">
-        <v>385</v>
+        <v>361</v>
       </c>
       <c r="K48" t="s">
-        <v>386</v>
+        <v>362</v>
       </c>
       <c r="L48" t="s">
-        <v>387</v>
+        <v>363</v>
       </c>
       <c r="M48" t="n">
         <v>5</v>
       </c>
       <c r="N48" t="s">
-        <v>379</v>
+        <v>358</v>
       </c>
       <c r="O48" t="s">
-        <v>53</v>
-      </c>
-      <c r="P48" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>5</v>
-      </c>
-      <c r="R48" t="n">
-        <v>5</v>
-      </c>
-      <c r="S48" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P48" t="s"/>
+      <c r="Q48" t="s"/>
+      <c r="R48" t="s"/>
+      <c r="S48" t="s"/>
       <c r="T48" t="s"/>
-      <c r="U48" t="n">
-        <v>5</v>
-      </c>
+      <c r="U48" t="s"/>
       <c r="V48" t="n">
         <v>0</v>
       </c>
-      <c r="W48" t="s">
-        <v>388</v>
-      </c>
-      <c r="X48" t="s">
-        <v>389</v>
-      </c>
+      <c r="W48" t="s"/>
+      <c r="X48" t="s"/>
       <c r="Y48" t="s">
-        <v>390</v>
+        <v>363</v>
       </c>
     </row>
     <row r="49">
@@ -4975,7 +5785,7 @@
         <v>44</v>
       </c>
       <c r="F49" t="s">
-        <v>391</v>
+        <v>364</v>
       </c>
       <c r="G49" t="s">
         <v>46</v>
@@ -4984,53 +5794,47 @@
         <v>47</v>
       </c>
       <c r="I49" t="s">
-        <v>392</v>
+        <v>365</v>
       </c>
       <c r="J49" t="s">
-        <v>393</v>
+        <v>366</v>
       </c>
       <c r="K49" t="s">
-        <v>394</v>
+        <v>367</v>
       </c>
       <c r="L49" t="s">
-        <v>395</v>
+        <v>368</v>
       </c>
       <c r="M49" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="N49" t="s">
-        <v>396</v>
+        <v>369</v>
       </c>
       <c r="O49" t="s">
-        <v>60</v>
-      </c>
-      <c r="P49" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>2</v>
-      </c>
-      <c r="R49" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P49" t="s"/>
+      <c r="Q49" t="s"/>
+      <c r="R49" t="s"/>
       <c r="S49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T49" t="s"/>
       <c r="U49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V49" t="n">
         <v>0</v>
       </c>
       <c r="W49" t="s">
-        <v>388</v>
+        <v>370</v>
       </c>
       <c r="X49" t="s">
-        <v>389</v>
+        <v>371</v>
       </c>
       <c r="Y49" t="s">
-        <v>397</v>
+        <v>372</v>
       </c>
     </row>
     <row r="50">
@@ -5046,7 +5850,7 @@
         <v>44</v>
       </c>
       <c r="F50" t="s">
-        <v>398</v>
+        <v>373</v>
       </c>
       <c r="G50" t="s">
         <v>46</v>
@@ -5055,53 +5859,39 @@
         <v>47</v>
       </c>
       <c r="I50" t="s">
-        <v>399</v>
+        <v>374</v>
       </c>
       <c r="J50" t="s">
-        <v>400</v>
+        <v>375</v>
       </c>
       <c r="K50" t="s">
-        <v>401</v>
+        <v>376</v>
       </c>
       <c r="L50" t="s">
-        <v>402</v>
+        <v>377</v>
       </c>
       <c r="M50" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="N50" t="s">
-        <v>403</v>
+        <v>369</v>
       </c>
       <c r="O50" t="s">
-        <v>149</v>
-      </c>
-      <c r="P50" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>4</v>
-      </c>
-      <c r="R50" t="n">
-        <v>4</v>
-      </c>
-      <c r="S50" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P50" t="s"/>
+      <c r="Q50" t="s"/>
+      <c r="R50" t="s"/>
+      <c r="S50" t="s"/>
       <c r="T50" t="s"/>
-      <c r="U50" t="n">
-        <v>5</v>
-      </c>
+      <c r="U50" t="s"/>
       <c r="V50" t="n">
         <v>0</v>
       </c>
-      <c r="W50" t="s">
-        <v>404</v>
-      </c>
-      <c r="X50" t="s">
-        <v>405</v>
-      </c>
+      <c r="W50" t="s"/>
+      <c r="X50" t="s"/>
       <c r="Y50" t="s">
-        <v>406</v>
+        <v>378</v>
       </c>
     </row>
     <row r="51">
@@ -5117,7 +5907,7 @@
         <v>44</v>
       </c>
       <c r="F51" t="s">
-        <v>407</v>
+        <v>379</v>
       </c>
       <c r="G51" t="s">
         <v>46</v>
@@ -5126,53 +5916,49 @@
         <v>47</v>
       </c>
       <c r="I51" t="s">
-        <v>408</v>
+        <v>380</v>
       </c>
       <c r="J51" t="s">
-        <v>409</v>
+        <v>381</v>
       </c>
       <c r="K51" t="s">
-        <v>410</v>
+        <v>382</v>
       </c>
       <c r="L51" t="s">
-        <v>411</v>
+        <v>383</v>
       </c>
       <c r="M51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="N51" t="s">
-        <v>412</v>
+        <v>384</v>
       </c>
       <c r="O51" t="s">
-        <v>60</v>
-      </c>
-      <c r="P51" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P51" t="s"/>
       <c r="Q51" t="n">
-        <v>5</v>
-      </c>
-      <c r="R51" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="R51" t="s"/>
       <c r="S51" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="T51" t="s"/>
       <c r="U51" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V51" t="n">
         <v>0</v>
       </c>
       <c r="W51" t="s">
-        <v>404</v>
+        <v>385</v>
       </c>
       <c r="X51" t="s">
-        <v>405</v>
+        <v>386</v>
       </c>
       <c r="Y51" t="s">
-        <v>413</v>
+        <v>387</v>
       </c>
     </row>
     <row r="52">
@@ -5188,7 +5974,7 @@
         <v>44</v>
       </c>
       <c r="F52" t="s">
-        <v>414</v>
+        <v>388</v>
       </c>
       <c r="G52" t="s">
         <v>46</v>
@@ -5197,53 +5983,43 @@
         <v>47</v>
       </c>
       <c r="I52" t="s">
-        <v>415</v>
+        <v>389</v>
       </c>
       <c r="J52" t="s">
-        <v>416</v>
+        <v>390</v>
       </c>
       <c r="K52" t="s">
-        <v>417</v>
+        <v>391</v>
       </c>
       <c r="L52" t="s">
-        <v>418</v>
+        <v>392</v>
       </c>
       <c r="M52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N52" t="s">
-        <v>419</v>
+        <v>384</v>
       </c>
       <c r="O52" t="s">
-        <v>60</v>
-      </c>
-      <c r="P52" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q52" t="n">
-        <v>5</v>
-      </c>
-      <c r="R52" t="n">
-        <v>3</v>
-      </c>
-      <c r="S52" t="n">
-        <v>5</v>
-      </c>
+        <v>61</v>
+      </c>
+      <c r="P52" t="s"/>
+      <c r="Q52" t="s"/>
+      <c r="R52" t="s"/>
+      <c r="S52" t="s"/>
       <c r="T52" t="s"/>
-      <c r="U52" t="n">
-        <v>4</v>
-      </c>
+      <c r="U52" t="s"/>
       <c r="V52" t="n">
         <v>0</v>
       </c>
       <c r="W52" t="s">
-        <v>404</v>
+        <v>393</v>
       </c>
       <c r="X52" t="s">
-        <v>405</v>
+        <v>394</v>
       </c>
       <c r="Y52" t="s">
-        <v>420</v>
+        <v>395</v>
       </c>
     </row>
     <row r="53">
@@ -5259,7 +6035,7 @@
         <v>44</v>
       </c>
       <c r="F53" t="s">
-        <v>421</v>
+        <v>396</v>
       </c>
       <c r="G53" t="s">
         <v>46</v>
@@ -5268,34 +6044,32 @@
         <v>47</v>
       </c>
       <c r="I53" t="s">
-        <v>422</v>
+        <v>397</v>
       </c>
       <c r="J53" t="s">
-        <v>423</v>
+        <v>398</v>
       </c>
       <c r="K53" t="s">
-        <v>424</v>
+        <v>399</v>
       </c>
       <c r="L53" t="s">
-        <v>425</v>
+        <v>400</v>
       </c>
       <c r="M53" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N53" t="s">
-        <v>426</v>
+        <v>384</v>
       </c>
       <c r="O53" t="s">
-        <v>60</v>
-      </c>
-      <c r="P53" t="n">
-        <v>5</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P53" t="s"/>
       <c r="Q53" t="s"/>
-      <c r="R53" t="s"/>
-      <c r="S53" t="n">
-        <v>5</v>
-      </c>
+      <c r="R53" t="n">
+        <v>5</v>
+      </c>
+      <c r="S53" t="s"/>
       <c r="T53" t="s"/>
       <c r="U53" t="n">
         <v>5</v>
@@ -5304,13 +6078,13 @@
         <v>0</v>
       </c>
       <c r="W53" t="s">
-        <v>427</v>
+        <v>401</v>
       </c>
       <c r="X53" t="s">
-        <v>428</v>
+        <v>402</v>
       </c>
       <c r="Y53" t="s">
-        <v>429</v>
+        <v>403</v>
       </c>
     </row>
     <row r="54">
@@ -5326,7 +6100,7 @@
         <v>44</v>
       </c>
       <c r="F54" t="s">
-        <v>430</v>
+        <v>404</v>
       </c>
       <c r="G54" t="s">
         <v>46</v>
@@ -5335,38 +6109,32 @@
         <v>47</v>
       </c>
       <c r="I54" t="s">
-        <v>431</v>
+        <v>405</v>
       </c>
       <c r="J54" t="s">
-        <v>432</v>
+        <v>406</v>
       </c>
       <c r="K54" t="s">
-        <v>433</v>
+        <v>407</v>
       </c>
       <c r="L54" t="s">
-        <v>434</v>
+        <v>408</v>
       </c>
       <c r="M54" t="n">
         <v>5</v>
       </c>
       <c r="N54" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="O54" t="s">
-        <v>60</v>
-      </c>
-      <c r="P54" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q54" t="n">
-        <v>5</v>
-      </c>
+        <v>248</v>
+      </c>
+      <c r="P54" t="s"/>
+      <c r="Q54" t="s"/>
       <c r="R54" t="n">
         <v>5</v>
       </c>
-      <c r="S54" t="n">
-        <v>5</v>
-      </c>
+      <c r="S54" t="s"/>
       <c r="T54" t="s"/>
       <c r="U54" t="n">
         <v>5</v>
@@ -5375,13 +6143,13 @@
         <v>0</v>
       </c>
       <c r="W54" t="s">
-        <v>436</v>
+        <v>410</v>
       </c>
       <c r="X54" t="s">
-        <v>437</v>
+        <v>411</v>
       </c>
       <c r="Y54" t="s">
-        <v>438</v>
+        <v>412</v>
       </c>
     </row>
     <row r="55">
@@ -5397,7 +6165,7 @@
         <v>44</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>413</v>
       </c>
       <c r="G55" t="s">
         <v>46</v>
@@ -5406,53 +6174,49 @@
         <v>47</v>
       </c>
       <c r="I55" t="s">
-        <v>440</v>
+        <v>414</v>
       </c>
       <c r="J55" t="s">
-        <v>441</v>
+        <v>406</v>
       </c>
       <c r="K55" t="s">
-        <v>442</v>
+        <v>415</v>
       </c>
       <c r="L55" t="s">
-        <v>443</v>
+        <v>416</v>
       </c>
       <c r="M55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N55" t="s">
-        <v>435</v>
+        <v>409</v>
       </c>
       <c r="O55" t="s">
-        <v>60</v>
+        <v>53</v>
       </c>
       <c r="P55" t="n">
         <v>5</v>
       </c>
-      <c r="Q55" t="n">
-        <v>5</v>
-      </c>
-      <c r="R55" t="n">
-        <v>5</v>
-      </c>
+      <c r="Q55" t="s"/>
+      <c r="R55" t="s"/>
       <c r="S55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="T55" t="s"/>
       <c r="U55" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V55" t="n">
         <v>0</v>
       </c>
       <c r="W55" t="s">
-        <v>444</v>
+        <v>410</v>
       </c>
       <c r="X55" t="s">
-        <v>445</v>
+        <v>411</v>
       </c>
       <c r="Y55" t="s">
-        <v>446</v>
+        <v>417</v>
       </c>
     </row>
     <row r="56">
@@ -5468,7 +6232,7 @@
         <v>44</v>
       </c>
       <c r="F56" t="s">
-        <v>447</v>
+        <v>418</v>
       </c>
       <c r="G56" t="s">
         <v>46</v>
@@ -5477,49 +6241,43 @@
         <v>47</v>
       </c>
       <c r="I56" t="s">
-        <v>448</v>
+        <v>419</v>
       </c>
       <c r="J56" t="s">
-        <v>449</v>
+        <v>420</v>
       </c>
       <c r="K56" t="s">
-        <v>450</v>
+        <v>421</v>
       </c>
       <c r="L56" t="s">
-        <v>451</v>
+        <v>422</v>
       </c>
       <c r="M56" t="n">
         <v>4</v>
       </c>
       <c r="N56" t="s">
-        <v>452</v>
+        <v>423</v>
       </c>
       <c r="O56" t="s">
-        <v>53</v>
-      </c>
-      <c r="P56" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q56" t="n">
-        <v>4</v>
-      </c>
-      <c r="R56" t="n">
-        <v>5</v>
-      </c>
-      <c r="S56" t="n">
-        <v>4</v>
-      </c>
+        <v>424</v>
+      </c>
+      <c r="P56" t="s"/>
+      <c r="Q56" t="s"/>
+      <c r="R56" t="s"/>
+      <c r="S56" t="s"/>
       <c r="T56" t="s"/>
-      <c r="U56" t="n">
-        <v>4</v>
-      </c>
+      <c r="U56" t="s"/>
       <c r="V56" t="n">
         <v>0</v>
       </c>
-      <c r="W56" t="s"/>
-      <c r="X56" t="s"/>
+      <c r="W56" t="s">
+        <v>410</v>
+      </c>
+      <c r="X56" t="s">
+        <v>411</v>
+      </c>
       <c r="Y56" t="s">
-        <v>453</v>
+        <v>425</v>
       </c>
     </row>
     <row r="57">
@@ -5535,7 +6293,7 @@
         <v>44</v>
       </c>
       <c r="F57" t="s">
-        <v>454</v>
+        <v>426</v>
       </c>
       <c r="G57" t="s">
         <v>46</v>
@@ -5544,39 +6302,47 @@
         <v>47</v>
       </c>
       <c r="I57" t="s">
-        <v>455</v>
+        <v>427</v>
       </c>
       <c r="J57" t="s">
-        <v>456</v>
+        <v>428</v>
       </c>
       <c r="K57" t="s">
-        <v>457</v>
+        <v>429</v>
       </c>
       <c r="L57" t="s">
-        <v>458</v>
+        <v>430</v>
       </c>
       <c r="M57" t="n">
         <v>2</v>
       </c>
       <c r="N57" t="s">
-        <v>459</v>
+        <v>423</v>
       </c>
       <c r="O57" t="s">
-        <v>60</v>
-      </c>
-      <c r="P57" t="s"/>
+        <v>76</v>
+      </c>
+      <c r="P57" t="n">
+        <v>3</v>
+      </c>
       <c r="Q57" t="s"/>
       <c r="R57" t="s"/>
       <c r="S57" t="s"/>
       <c r="T57" t="s"/>
-      <c r="U57" t="s"/>
+      <c r="U57" t="n">
+        <v>3</v>
+      </c>
       <c r="V57" t="n">
         <v>0</v>
       </c>
-      <c r="W57" t="s"/>
-      <c r="X57" t="s"/>
+      <c r="W57" t="s">
+        <v>431</v>
+      </c>
+      <c r="X57" t="s">
+        <v>432</v>
+      </c>
       <c r="Y57" t="s">
-        <v>458</v>
+        <v>433</v>
       </c>
     </row>
     <row r="58">
@@ -5592,7 +6358,7 @@
         <v>44</v>
       </c>
       <c r="F58" t="s">
-        <v>460</v>
+        <v>434</v>
       </c>
       <c r="G58" t="s">
         <v>46</v>
@@ -5601,35 +6367,43 @@
         <v>47</v>
       </c>
       <c r="I58" t="s">
-        <v>461</v>
+        <v>435</v>
       </c>
       <c r="J58" t="s">
-        <v>462</v>
+        <v>436</v>
       </c>
       <c r="K58" t="s">
-        <v>463</v>
+        <v>437</v>
       </c>
       <c r="L58" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
       <c r="M58" t="n">
-        <v>3</v>
-      </c>
-      <c r="N58" t="s"/>
-      <c r="O58" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N58" t="s">
+        <v>439</v>
+      </c>
+      <c r="O58" t="s">
+        <v>76</v>
+      </c>
       <c r="P58" t="s"/>
       <c r="Q58" t="s"/>
       <c r="R58" t="s"/>
-      <c r="S58" t="s"/>
+      <c r="S58" t="n">
+        <v>4</v>
+      </c>
       <c r="T58" t="s"/>
-      <c r="U58" t="s"/>
+      <c r="U58" t="n">
+        <v>4</v>
+      </c>
       <c r="V58" t="n">
         <v>0</v>
       </c>
       <c r="W58" t="s"/>
       <c r="X58" t="s"/>
       <c r="Y58" t="s">
-        <v>464</v>
+        <v>438</v>
       </c>
     </row>
     <row r="59">
@@ -5645,7 +6419,7 @@
         <v>44</v>
       </c>
       <c r="F59" t="s">
-        <v>465</v>
+        <v>440</v>
       </c>
       <c r="G59" t="s">
         <v>46</v>
@@ -5654,41 +6428,37 @@
         <v>47</v>
       </c>
       <c r="I59" t="s">
-        <v>466</v>
+        <v>441</v>
       </c>
       <c r="J59" t="s">
-        <v>467</v>
+        <v>442</v>
       </c>
       <c r="K59" t="s">
-        <v>468</v>
+        <v>443</v>
       </c>
       <c r="L59" t="s">
-        <v>469</v>
+        <v>444</v>
       </c>
       <c r="M59" t="n">
         <v>5</v>
       </c>
       <c r="N59" t="s">
-        <v>470</v>
+        <v>445</v>
       </c>
       <c r="O59" t="s">
-        <v>60</v>
-      </c>
-      <c r="P59" t="n">
-        <v>4</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P59" t="s"/>
       <c r="Q59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R59" t="n">
         <v>4</v>
       </c>
-      <c r="S59" t="n">
-        <v>4</v>
-      </c>
+      <c r="S59" t="s"/>
       <c r="T59" t="s"/>
       <c r="U59" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V59" t="n">
         <v>0</v>
@@ -5696,7 +6466,7 @@
       <c r="W59" t="s"/>
       <c r="X59" t="s"/>
       <c r="Y59" t="s">
-        <v>471</v>
+        <v>444</v>
       </c>
     </row>
     <row r="60">
@@ -5712,7 +6482,7 @@
         <v>44</v>
       </c>
       <c r="F60" t="s">
-        <v>472</v>
+        <v>446</v>
       </c>
       <c r="G60" t="s">
         <v>46</v>
@@ -5721,49 +6491,49 @@
         <v>47</v>
       </c>
       <c r="I60" t="s">
-        <v>473</v>
+        <v>447</v>
       </c>
       <c r="J60" t="s">
-        <v>474</v>
+        <v>448</v>
       </c>
       <c r="K60" t="s">
-        <v>475</v>
+        <v>449</v>
       </c>
       <c r="L60" t="s">
-        <v>476</v>
+        <v>450</v>
       </c>
       <c r="M60" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N60" t="s">
-        <v>477</v>
+        <v>451</v>
       </c>
       <c r="O60" t="s">
-        <v>99</v>
+        <v>424</v>
       </c>
       <c r="P60" t="n">
         <v>3</v>
       </c>
-      <c r="Q60" t="n">
-        <v>3</v>
-      </c>
-      <c r="R60" t="n">
-        <v>3</v>
-      </c>
+      <c r="Q60" t="s"/>
+      <c r="R60" t="s"/>
       <c r="S60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T60" t="s"/>
       <c r="U60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="V60" t="n">
         <v>0</v>
       </c>
-      <c r="W60" t="s"/>
-      <c r="X60" t="s"/>
+      <c r="W60" t="s">
+        <v>452</v>
+      </c>
+      <c r="X60" t="s">
+        <v>453</v>
+      </c>
       <c r="Y60" t="s">
-        <v>478</v>
+        <v>454</v>
       </c>
     </row>
     <row r="61">
@@ -5779,7 +6549,7 @@
         <v>44</v>
       </c>
       <c r="F61" t="s">
-        <v>479</v>
+        <v>455</v>
       </c>
       <c r="G61" t="s">
         <v>46</v>
@@ -5788,35 +6558,3001 @@
         <v>47</v>
       </c>
       <c r="I61" t="s">
-        <v>480</v>
+        <v>456</v>
       </c>
       <c r="J61" t="s">
-        <v>481</v>
+        <v>457</v>
       </c>
       <c r="K61" t="s">
-        <v>482</v>
+        <v>458</v>
       </c>
       <c r="L61" t="s">
-        <v>483</v>
+        <v>459</v>
       </c>
       <c r="M61" t="n">
-        <v>1</v>
-      </c>
-      <c r="N61" t="s"/>
-      <c r="O61" t="s"/>
-      <c r="P61" t="s"/>
+        <v>4</v>
+      </c>
+      <c r="N61" t="s">
+        <v>460</v>
+      </c>
+      <c r="O61" t="s">
+        <v>61</v>
+      </c>
+      <c r="P61" t="n">
+        <v>5</v>
+      </c>
       <c r="Q61" t="s"/>
       <c r="R61" t="s"/>
-      <c r="S61" t="s"/>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
       <c r="T61" t="s"/>
-      <c r="U61" t="s"/>
+      <c r="U61" t="n">
+        <v>5</v>
+      </c>
       <c r="V61" t="n">
         <v>0</v>
       </c>
-      <c r="W61" t="s"/>
-      <c r="X61" t="s"/>
+      <c r="W61" t="s">
+        <v>452</v>
+      </c>
+      <c r="X61" t="s">
+        <v>453</v>
+      </c>
       <c r="Y61" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B62" t="s"/>
+      <c r="C62" t="s"/>
+      <c r="D62" t="n">
+        <v>61</v>
+      </c>
+      <c r="E62" t="s">
+        <v>44</v>
+      </c>
+      <c r="F62" t="s">
+        <v>462</v>
+      </c>
+      <c r="G62" t="s">
+        <v>46</v>
+      </c>
+      <c r="H62" t="s">
+        <v>47</v>
+      </c>
+      <c r="I62" t="s">
+        <v>463</v>
+      </c>
+      <c r="J62" t="s">
+        <v>464</v>
+      </c>
+      <c r="K62" t="s">
+        <v>465</v>
+      </c>
+      <c r="L62" t="s">
+        <v>466</v>
+      </c>
+      <c r="M62" t="n">
+        <v>3</v>
+      </c>
+      <c r="N62" t="s">
+        <v>467</v>
+      </c>
+      <c r="O62" t="s">
+        <v>424</v>
+      </c>
+      <c r="P62" t="s"/>
+      <c r="Q62" t="s"/>
+      <c r="R62" t="s"/>
+      <c r="S62" t="s"/>
+      <c r="T62" t="s"/>
+      <c r="U62" t="s"/>
+      <c r="V62" t="n">
+        <v>0</v>
+      </c>
+      <c r="W62" t="s">
+        <v>468</v>
+      </c>
+      <c r="X62" t="s">
+        <v>469</v>
+      </c>
+      <c r="Y62" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B63" t="s"/>
+      <c r="C63" t="s"/>
+      <c r="D63" t="n">
+        <v>62</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>471</v>
+      </c>
+      <c r="G63" t="s">
+        <v>46</v>
+      </c>
+      <c r="H63" t="s">
+        <v>47</v>
+      </c>
+      <c r="I63" t="s">
+        <v>472</v>
+      </c>
+      <c r="J63" t="s">
+        <v>473</v>
+      </c>
+      <c r="K63" t="s">
+        <v>474</v>
+      </c>
+      <c r="L63" t="s">
+        <v>475</v>
+      </c>
+      <c r="M63" t="n">
+        <v>3</v>
+      </c>
+      <c r="N63" t="s">
+        <v>476</v>
+      </c>
+      <c r="O63" t="s">
+        <v>61</v>
+      </c>
+      <c r="P63" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q63" t="n">
+        <v>2</v>
+      </c>
+      <c r="R63" t="n">
+        <v>4</v>
+      </c>
+      <c r="S63" t="n">
+        <v>4</v>
+      </c>
+      <c r="T63" t="s"/>
+      <c r="U63" t="n">
+        <v>3</v>
+      </c>
+      <c r="V63" t="n">
+        <v>0</v>
+      </c>
+      <c r="W63" t="s">
+        <v>477</v>
+      </c>
+      <c r="X63" t="s">
+        <v>478</v>
+      </c>
+      <c r="Y63" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B64" t="s"/>
+      <c r="C64" t="s"/>
+      <c r="D64" t="n">
+        <v>63</v>
+      </c>
+      <c r="E64" t="s">
+        <v>44</v>
+      </c>
+      <c r="F64" t="s">
+        <v>480</v>
+      </c>
+      <c r="G64" t="s">
+        <v>46</v>
+      </c>
+      <c r="H64" t="s">
+        <v>47</v>
+      </c>
+      <c r="I64" t="s">
+        <v>481</v>
+      </c>
+      <c r="J64" t="s">
+        <v>482</v>
+      </c>
+      <c r="K64" t="s">
+        <v>483</v>
+      </c>
+      <c r="L64" t="s">
         <v>484</v>
+      </c>
+      <c r="M64" t="n">
+        <v>3</v>
+      </c>
+      <c r="N64" t="s">
+        <v>476</v>
+      </c>
+      <c r="O64" t="s">
+        <v>61</v>
+      </c>
+      <c r="P64" t="s"/>
+      <c r="Q64" t="s"/>
+      <c r="R64" t="s"/>
+      <c r="S64" t="s"/>
+      <c r="T64" t="s"/>
+      <c r="U64" t="s"/>
+      <c r="V64" t="n">
+        <v>0</v>
+      </c>
+      <c r="W64" t="s">
+        <v>485</v>
+      </c>
+      <c r="X64" t="s">
+        <v>486</v>
+      </c>
+      <c r="Y64" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B65" t="s"/>
+      <c r="C65" t="s"/>
+      <c r="D65" t="n">
+        <v>64</v>
+      </c>
+      <c r="E65" t="s">
+        <v>44</v>
+      </c>
+      <c r="F65" t="s">
+        <v>488</v>
+      </c>
+      <c r="G65" t="s">
+        <v>46</v>
+      </c>
+      <c r="H65" t="s">
+        <v>47</v>
+      </c>
+      <c r="I65" t="s">
+        <v>489</v>
+      </c>
+      <c r="J65" t="s">
+        <v>490</v>
+      </c>
+      <c r="K65" t="s">
+        <v>491</v>
+      </c>
+      <c r="L65" t="s">
+        <v>492</v>
+      </c>
+      <c r="M65" t="n">
+        <v>2</v>
+      </c>
+      <c r="N65" t="s">
+        <v>493</v>
+      </c>
+      <c r="O65" t="s">
+        <v>61</v>
+      </c>
+      <c r="P65" t="s"/>
+      <c r="Q65" t="s"/>
+      <c r="R65" t="s"/>
+      <c r="S65" t="s"/>
+      <c r="T65" t="s"/>
+      <c r="U65" t="s"/>
+      <c r="V65" t="n">
+        <v>0</v>
+      </c>
+      <c r="W65" t="s">
+        <v>494</v>
+      </c>
+      <c r="X65" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y65" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B66" t="s"/>
+      <c r="C66" t="s"/>
+      <c r="D66" t="n">
+        <v>65</v>
+      </c>
+      <c r="E66" t="s">
+        <v>44</v>
+      </c>
+      <c r="F66" t="s">
+        <v>497</v>
+      </c>
+      <c r="G66" t="s">
+        <v>46</v>
+      </c>
+      <c r="H66" t="s">
+        <v>47</v>
+      </c>
+      <c r="I66" t="s">
+        <v>498</v>
+      </c>
+      <c r="J66" t="s">
+        <v>499</v>
+      </c>
+      <c r="K66" t="s">
+        <v>500</v>
+      </c>
+      <c r="L66" t="s">
+        <v>501</v>
+      </c>
+      <c r="M66" t="n">
+        <v>4</v>
+      </c>
+      <c r="N66" t="s">
+        <v>502</v>
+      </c>
+      <c r="O66" t="s">
+        <v>61</v>
+      </c>
+      <c r="P66" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q66" t="n">
+        <v>4</v>
+      </c>
+      <c r="R66" t="n">
+        <v>5</v>
+      </c>
+      <c r="S66" t="n">
+        <v>4</v>
+      </c>
+      <c r="T66" t="s"/>
+      <c r="U66" t="n">
+        <v>4</v>
+      </c>
+      <c r="V66" t="n">
+        <v>0</v>
+      </c>
+      <c r="W66" t="s">
+        <v>503</v>
+      </c>
+      <c r="X66" t="s">
+        <v>504</v>
+      </c>
+      <c r="Y66" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B67" t="s"/>
+      <c r="C67" t="s"/>
+      <c r="D67" t="n">
+        <v>66</v>
+      </c>
+      <c r="E67" t="s">
+        <v>44</v>
+      </c>
+      <c r="F67" t="s">
+        <v>506</v>
+      </c>
+      <c r="G67" t="s">
+        <v>46</v>
+      </c>
+      <c r="H67" t="s">
+        <v>47</v>
+      </c>
+      <c r="I67" t="s">
+        <v>507</v>
+      </c>
+      <c r="J67" t="s">
+        <v>508</v>
+      </c>
+      <c r="K67" t="s">
+        <v>509</v>
+      </c>
+      <c r="L67" t="s">
+        <v>510</v>
+      </c>
+      <c r="M67" t="n">
+        <v>3</v>
+      </c>
+      <c r="N67" t="s">
+        <v>511</v>
+      </c>
+      <c r="O67" t="s">
+        <v>61</v>
+      </c>
+      <c r="P67" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q67" t="n">
+        <v>3</v>
+      </c>
+      <c r="R67" t="n">
+        <v>4</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4</v>
+      </c>
+      <c r="T67" t="s"/>
+      <c r="U67" t="n">
+        <v>3</v>
+      </c>
+      <c r="V67" t="n">
+        <v>0</v>
+      </c>
+      <c r="W67" t="s">
+        <v>512</v>
+      </c>
+      <c r="X67" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y67" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B68" t="s"/>
+      <c r="C68" t="s"/>
+      <c r="D68" t="n">
+        <v>67</v>
+      </c>
+      <c r="E68" t="s">
+        <v>44</v>
+      </c>
+      <c r="F68" t="s">
+        <v>515</v>
+      </c>
+      <c r="G68" t="s">
+        <v>46</v>
+      </c>
+      <c r="H68" t="s">
+        <v>47</v>
+      </c>
+      <c r="I68" t="s">
+        <v>516</v>
+      </c>
+      <c r="J68" t="s">
+        <v>517</v>
+      </c>
+      <c r="K68" t="s">
+        <v>518</v>
+      </c>
+      <c r="L68" t="s">
+        <v>519</v>
+      </c>
+      <c r="M68" t="n">
+        <v>4</v>
+      </c>
+      <c r="N68" t="s"/>
+      <c r="O68" t="s"/>
+      <c r="P68" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q68" t="n">
+        <v>3</v>
+      </c>
+      <c r="R68" t="n">
+        <v>3</v>
+      </c>
+      <c r="S68" t="n">
+        <v>4</v>
+      </c>
+      <c r="T68" t="s"/>
+      <c r="U68" t="n">
+        <v>3</v>
+      </c>
+      <c r="V68" t="n">
+        <v>0</v>
+      </c>
+      <c r="W68" t="s">
+        <v>512</v>
+      </c>
+      <c r="X68" t="s">
+        <v>513</v>
+      </c>
+      <c r="Y68" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B69" t="s"/>
+      <c r="C69" t="s"/>
+      <c r="D69" t="n">
+        <v>68</v>
+      </c>
+      <c r="E69" t="s">
+        <v>44</v>
+      </c>
+      <c r="F69" t="s">
+        <v>521</v>
+      </c>
+      <c r="G69" t="s">
+        <v>46</v>
+      </c>
+      <c r="H69" t="s">
+        <v>47</v>
+      </c>
+      <c r="I69" t="s">
+        <v>522</v>
+      </c>
+      <c r="J69" t="s">
+        <v>523</v>
+      </c>
+      <c r="K69" t="s">
+        <v>524</v>
+      </c>
+      <c r="L69" t="s">
+        <v>525</v>
+      </c>
+      <c r="M69" t="n">
+        <v>3</v>
+      </c>
+      <c r="N69" t="s"/>
+      <c r="O69" t="s"/>
+      <c r="P69" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q69" t="n">
+        <v>3</v>
+      </c>
+      <c r="R69" t="n">
+        <v>3</v>
+      </c>
+      <c r="S69" t="n">
+        <v>4</v>
+      </c>
+      <c r="T69" t="s"/>
+      <c r="U69" t="n">
+        <v>3</v>
+      </c>
+      <c r="V69" t="n">
+        <v>0</v>
+      </c>
+      <c r="W69" t="s">
+        <v>526</v>
+      </c>
+      <c r="X69" t="s">
+        <v>527</v>
+      </c>
+      <c r="Y69" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B70" t="s"/>
+      <c r="C70" t="s"/>
+      <c r="D70" t="n">
+        <v>69</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>529</v>
+      </c>
+      <c r="G70" t="s">
+        <v>46</v>
+      </c>
+      <c r="H70" t="s">
+        <v>47</v>
+      </c>
+      <c r="I70" t="s">
+        <v>530</v>
+      </c>
+      <c r="J70" t="s">
+        <v>531</v>
+      </c>
+      <c r="K70" t="s">
+        <v>532</v>
+      </c>
+      <c r="L70" t="s">
+        <v>533</v>
+      </c>
+      <c r="M70" t="n">
+        <v>3</v>
+      </c>
+      <c r="N70" t="s">
+        <v>534</v>
+      </c>
+      <c r="O70" t="s">
+        <v>61</v>
+      </c>
+      <c r="P70" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q70" t="n">
+        <v>3</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2</v>
+      </c>
+      <c r="S70" t="n">
+        <v>3</v>
+      </c>
+      <c r="T70" t="s"/>
+      <c r="U70" t="n">
+        <v>4</v>
+      </c>
+      <c r="V70" t="n">
+        <v>0</v>
+      </c>
+      <c r="W70" t="s">
+        <v>535</v>
+      </c>
+      <c r="X70" t="s">
+        <v>536</v>
+      </c>
+      <c r="Y70" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B71" t="s"/>
+      <c r="C71" t="s"/>
+      <c r="D71" t="n">
+        <v>70</v>
+      </c>
+      <c r="E71" t="s">
+        <v>44</v>
+      </c>
+      <c r="F71" t="s">
+        <v>538</v>
+      </c>
+      <c r="G71" t="s">
+        <v>46</v>
+      </c>
+      <c r="H71" t="s">
+        <v>47</v>
+      </c>
+      <c r="I71" t="s">
+        <v>539</v>
+      </c>
+      <c r="J71" t="s">
+        <v>540</v>
+      </c>
+      <c r="K71" t="s">
+        <v>541</v>
+      </c>
+      <c r="L71" t="s">
+        <v>542</v>
+      </c>
+      <c r="M71" t="n">
+        <v>4</v>
+      </c>
+      <c r="N71" t="s"/>
+      <c r="O71" t="s"/>
+      <c r="P71" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q71" t="n">
+        <v>4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4</v>
+      </c>
+      <c r="T71" t="s"/>
+      <c r="U71" t="n">
+        <v>4</v>
+      </c>
+      <c r="V71" t="n">
+        <v>0</v>
+      </c>
+      <c r="W71" t="s"/>
+      <c r="X71" t="s"/>
+      <c r="Y71" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B72" t="s"/>
+      <c r="C72" t="s"/>
+      <c r="D72" t="n">
+        <v>71</v>
+      </c>
+      <c r="E72" t="s">
+        <v>44</v>
+      </c>
+      <c r="F72" t="s">
+        <v>543</v>
+      </c>
+      <c r="G72" t="s">
+        <v>46</v>
+      </c>
+      <c r="H72" t="s">
+        <v>47</v>
+      </c>
+      <c r="I72" t="s">
+        <v>544</v>
+      </c>
+      <c r="J72" t="s">
+        <v>545</v>
+      </c>
+      <c r="K72" t="s">
+        <v>546</v>
+      </c>
+      <c r="L72" t="s">
+        <v>547</v>
+      </c>
+      <c r="M72" t="n">
+        <v>5</v>
+      </c>
+      <c r="N72" t="s"/>
+      <c r="O72" t="s"/>
+      <c r="P72" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q72" t="n">
+        <v>5</v>
+      </c>
+      <c r="R72" t="n">
+        <v>5</v>
+      </c>
+      <c r="S72" t="n">
+        <v>5</v>
+      </c>
+      <c r="T72" t="s"/>
+      <c r="U72" t="n">
+        <v>5</v>
+      </c>
+      <c r="V72" t="n">
+        <v>0</v>
+      </c>
+      <c r="W72" t="s"/>
+      <c r="X72" t="s"/>
+      <c r="Y72" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B73" t="s"/>
+      <c r="C73" t="s"/>
+      <c r="D73" t="n">
+        <v>72</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>548</v>
+      </c>
+      <c r="G73" t="s">
+        <v>46</v>
+      </c>
+      <c r="H73" t="s">
+        <v>47</v>
+      </c>
+      <c r="I73" t="s">
+        <v>549</v>
+      </c>
+      <c r="J73" t="s">
+        <v>550</v>
+      </c>
+      <c r="K73" t="s">
+        <v>551</v>
+      </c>
+      <c r="L73" t="s">
+        <v>552</v>
+      </c>
+      <c r="M73" t="n">
+        <v>3</v>
+      </c>
+      <c r="N73" t="s">
+        <v>553</v>
+      </c>
+      <c r="O73" t="s">
+        <v>61</v>
+      </c>
+      <c r="P73" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q73" t="n">
+        <v>3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>3</v>
+      </c>
+      <c r="S73" t="n">
+        <v>3</v>
+      </c>
+      <c r="T73" t="s"/>
+      <c r="U73" t="n">
+        <v>3</v>
+      </c>
+      <c r="V73" t="n">
+        <v>0</v>
+      </c>
+      <c r="W73" t="s">
+        <v>554</v>
+      </c>
+      <c r="X73" t="s">
+        <v>555</v>
+      </c>
+      <c r="Y73" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B74" t="s"/>
+      <c r="C74" t="s"/>
+      <c r="D74" t="n">
+        <v>73</v>
+      </c>
+      <c r="E74" t="s">
+        <v>44</v>
+      </c>
+      <c r="F74" t="s">
+        <v>557</v>
+      </c>
+      <c r="G74" t="s">
+        <v>46</v>
+      </c>
+      <c r="H74" t="s">
+        <v>47</v>
+      </c>
+      <c r="I74" t="s">
+        <v>558</v>
+      </c>
+      <c r="J74" t="s">
+        <v>559</v>
+      </c>
+      <c r="K74" t="s">
+        <v>560</v>
+      </c>
+      <c r="L74" t="s">
+        <v>561</v>
+      </c>
+      <c r="M74" t="n">
+        <v>4</v>
+      </c>
+      <c r="N74" t="s">
+        <v>562</v>
+      </c>
+      <c r="O74" t="s">
+        <v>61</v>
+      </c>
+      <c r="P74" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q74" t="n">
+        <v>3</v>
+      </c>
+      <c r="R74" t="n">
+        <v>4</v>
+      </c>
+      <c r="S74" t="n">
+        <v>4</v>
+      </c>
+      <c r="T74" t="s"/>
+      <c r="U74" t="n">
+        <v>4</v>
+      </c>
+      <c r="V74" t="n">
+        <v>0</v>
+      </c>
+      <c r="W74" t="s"/>
+      <c r="X74" t="s"/>
+      <c r="Y74" t="s">
+        <v>561</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B75" t="s"/>
+      <c r="C75" t="s"/>
+      <c r="D75" t="n">
+        <v>74</v>
+      </c>
+      <c r="E75" t="s">
+        <v>44</v>
+      </c>
+      <c r="F75" t="s">
+        <v>563</v>
+      </c>
+      <c r="G75" t="s">
+        <v>46</v>
+      </c>
+      <c r="H75" t="s">
+        <v>47</v>
+      </c>
+      <c r="I75" t="s">
+        <v>564</v>
+      </c>
+      <c r="J75" t="s">
+        <v>565</v>
+      </c>
+      <c r="K75" t="s">
+        <v>566</v>
+      </c>
+      <c r="L75" t="s">
+        <v>567</v>
+      </c>
+      <c r="M75" t="n">
+        <v>5</v>
+      </c>
+      <c r="N75" t="s">
+        <v>568</v>
+      </c>
+      <c r="O75" t="s">
+        <v>61</v>
+      </c>
+      <c r="P75" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>5</v>
+      </c>
+      <c r="S75" t="n">
+        <v>5</v>
+      </c>
+      <c r="T75" t="s"/>
+      <c r="U75" t="n">
+        <v>5</v>
+      </c>
+      <c r="V75" t="n">
+        <v>0</v>
+      </c>
+      <c r="W75" t="s">
+        <v>569</v>
+      </c>
+      <c r="X75" t="s">
+        <v>570</v>
+      </c>
+      <c r="Y75" t="s">
+        <v>571</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B76" t="s"/>
+      <c r="C76" t="s"/>
+      <c r="D76" t="n">
+        <v>75</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>572</v>
+      </c>
+      <c r="G76" t="s">
+        <v>46</v>
+      </c>
+      <c r="H76" t="s">
+        <v>47</v>
+      </c>
+      <c r="I76" t="s">
+        <v>573</v>
+      </c>
+      <c r="J76" t="s">
+        <v>574</v>
+      </c>
+      <c r="K76" t="s">
+        <v>575</v>
+      </c>
+      <c r="L76" t="s">
+        <v>576</v>
+      </c>
+      <c r="M76" t="n">
+        <v>4</v>
+      </c>
+      <c r="N76" t="s">
+        <v>568</v>
+      </c>
+      <c r="O76" t="s">
+        <v>61</v>
+      </c>
+      <c r="P76" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>4</v>
+      </c>
+      <c r="R76" t="n">
+        <v>4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>4</v>
+      </c>
+      <c r="T76" t="s"/>
+      <c r="U76" t="n">
+        <v>4</v>
+      </c>
+      <c r="V76" t="n">
+        <v>0</v>
+      </c>
+      <c r="W76" t="s">
+        <v>577</v>
+      </c>
+      <c r="X76" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y76" t="s">
+        <v>579</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B77" t="s"/>
+      <c r="C77" t="s"/>
+      <c r="D77" t="n">
+        <v>76</v>
+      </c>
+      <c r="E77" t="s">
+        <v>44</v>
+      </c>
+      <c r="F77" t="s">
+        <v>580</v>
+      </c>
+      <c r="G77" t="s">
+        <v>46</v>
+      </c>
+      <c r="H77" t="s">
+        <v>47</v>
+      </c>
+      <c r="I77" t="s">
+        <v>581</v>
+      </c>
+      <c r="J77" t="s">
+        <v>582</v>
+      </c>
+      <c r="K77" t="s">
+        <v>583</v>
+      </c>
+      <c r="L77" t="s">
+        <v>584</v>
+      </c>
+      <c r="M77" t="n">
+        <v>4</v>
+      </c>
+      <c r="N77" t="s">
+        <v>585</v>
+      </c>
+      <c r="O77" t="s">
+        <v>61</v>
+      </c>
+      <c r="P77" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q77" t="n">
+        <v>4</v>
+      </c>
+      <c r="R77" t="n">
+        <v>4</v>
+      </c>
+      <c r="S77" t="n">
+        <v>4</v>
+      </c>
+      <c r="T77" t="s"/>
+      <c r="U77" t="n">
+        <v>5</v>
+      </c>
+      <c r="V77" t="n">
+        <v>0</v>
+      </c>
+      <c r="W77" t="s">
+        <v>577</v>
+      </c>
+      <c r="X77" t="s">
+        <v>578</v>
+      </c>
+      <c r="Y77" t="s">
+        <v>586</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B78" t="s"/>
+      <c r="C78" t="s"/>
+      <c r="D78" t="n">
+        <v>77</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>587</v>
+      </c>
+      <c r="G78" t="s">
+        <v>46</v>
+      </c>
+      <c r="H78" t="s">
+        <v>47</v>
+      </c>
+      <c r="I78" t="s">
+        <v>588</v>
+      </c>
+      <c r="J78" t="s">
+        <v>589</v>
+      </c>
+      <c r="K78" t="s">
+        <v>590</v>
+      </c>
+      <c r="L78" t="s">
+        <v>591</v>
+      </c>
+      <c r="M78" t="n">
+        <v>4</v>
+      </c>
+      <c r="N78" t="s">
+        <v>592</v>
+      </c>
+      <c r="O78" t="s">
+        <v>61</v>
+      </c>
+      <c r="P78" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q78" t="n">
+        <v>4</v>
+      </c>
+      <c r="R78" t="n">
+        <v>5</v>
+      </c>
+      <c r="S78" t="n">
+        <v>4</v>
+      </c>
+      <c r="T78" t="s"/>
+      <c r="U78" t="n">
+        <v>4</v>
+      </c>
+      <c r="V78" t="n">
+        <v>0</v>
+      </c>
+      <c r="W78" t="s">
+        <v>593</v>
+      </c>
+      <c r="X78" t="s">
+        <v>594</v>
+      </c>
+      <c r="Y78" t="s">
+        <v>595</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B79" t="s"/>
+      <c r="C79" t="s"/>
+      <c r="D79" t="n">
+        <v>78</v>
+      </c>
+      <c r="E79" t="s">
+        <v>44</v>
+      </c>
+      <c r="F79" t="s">
+        <v>596</v>
+      </c>
+      <c r="G79" t="s">
+        <v>46</v>
+      </c>
+      <c r="H79" t="s">
+        <v>47</v>
+      </c>
+      <c r="I79" t="s">
+        <v>597</v>
+      </c>
+      <c r="J79" t="s">
+        <v>598</v>
+      </c>
+      <c r="K79" t="s">
+        <v>599</v>
+      </c>
+      <c r="L79" t="s">
+        <v>600</v>
+      </c>
+      <c r="M79" t="n">
+        <v>2</v>
+      </c>
+      <c r="N79" t="s">
+        <v>601</v>
+      </c>
+      <c r="O79" t="s">
+        <v>61</v>
+      </c>
+      <c r="P79" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q79" t="n">
+        <v>1</v>
+      </c>
+      <c r="R79" t="n">
+        <v>3</v>
+      </c>
+      <c r="S79" t="n">
+        <v>1</v>
+      </c>
+      <c r="T79" t="s"/>
+      <c r="U79" t="n">
+        <v>1</v>
+      </c>
+      <c r="V79" t="n">
+        <v>0</v>
+      </c>
+      <c r="W79" t="s">
+        <v>602</v>
+      </c>
+      <c r="X79" t="s">
+        <v>603</v>
+      </c>
+      <c r="Y79" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B80" t="s"/>
+      <c r="C80" t="s"/>
+      <c r="D80" t="n">
+        <v>79</v>
+      </c>
+      <c r="E80" t="s">
+        <v>44</v>
+      </c>
+      <c r="F80" t="s">
+        <v>605</v>
+      </c>
+      <c r="G80" t="s">
+        <v>46</v>
+      </c>
+      <c r="H80" t="s">
+        <v>47</v>
+      </c>
+      <c r="I80" t="s">
+        <v>606</v>
+      </c>
+      <c r="J80" t="s">
+        <v>607</v>
+      </c>
+      <c r="K80" t="s">
+        <v>608</v>
+      </c>
+      <c r="L80" t="s">
+        <v>609</v>
+      </c>
+      <c r="M80" t="n">
+        <v>5</v>
+      </c>
+      <c r="N80" t="s">
+        <v>592</v>
+      </c>
+      <c r="O80" t="s">
+        <v>53</v>
+      </c>
+      <c r="P80" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q80" t="s"/>
+      <c r="R80" t="n">
+        <v>4</v>
+      </c>
+      <c r="S80" t="s"/>
+      <c r="T80" t="s"/>
+      <c r="U80" t="n">
+        <v>5</v>
+      </c>
+      <c r="V80" t="n">
+        <v>0</v>
+      </c>
+      <c r="W80" t="s">
+        <v>610</v>
+      </c>
+      <c r="X80" t="s">
+        <v>611</v>
+      </c>
+      <c r="Y80" t="s">
+        <v>612</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B81" t="s"/>
+      <c r="C81" t="s"/>
+      <c r="D81" t="n">
+        <v>80</v>
+      </c>
+      <c r="E81" t="s">
+        <v>44</v>
+      </c>
+      <c r="F81" t="s">
+        <v>613</v>
+      </c>
+      <c r="G81" t="s">
+        <v>46</v>
+      </c>
+      <c r="H81" t="s">
+        <v>47</v>
+      </c>
+      <c r="I81" t="s">
+        <v>614</v>
+      </c>
+      <c r="J81" t="s">
+        <v>615</v>
+      </c>
+      <c r="K81" t="s">
+        <v>616</v>
+      </c>
+      <c r="L81" t="s">
+        <v>617</v>
+      </c>
+      <c r="M81" t="n">
+        <v>2</v>
+      </c>
+      <c r="N81" t="s">
+        <v>618</v>
+      </c>
+      <c r="O81" t="s">
+        <v>61</v>
+      </c>
+      <c r="P81" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q81" t="n">
+        <v>2</v>
+      </c>
+      <c r="R81" t="s"/>
+      <c r="S81" t="n">
+        <v>2</v>
+      </c>
+      <c r="T81" t="s"/>
+      <c r="U81" t="n">
+        <v>3</v>
+      </c>
+      <c r="V81" t="n">
+        <v>0</v>
+      </c>
+      <c r="W81" t="s">
+        <v>619</v>
+      </c>
+      <c r="X81" t="s">
+        <v>620</v>
+      </c>
+      <c r="Y81" t="s">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B82" t="s"/>
+      <c r="C82" t="s"/>
+      <c r="D82" t="n">
+        <v>81</v>
+      </c>
+      <c r="E82" t="s">
+        <v>44</v>
+      </c>
+      <c r="F82" t="s">
+        <v>622</v>
+      </c>
+      <c r="G82" t="s">
+        <v>46</v>
+      </c>
+      <c r="H82" t="s">
+        <v>47</v>
+      </c>
+      <c r="I82" t="s">
+        <v>623</v>
+      </c>
+      <c r="J82" t="s">
+        <v>624</v>
+      </c>
+      <c r="K82" t="s">
+        <v>625</v>
+      </c>
+      <c r="L82" t="s">
+        <v>626</v>
+      </c>
+      <c r="M82" t="n">
+        <v>5</v>
+      </c>
+      <c r="N82" t="s">
+        <v>618</v>
+      </c>
+      <c r="O82" t="s">
+        <v>61</v>
+      </c>
+      <c r="P82" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q82" t="n">
+        <v>4</v>
+      </c>
+      <c r="R82" t="n">
+        <v>5</v>
+      </c>
+      <c r="S82" t="n">
+        <v>5</v>
+      </c>
+      <c r="T82" t="s"/>
+      <c r="U82" t="n">
+        <v>5</v>
+      </c>
+      <c r="V82" t="n">
+        <v>0</v>
+      </c>
+      <c r="W82" t="s">
+        <v>627</v>
+      </c>
+      <c r="X82" t="s">
+        <v>628</v>
+      </c>
+      <c r="Y82" t="s">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B83" t="s"/>
+      <c r="C83" t="s"/>
+      <c r="D83" t="n">
+        <v>82</v>
+      </c>
+      <c r="E83" t="s">
+        <v>44</v>
+      </c>
+      <c r="F83" t="s">
+        <v>630</v>
+      </c>
+      <c r="G83" t="s">
+        <v>46</v>
+      </c>
+      <c r="H83" t="s">
+        <v>47</v>
+      </c>
+      <c r="I83" t="s">
+        <v>631</v>
+      </c>
+      <c r="J83" t="s">
+        <v>632</v>
+      </c>
+      <c r="K83" t="s">
+        <v>633</v>
+      </c>
+      <c r="L83" t="s">
+        <v>634</v>
+      </c>
+      <c r="M83" t="n">
+        <v>5</v>
+      </c>
+      <c r="N83" t="s">
+        <v>618</v>
+      </c>
+      <c r="O83" t="s">
+        <v>53</v>
+      </c>
+      <c r="P83" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q83" t="n">
+        <v>5</v>
+      </c>
+      <c r="R83" t="n">
+        <v>5</v>
+      </c>
+      <c r="S83" t="n">
+        <v>5</v>
+      </c>
+      <c r="T83" t="s"/>
+      <c r="U83" t="n">
+        <v>5</v>
+      </c>
+      <c r="V83" t="n">
+        <v>0</v>
+      </c>
+      <c r="W83" t="s">
+        <v>635</v>
+      </c>
+      <c r="X83" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y83" t="s">
+        <v>637</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B84" t="s"/>
+      <c r="C84" t="s"/>
+      <c r="D84" t="n">
+        <v>83</v>
+      </c>
+      <c r="E84" t="s">
+        <v>44</v>
+      </c>
+      <c r="F84" t="s">
+        <v>638</v>
+      </c>
+      <c r="G84" t="s">
+        <v>46</v>
+      </c>
+      <c r="H84" t="s">
+        <v>47</v>
+      </c>
+      <c r="I84" t="s">
+        <v>639</v>
+      </c>
+      <c r="J84" t="s">
+        <v>640</v>
+      </c>
+      <c r="K84" t="s">
+        <v>641</v>
+      </c>
+      <c r="L84" t="s">
+        <v>642</v>
+      </c>
+      <c r="M84" t="n">
+        <v>3</v>
+      </c>
+      <c r="N84" t="s">
+        <v>643</v>
+      </c>
+      <c r="O84" t="s">
+        <v>61</v>
+      </c>
+      <c r="P84" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q84" t="n">
+        <v>2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>5</v>
+      </c>
+      <c r="S84" t="n">
+        <v>3</v>
+      </c>
+      <c r="T84" t="s"/>
+      <c r="U84" t="n">
+        <v>5</v>
+      </c>
+      <c r="V84" t="n">
+        <v>0</v>
+      </c>
+      <c r="W84" t="s">
+        <v>635</v>
+      </c>
+      <c r="X84" t="s">
+        <v>636</v>
+      </c>
+      <c r="Y84" t="s">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B85" t="s"/>
+      <c r="C85" t="s"/>
+      <c r="D85" t="n">
+        <v>84</v>
+      </c>
+      <c r="E85" t="s">
+        <v>44</v>
+      </c>
+      <c r="F85" t="s">
+        <v>645</v>
+      </c>
+      <c r="G85" t="s">
+        <v>46</v>
+      </c>
+      <c r="H85" t="s">
+        <v>47</v>
+      </c>
+      <c r="I85" t="s">
+        <v>646</v>
+      </c>
+      <c r="J85" t="s">
+        <v>647</v>
+      </c>
+      <c r="K85" t="s">
+        <v>648</v>
+      </c>
+      <c r="L85" t="s">
+        <v>649</v>
+      </c>
+      <c r="M85" t="n">
+        <v>1</v>
+      </c>
+      <c r="N85" t="s">
+        <v>601</v>
+      </c>
+      <c r="O85" t="s">
+        <v>53</v>
+      </c>
+      <c r="P85" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q85" t="n">
+        <v>3</v>
+      </c>
+      <c r="R85" t="n">
+        <v>4</v>
+      </c>
+      <c r="S85" t="n">
+        <v>4</v>
+      </c>
+      <c r="T85" t="s"/>
+      <c r="U85" t="n">
+        <v>4</v>
+      </c>
+      <c r="V85" t="n">
+        <v>0</v>
+      </c>
+      <c r="W85" t="s">
+        <v>650</v>
+      </c>
+      <c r="X85" t="s">
+        <v>651</v>
+      </c>
+      <c r="Y85" t="s">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B86" t="s"/>
+      <c r="C86" t="s"/>
+      <c r="D86" t="n">
+        <v>85</v>
+      </c>
+      <c r="E86" t="s">
+        <v>44</v>
+      </c>
+      <c r="F86" t="s">
+        <v>653</v>
+      </c>
+      <c r="G86" t="s">
+        <v>46</v>
+      </c>
+      <c r="H86" t="s">
+        <v>47</v>
+      </c>
+      <c r="I86" t="s">
+        <v>654</v>
+      </c>
+      <c r="J86" t="s">
+        <v>655</v>
+      </c>
+      <c r="K86" t="s">
+        <v>656</v>
+      </c>
+      <c r="L86" t="s">
+        <v>657</v>
+      </c>
+      <c r="M86" t="n">
+        <v>4</v>
+      </c>
+      <c r="N86" t="s">
+        <v>658</v>
+      </c>
+      <c r="O86" t="s">
+        <v>76</v>
+      </c>
+      <c r="P86" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q86" t="n">
+        <v>4</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3</v>
+      </c>
+      <c r="S86" t="n">
+        <v>5</v>
+      </c>
+      <c r="T86" t="s"/>
+      <c r="U86" t="n">
+        <v>5</v>
+      </c>
+      <c r="V86" t="n">
+        <v>0</v>
+      </c>
+      <c r="W86" t="s">
+        <v>659</v>
+      </c>
+      <c r="X86" t="s">
+        <v>660</v>
+      </c>
+      <c r="Y86" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B87" t="s"/>
+      <c r="C87" t="s"/>
+      <c r="D87" t="n">
+        <v>86</v>
+      </c>
+      <c r="E87" t="s">
+        <v>44</v>
+      </c>
+      <c r="F87" t="s">
+        <v>662</v>
+      </c>
+      <c r="G87" t="s">
+        <v>46</v>
+      </c>
+      <c r="H87" t="s">
+        <v>47</v>
+      </c>
+      <c r="I87" t="s">
+        <v>663</v>
+      </c>
+      <c r="J87" t="s">
+        <v>664</v>
+      </c>
+      <c r="K87" t="s">
+        <v>665</v>
+      </c>
+      <c r="L87" t="s">
+        <v>666</v>
+      </c>
+      <c r="M87" t="n">
+        <v>4</v>
+      </c>
+      <c r="N87" t="s">
+        <v>667</v>
+      </c>
+      <c r="O87" t="s">
+        <v>248</v>
+      </c>
+      <c r="P87" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q87" t="n">
+        <v>4</v>
+      </c>
+      <c r="R87" t="n">
+        <v>4</v>
+      </c>
+      <c r="S87" t="n">
+        <v>5</v>
+      </c>
+      <c r="T87" t="s"/>
+      <c r="U87" t="n">
+        <v>5</v>
+      </c>
+      <c r="V87" t="n">
+        <v>0</v>
+      </c>
+      <c r="W87" t="s">
+        <v>668</v>
+      </c>
+      <c r="X87" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y87" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B88" t="s"/>
+      <c r="C88" t="s"/>
+      <c r="D88" t="n">
+        <v>87</v>
+      </c>
+      <c r="E88" t="s">
+        <v>44</v>
+      </c>
+      <c r="F88" t="s">
+        <v>671</v>
+      </c>
+      <c r="G88" t="s">
+        <v>46</v>
+      </c>
+      <c r="H88" t="s">
+        <v>47</v>
+      </c>
+      <c r="I88" t="s">
+        <v>672</v>
+      </c>
+      <c r="J88" t="s">
+        <v>673</v>
+      </c>
+      <c r="K88" t="s">
+        <v>674</v>
+      </c>
+      <c r="L88" t="s">
+        <v>675</v>
+      </c>
+      <c r="M88" t="n">
+        <v>5</v>
+      </c>
+      <c r="N88" t="s">
+        <v>676</v>
+      </c>
+      <c r="O88" t="s">
+        <v>61</v>
+      </c>
+      <c r="P88" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q88" t="n">
+        <v>5</v>
+      </c>
+      <c r="R88" t="n">
+        <v>5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>5</v>
+      </c>
+      <c r="T88" t="s"/>
+      <c r="U88" t="n">
+        <v>5</v>
+      </c>
+      <c r="V88" t="n">
+        <v>0</v>
+      </c>
+      <c r="W88" t="s">
+        <v>668</v>
+      </c>
+      <c r="X88" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y88" t="s">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B89" t="s"/>
+      <c r="C89" t="s"/>
+      <c r="D89" t="n">
+        <v>88</v>
+      </c>
+      <c r="E89" t="s">
+        <v>44</v>
+      </c>
+      <c r="F89" t="s">
+        <v>678</v>
+      </c>
+      <c r="G89" t="s">
+        <v>46</v>
+      </c>
+      <c r="H89" t="s">
+        <v>47</v>
+      </c>
+      <c r="I89" t="s">
+        <v>679</v>
+      </c>
+      <c r="J89" t="s">
+        <v>680</v>
+      </c>
+      <c r="K89" t="s">
+        <v>681</v>
+      </c>
+      <c r="L89" t="s">
+        <v>682</v>
+      </c>
+      <c r="M89" t="n">
+        <v>4</v>
+      </c>
+      <c r="N89" t="s">
+        <v>683</v>
+      </c>
+      <c r="O89" t="s">
+        <v>61</v>
+      </c>
+      <c r="P89" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q89" t="n">
+        <v>5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>3</v>
+      </c>
+      <c r="S89" t="n">
+        <v>5</v>
+      </c>
+      <c r="T89" t="s"/>
+      <c r="U89" t="n">
+        <v>4</v>
+      </c>
+      <c r="V89" t="n">
+        <v>0</v>
+      </c>
+      <c r="W89" t="s">
+        <v>668</v>
+      </c>
+      <c r="X89" t="s">
+        <v>669</v>
+      </c>
+      <c r="Y89" t="s">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B90" t="s"/>
+      <c r="C90" t="s"/>
+      <c r="D90" t="n">
+        <v>89</v>
+      </c>
+      <c r="E90" t="s">
+        <v>44</v>
+      </c>
+      <c r="F90" t="s">
+        <v>685</v>
+      </c>
+      <c r="G90" t="s">
+        <v>46</v>
+      </c>
+      <c r="H90" t="s">
+        <v>47</v>
+      </c>
+      <c r="I90" t="s">
+        <v>686</v>
+      </c>
+      <c r="J90" t="s">
+        <v>687</v>
+      </c>
+      <c r="K90" t="s">
+        <v>688</v>
+      </c>
+      <c r="L90" t="s">
+        <v>689</v>
+      </c>
+      <c r="M90" t="n">
+        <v>5</v>
+      </c>
+      <c r="N90" t="s">
+        <v>690</v>
+      </c>
+      <c r="O90" t="s">
+        <v>61</v>
+      </c>
+      <c r="P90" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q90" t="n">
+        <v>4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>4</v>
+      </c>
+      <c r="S90" t="n">
+        <v>5</v>
+      </c>
+      <c r="T90" t="s"/>
+      <c r="U90" t="n">
+        <v>5</v>
+      </c>
+      <c r="V90" t="n">
+        <v>0</v>
+      </c>
+      <c r="W90" t="s">
+        <v>691</v>
+      </c>
+      <c r="X90" t="s">
+        <v>692</v>
+      </c>
+      <c r="Y90" t="s">
+        <v>693</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B91" t="s"/>
+      <c r="C91" t="s"/>
+      <c r="D91" t="n">
+        <v>90</v>
+      </c>
+      <c r="E91" t="s">
+        <v>44</v>
+      </c>
+      <c r="F91" t="s">
+        <v>694</v>
+      </c>
+      <c r="G91" t="s">
+        <v>46</v>
+      </c>
+      <c r="H91" t="s">
+        <v>47</v>
+      </c>
+      <c r="I91" t="s">
+        <v>695</v>
+      </c>
+      <c r="J91" t="s">
+        <v>696</v>
+      </c>
+      <c r="K91" t="s">
+        <v>697</v>
+      </c>
+      <c r="L91" t="s">
+        <v>698</v>
+      </c>
+      <c r="M91" t="n">
+        <v>5</v>
+      </c>
+      <c r="N91" t="s">
+        <v>699</v>
+      </c>
+      <c r="O91" t="s">
+        <v>61</v>
+      </c>
+      <c r="P91" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q91" t="s"/>
+      <c r="R91" t="s"/>
+      <c r="S91" t="n">
+        <v>5</v>
+      </c>
+      <c r="T91" t="s"/>
+      <c r="U91" t="n">
+        <v>5</v>
+      </c>
+      <c r="V91" t="n">
+        <v>0</v>
+      </c>
+      <c r="W91" t="s">
+        <v>700</v>
+      </c>
+      <c r="X91" t="s">
+        <v>701</v>
+      </c>
+      <c r="Y91" t="s">
+        <v>702</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B92" t="s"/>
+      <c r="C92" t="s"/>
+      <c r="D92" t="n">
+        <v>91</v>
+      </c>
+      <c r="E92" t="s">
+        <v>44</v>
+      </c>
+      <c r="F92" t="s">
+        <v>703</v>
+      </c>
+      <c r="G92" t="s">
+        <v>46</v>
+      </c>
+      <c r="H92" t="s">
+        <v>47</v>
+      </c>
+      <c r="I92" t="s">
+        <v>704</v>
+      </c>
+      <c r="J92" t="s">
+        <v>705</v>
+      </c>
+      <c r="K92" t="s">
+        <v>706</v>
+      </c>
+      <c r="L92" t="s">
+        <v>707</v>
+      </c>
+      <c r="M92" t="n">
+        <v>5</v>
+      </c>
+      <c r="N92" t="s">
+        <v>699</v>
+      </c>
+      <c r="O92" t="s">
+        <v>61</v>
+      </c>
+      <c r="P92" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q92" t="s"/>
+      <c r="R92" t="s"/>
+      <c r="S92" t="n">
+        <v>5</v>
+      </c>
+      <c r="T92" t="s"/>
+      <c r="U92" t="n">
+        <v>5</v>
+      </c>
+      <c r="V92" t="n">
+        <v>0</v>
+      </c>
+      <c r="W92" t="s">
+        <v>708</v>
+      </c>
+      <c r="X92" t="s">
+        <v>709</v>
+      </c>
+      <c r="Y92" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B93" t="s"/>
+      <c r="C93" t="s"/>
+      <c r="D93" t="n">
+        <v>92</v>
+      </c>
+      <c r="E93" t="s">
+        <v>44</v>
+      </c>
+      <c r="F93" t="s">
+        <v>711</v>
+      </c>
+      <c r="G93" t="s">
+        <v>46</v>
+      </c>
+      <c r="H93" t="s">
+        <v>47</v>
+      </c>
+      <c r="I93" t="s">
+        <v>712</v>
+      </c>
+      <c r="J93" t="s">
+        <v>713</v>
+      </c>
+      <c r="K93" t="s">
+        <v>714</v>
+      </c>
+      <c r="L93" t="s">
+        <v>715</v>
+      </c>
+      <c r="M93" t="n">
+        <v>5</v>
+      </c>
+      <c r="N93" t="s">
+        <v>690</v>
+      </c>
+      <c r="O93" t="s">
+        <v>61</v>
+      </c>
+      <c r="P93" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q93" t="n">
+        <v>5</v>
+      </c>
+      <c r="R93" t="n">
+        <v>5</v>
+      </c>
+      <c r="S93" t="n">
+        <v>5</v>
+      </c>
+      <c r="T93" t="s"/>
+      <c r="U93" t="n">
+        <v>5</v>
+      </c>
+      <c r="V93" t="n">
+        <v>0</v>
+      </c>
+      <c r="W93" t="s">
+        <v>716</v>
+      </c>
+      <c r="X93" t="s">
+        <v>717</v>
+      </c>
+      <c r="Y93" t="s">
+        <v>718</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B94" t="s"/>
+      <c r="C94" t="s"/>
+      <c r="D94" t="n">
+        <v>93</v>
+      </c>
+      <c r="E94" t="s">
+        <v>44</v>
+      </c>
+      <c r="F94" t="s">
+        <v>719</v>
+      </c>
+      <c r="G94" t="s">
+        <v>46</v>
+      </c>
+      <c r="H94" t="s">
+        <v>47</v>
+      </c>
+      <c r="I94" t="s">
+        <v>720</v>
+      </c>
+      <c r="J94" t="s">
+        <v>721</v>
+      </c>
+      <c r="K94" t="s">
+        <v>722</v>
+      </c>
+      <c r="L94" t="s">
+        <v>723</v>
+      </c>
+      <c r="M94" t="n">
+        <v>5</v>
+      </c>
+      <c r="N94" t="s">
+        <v>690</v>
+      </c>
+      <c r="O94" t="s">
+        <v>61</v>
+      </c>
+      <c r="P94" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q94" t="n">
+        <v>5</v>
+      </c>
+      <c r="R94" t="n">
+        <v>5</v>
+      </c>
+      <c r="S94" t="n">
+        <v>5</v>
+      </c>
+      <c r="T94" t="s"/>
+      <c r="U94" t="n">
+        <v>5</v>
+      </c>
+      <c r="V94" t="n">
+        <v>0</v>
+      </c>
+      <c r="W94" t="s">
+        <v>724</v>
+      </c>
+      <c r="X94" t="s">
+        <v>725</v>
+      </c>
+      <c r="Y94" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B95" t="s"/>
+      <c r="C95" t="s"/>
+      <c r="D95" t="n">
+        <v>94</v>
+      </c>
+      <c r="E95" t="s">
+        <v>44</v>
+      </c>
+      <c r="F95" t="s">
+        <v>727</v>
+      </c>
+      <c r="G95" t="s">
+        <v>46</v>
+      </c>
+      <c r="H95" t="s">
+        <v>47</v>
+      </c>
+      <c r="I95" t="s">
+        <v>728</v>
+      </c>
+      <c r="J95" t="s">
+        <v>729</v>
+      </c>
+      <c r="K95" t="s">
+        <v>730</v>
+      </c>
+      <c r="L95" t="s">
+        <v>731</v>
+      </c>
+      <c r="M95" t="n">
+        <v>4</v>
+      </c>
+      <c r="N95" t="s"/>
+      <c r="O95" t="s"/>
+      <c r="P95" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q95" t="n">
+        <v>4</v>
+      </c>
+      <c r="R95" t="n">
+        <v>4</v>
+      </c>
+      <c r="S95" t="n">
+        <v>4</v>
+      </c>
+      <c r="T95" t="s"/>
+      <c r="U95" t="n">
+        <v>4</v>
+      </c>
+      <c r="V95" t="n">
+        <v>0</v>
+      </c>
+      <c r="W95" t="s"/>
+      <c r="X95" t="s"/>
+      <c r="Y95" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B96" t="s"/>
+      <c r="C96" t="s"/>
+      <c r="D96" t="n">
+        <v>95</v>
+      </c>
+      <c r="E96" t="s">
+        <v>44</v>
+      </c>
+      <c r="F96" t="s">
+        <v>733</v>
+      </c>
+      <c r="G96" t="s">
+        <v>46</v>
+      </c>
+      <c r="H96" t="s">
+        <v>47</v>
+      </c>
+      <c r="I96" t="s">
+        <v>734</v>
+      </c>
+      <c r="J96" t="s">
+        <v>735</v>
+      </c>
+      <c r="K96" t="s">
+        <v>736</v>
+      </c>
+      <c r="L96" t="s">
+        <v>737</v>
+      </c>
+      <c r="M96" t="n">
+        <v>3</v>
+      </c>
+      <c r="N96" t="s">
+        <v>738</v>
+      </c>
+      <c r="O96" t="s">
+        <v>61</v>
+      </c>
+      <c r="P96" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q96" t="n">
+        <v>2</v>
+      </c>
+      <c r="R96" t="n">
+        <v>3</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3</v>
+      </c>
+      <c r="T96" t="s"/>
+      <c r="U96" t="n">
+        <v>3</v>
+      </c>
+      <c r="V96" t="n">
+        <v>0</v>
+      </c>
+      <c r="W96" t="s"/>
+      <c r="X96" t="s"/>
+      <c r="Y96" t="s">
+        <v>737</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B97" t="s"/>
+      <c r="C97" t="s"/>
+      <c r="D97" t="n">
+        <v>96</v>
+      </c>
+      <c r="E97" t="s">
+        <v>44</v>
+      </c>
+      <c r="F97" t="s">
+        <v>739</v>
+      </c>
+      <c r="G97" t="s">
+        <v>46</v>
+      </c>
+      <c r="H97" t="s">
+        <v>47</v>
+      </c>
+      <c r="I97" t="s">
+        <v>740</v>
+      </c>
+      <c r="J97" t="s">
+        <v>741</v>
+      </c>
+      <c r="K97" t="s">
+        <v>742</v>
+      </c>
+      <c r="L97" t="s">
+        <v>743</v>
+      </c>
+      <c r="M97" t="n">
+        <v>4</v>
+      </c>
+      <c r="N97" t="s">
+        <v>744</v>
+      </c>
+      <c r="O97" t="s">
+        <v>53</v>
+      </c>
+      <c r="P97" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q97" t="n">
+        <v>4</v>
+      </c>
+      <c r="R97" t="n">
+        <v>5</v>
+      </c>
+      <c r="S97" t="n">
+        <v>4</v>
+      </c>
+      <c r="T97" t="s"/>
+      <c r="U97" t="n">
+        <v>4</v>
+      </c>
+      <c r="V97" t="n">
+        <v>0</v>
+      </c>
+      <c r="W97" t="s"/>
+      <c r="X97" t="s"/>
+      <c r="Y97" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B98" t="s"/>
+      <c r="C98" t="s"/>
+      <c r="D98" t="n">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>44</v>
+      </c>
+      <c r="F98" t="s">
+        <v>746</v>
+      </c>
+      <c r="G98" t="s">
+        <v>46</v>
+      </c>
+      <c r="H98" t="s">
+        <v>47</v>
+      </c>
+      <c r="I98" t="s">
+        <v>747</v>
+      </c>
+      <c r="J98" t="s">
+        <v>748</v>
+      </c>
+      <c r="K98" t="s">
+        <v>749</v>
+      </c>
+      <c r="L98" t="s">
+        <v>750</v>
+      </c>
+      <c r="M98" t="n">
+        <v>2</v>
+      </c>
+      <c r="N98" t="s">
+        <v>751</v>
+      </c>
+      <c r="O98" t="s">
+        <v>61</v>
+      </c>
+      <c r="P98" t="s"/>
+      <c r="Q98" t="s"/>
+      <c r="R98" t="s"/>
+      <c r="S98" t="s"/>
+      <c r="T98" t="s"/>
+      <c r="U98" t="s"/>
+      <c r="V98" t="n">
+        <v>0</v>
+      </c>
+      <c r="W98" t="s"/>
+      <c r="X98" t="s"/>
+      <c r="Y98" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B99" t="s"/>
+      <c r="C99" t="s"/>
+      <c r="D99" t="n">
+        <v>98</v>
+      </c>
+      <c r="E99" t="s">
+        <v>44</v>
+      </c>
+      <c r="F99" t="s">
+        <v>752</v>
+      </c>
+      <c r="G99" t="s">
+        <v>46</v>
+      </c>
+      <c r="H99" t="s">
+        <v>47</v>
+      </c>
+      <c r="I99" t="s">
+        <v>753</v>
+      </c>
+      <c r="J99" t="s">
+        <v>754</v>
+      </c>
+      <c r="K99" t="s">
+        <v>755</v>
+      </c>
+      <c r="L99" t="s">
+        <v>756</v>
+      </c>
+      <c r="M99" t="n">
+        <v>3</v>
+      </c>
+      <c r="N99" t="s"/>
+      <c r="O99" t="s"/>
+      <c r="P99" t="s"/>
+      <c r="Q99" t="s"/>
+      <c r="R99" t="s"/>
+      <c r="S99" t="s"/>
+      <c r="T99" t="s"/>
+      <c r="U99" t="s"/>
+      <c r="V99" t="n">
+        <v>0</v>
+      </c>
+      <c r="W99" t="s"/>
+      <c r="X99" t="s"/>
+      <c r="Y99" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B100" t="s"/>
+      <c r="C100" t="s"/>
+      <c r="D100" t="n">
+        <v>99</v>
+      </c>
+      <c r="E100" t="s">
+        <v>44</v>
+      </c>
+      <c r="F100" t="s">
+        <v>757</v>
+      </c>
+      <c r="G100" t="s">
+        <v>46</v>
+      </c>
+      <c r="H100" t="s">
+        <v>47</v>
+      </c>
+      <c r="I100" t="s">
+        <v>758</v>
+      </c>
+      <c r="J100" t="s">
+        <v>759</v>
+      </c>
+      <c r="K100" t="s">
+        <v>760</v>
+      </c>
+      <c r="L100" t="s">
+        <v>761</v>
+      </c>
+      <c r="M100" t="n">
+        <v>4</v>
+      </c>
+      <c r="N100" t="s">
+        <v>762</v>
+      </c>
+      <c r="O100" t="s">
+        <v>424</v>
+      </c>
+      <c r="P100" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q100" t="n">
+        <v>4</v>
+      </c>
+      <c r="R100" t="n">
+        <v>4</v>
+      </c>
+      <c r="S100" t="n">
+        <v>5</v>
+      </c>
+      <c r="T100" t="s"/>
+      <c r="U100" t="n">
+        <v>4</v>
+      </c>
+      <c r="V100" t="n">
+        <v>0</v>
+      </c>
+      <c r="W100" t="s"/>
+      <c r="X100" t="s"/>
+      <c r="Y100" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B101" t="s"/>
+      <c r="C101" t="s"/>
+      <c r="D101" t="n">
+        <v>100</v>
+      </c>
+      <c r="E101" t="s">
+        <v>44</v>
+      </c>
+      <c r="F101" t="s">
+        <v>763</v>
+      </c>
+      <c r="G101" t="s">
+        <v>46</v>
+      </c>
+      <c r="H101" t="s">
+        <v>47</v>
+      </c>
+      <c r="I101" t="s">
+        <v>764</v>
+      </c>
+      <c r="J101" t="s">
+        <v>765</v>
+      </c>
+      <c r="K101" t="s">
+        <v>681</v>
+      </c>
+      <c r="L101" t="s">
+        <v>766</v>
+      </c>
+      <c r="M101" t="n">
+        <v>4</v>
+      </c>
+      <c r="N101" t="s">
+        <v>767</v>
+      </c>
+      <c r="O101" t="s">
+        <v>61</v>
+      </c>
+      <c r="P101" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q101" t="n">
+        <v>4</v>
+      </c>
+      <c r="R101" t="n">
+        <v>3</v>
+      </c>
+      <c r="S101" t="n">
+        <v>5</v>
+      </c>
+      <c r="T101" t="s"/>
+      <c r="U101" t="n">
+        <v>5</v>
+      </c>
+      <c r="V101" t="n">
+        <v>0</v>
+      </c>
+      <c r="W101" t="s"/>
+      <c r="X101" t="s"/>
+      <c r="Y101" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B102" t="s"/>
+      <c r="C102" t="s"/>
+      <c r="D102" t="n">
+        <v>101</v>
+      </c>
+      <c r="E102" t="s">
+        <v>44</v>
+      </c>
+      <c r="F102" t="s">
+        <v>769</v>
+      </c>
+      <c r="G102" t="s">
+        <v>46</v>
+      </c>
+      <c r="H102" t="s">
+        <v>47</v>
+      </c>
+      <c r="I102" t="s">
+        <v>770</v>
+      </c>
+      <c r="J102" t="s">
+        <v>771</v>
+      </c>
+      <c r="K102" t="s">
+        <v>772</v>
+      </c>
+      <c r="L102" t="s">
+        <v>773</v>
+      </c>
+      <c r="M102" t="n">
+        <v>5</v>
+      </c>
+      <c r="N102" t="s">
+        <v>774</v>
+      </c>
+      <c r="O102" t="s">
+        <v>61</v>
+      </c>
+      <c r="P102" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q102" t="n">
+        <v>4</v>
+      </c>
+      <c r="R102" t="n">
+        <v>4</v>
+      </c>
+      <c r="S102" t="n">
+        <v>4</v>
+      </c>
+      <c r="T102" t="s"/>
+      <c r="U102" t="n">
+        <v>4</v>
+      </c>
+      <c r="V102" t="n">
+        <v>0</v>
+      </c>
+      <c r="W102" t="s"/>
+      <c r="X102" t="s"/>
+      <c r="Y102" t="s">
+        <v>775</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B103" t="s"/>
+      <c r="C103" t="s"/>
+      <c r="D103" t="n">
+        <v>102</v>
+      </c>
+      <c r="E103" t="s">
+        <v>44</v>
+      </c>
+      <c r="F103" t="s">
+        <v>776</v>
+      </c>
+      <c r="G103" t="s">
+        <v>46</v>
+      </c>
+      <c r="H103" t="s">
+        <v>47</v>
+      </c>
+      <c r="I103" t="s">
+        <v>777</v>
+      </c>
+      <c r="J103" t="s">
+        <v>778</v>
+      </c>
+      <c r="K103" t="s">
+        <v>779</v>
+      </c>
+      <c r="L103" t="s">
+        <v>780</v>
+      </c>
+      <c r="M103" t="n">
+        <v>3</v>
+      </c>
+      <c r="N103" t="s">
+        <v>781</v>
+      </c>
+      <c r="O103" t="s">
+        <v>76</v>
+      </c>
+      <c r="P103" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q103" t="n">
+        <v>3</v>
+      </c>
+      <c r="R103" t="n">
+        <v>3</v>
+      </c>
+      <c r="S103" t="n">
+        <v>3</v>
+      </c>
+      <c r="T103" t="s"/>
+      <c r="U103" t="n">
+        <v>3</v>
+      </c>
+      <c r="V103" t="n">
+        <v>0</v>
+      </c>
+      <c r="W103" t="s"/>
+      <c r="X103" t="s"/>
+      <c r="Y103" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B104" t="s"/>
+      <c r="C104" t="s"/>
+      <c r="D104" t="n">
+        <v>103</v>
+      </c>
+      <c r="E104" t="s">
+        <v>44</v>
+      </c>
+      <c r="F104" t="s">
+        <v>783</v>
+      </c>
+      <c r="G104" t="s">
+        <v>46</v>
+      </c>
+      <c r="H104" t="s">
+        <v>47</v>
+      </c>
+      <c r="I104" t="s">
+        <v>784</v>
+      </c>
+      <c r="J104" t="s">
+        <v>785</v>
+      </c>
+      <c r="K104" t="s">
+        <v>786</v>
+      </c>
+      <c r="L104" t="s">
+        <v>787</v>
+      </c>
+      <c r="M104" t="n">
+        <v>1</v>
+      </c>
+      <c r="N104" t="s"/>
+      <c r="O104" t="s"/>
+      <c r="P104" t="s"/>
+      <c r="Q104" t="s"/>
+      <c r="R104" t="s"/>
+      <c r="S104" t="s"/>
+      <c r="T104" t="s"/>
+      <c r="U104" t="s"/>
+      <c r="V104" t="n">
+        <v>0</v>
+      </c>
+      <c r="W104" t="s"/>
+      <c r="X104" t="s"/>
+      <c r="Y104" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="n">
+        <v>31518</v>
+      </c>
+      <c r="B105" t="s"/>
+      <c r="C105" t="s"/>
+      <c r="D105" t="n">
+        <v>104</v>
+      </c>
+      <c r="E105" t="s">
+        <v>44</v>
+      </c>
+      <c r="F105" t="s">
+        <v>789</v>
+      </c>
+      <c r="G105" t="s">
+        <v>46</v>
+      </c>
+      <c r="H105" t="s">
+        <v>47</v>
+      </c>
+      <c r="I105" t="s">
+        <v>790</v>
+      </c>
+      <c r="J105" t="s">
+        <v>791</v>
+      </c>
+      <c r="K105" t="s">
+        <v>792</v>
+      </c>
+      <c r="L105" t="s">
+        <v>793</v>
+      </c>
+      <c r="M105" t="n">
+        <v>2</v>
+      </c>
+      <c r="N105" t="s"/>
+      <c r="O105" t="s"/>
+      <c r="P105" t="s"/>
+      <c r="Q105" t="s"/>
+      <c r="R105" t="s"/>
+      <c r="S105" t="s"/>
+      <c r="T105" t="s"/>
+      <c r="U105" t="s"/>
+      <c r="V105" t="n">
+        <v>0</v>
+      </c>
+      <c r="W105" t="s"/>
+      <c r="X105" t="s"/>
+      <c r="Y105" t="s">
+        <v>794</v>
       </c>
     </row>
   </sheetData>
